--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56CE104-1FC0-4847-A736-E1F941EF08F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AC6AE-768B-4F24-9C62-53FE7CCD4011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
-    <sheet name="30" sheetId="10" r:id="rId2"/>
-    <sheet name="20" sheetId="9" r:id="rId3"/>
+    <sheet name="30" sheetId="11" r:id="rId2"/>
+    <sheet name="20" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
   <si>
     <t>Fix B</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Proposed</t>
   </si>
   <si>
-    <t>Old_proposed</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>WaterFall</t>
   </si>
   <si>
-    <t>Old-proposed</t>
-  </si>
-  <si>
     <t>Next-One</t>
   </si>
   <si>
@@ -96,12 +90,18 @@
   <si>
     <t>Network-based</t>
   </si>
+  <si>
+    <t>PDAS</t>
+  </si>
+  <si>
+    <t>Wasted time ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +111,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,13 +221,13 @@
                   <c:v>3365.33725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2100.0439000000001</c:v>
+                  <c:v>2177.1801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1590.9681</c:v>
+                  <c:v>1598.0773999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2376.7910999999999</c:v>
+                  <c:v>2391.0097000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,16 +269,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4950.2377500000002</c:v>
+                  <c:v>5371.4324999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3141.3577999999902</c:v>
+                  <c:v>3162.5140499999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2339.4616499999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3423.09375</c:v>
+                  <c:v>3545.5950499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +422,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5111.1275999999998</c:v>
+                  <c:v>5024.7009500000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4222.7664500000001</c:v>
@@ -439,7 +431,7 @@
                   <c:v>3873.2804500000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4361.8397000000004</c:v>
+                  <c:v>4327.3940000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,6 +439,57 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AEE7-47CC-B9CC-8C974E5095AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'42'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('42'!$G$5,'42'!$G$12,'42'!$G$19,'42'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4183.6509500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3169.2586499999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2516.9164999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3136.9722499999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84F3-40D6-8D89-FCB0F75219C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -685,10 +728,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14924181266122039"/>
-          <c:y val="0.90480270120445494"/>
-          <c:w val="0.82099360029419433"/>
-          <c:h val="9.1837118563824621E-2"/>
+          <c:x val="9.0983975934959202E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.85075821436209009"/>
+          <c:h val="9.5197552722254622E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -843,7 +886,6 @@
                   <c:v>Fix-B</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -875,7 +917,6 @@
                   <c:v>24.344472499999998</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -915,7 +956,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.197770000000006</c:v>
+                  <c:v>68.197772499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.988720000000001</c:v>
@@ -1034,6 +1075,57 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B4D7-4C46-BB02-A15543D819CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'42'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('42'!$G$4,'42'!$G$11,'42'!$G$18,'42'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55.5721925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.350614999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.438892500000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.194632500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-79A4-4E69-943C-1DCB4E89564C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1100,8 +1192,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.16767122852823421"/>
-              <c:y val="0.80465342622135061"/>
+              <c:x val="0.15122690747668494"/>
+              <c:y val="0.80465345116052001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1276,10 +1368,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11475263290833415"/>
-          <c:y val="0.88684847870411032"/>
-          <c:w val="0.85523872315433913"/>
-          <c:h val="7.9756338638206192E-2"/>
+          <c:x val="9.8308193806170077E-2"/>
+          <c:y val="0.88684845126286194"/>
+          <c:w val="0.89999989209731523"/>
+          <c:h val="8.1663200938210473E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1354,271 +1446,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'42'!$B$29:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>42.00813124999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.86583437499997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.793995000000027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.793995500000026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.108368749999975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F2E-4023-ABC6-BA8AEFCD5DAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="241815935"/>
-        <c:axId val="241831327"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241815935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241831327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="241831327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241815935"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -1670,20 +1497,20 @@
                   <c:v>2250.9818999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1207.36005</c:v>
+                  <c:v>1360.21314999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>968.99045000000001</c:v>
+                  <c:v>1072.6506999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1429.1283000000001</c:v>
+                  <c:v>1487.07139999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D85F-48A8-A07A-5B3AD1B8C473}"/>
+              <c16:uniqueId val="{00000000-36C4-481C-84DC-CBABCC1D1BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1718,23 +1545,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2722.7076999999999</c:v>
+                  <c:v>3875.4812499999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2321.1192999999998</c:v>
+                  <c:v>2373.2922999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1799.9855500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2107.4048499999999</c:v>
+                  <c:v>2585.51505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D85F-48A8-A07A-5B3AD1B8C473}"/>
+              <c16:uniqueId val="{00000001-36C4-481C-84DC-CBABCC1D1BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1785,7 +1612,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D85F-48A8-A07A-5B3AD1B8C473}"/>
+              <c16:uniqueId val="{00000002-36C4-481C-84DC-CBABCC1D1BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1836,7 +1663,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D85F-48A8-A07A-5B3AD1B8C473}"/>
+              <c16:uniqueId val="{00000003-36C4-481C-84DC-CBABCC1D1BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1849,7 +1676,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Old-proposed</c:v>
+                  <c:v>Network-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1871,7 +1698,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4383.9832500000002</c:v>
+                  <c:v>3838.85025</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2420.8560499999999</c:v>
@@ -1880,14 +1707,65 @@
                   <c:v>2098.5066000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3066.6686</c:v>
+                  <c:v>3066.2915499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D85F-48A8-A07A-5B3AD1B8C473}"/>
+              <c16:uniqueId val="{00000004-36C4-481C-84DC-CBABCC1D1BE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('30'!$G$5,'30'!$G$12,'30'!$G$19,'30'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2459.7737499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2192.4892999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1709.25755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1915.87105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-36C4-481C-84DC-CBABCC1D1BE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1994,7 +1872,7 @@
         <c:axId val="644725600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2126,10 +2004,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14924181266122039"/>
-          <c:y val="0.90480270120445494"/>
-          <c:w val="0.82099360029419433"/>
-          <c:h val="9.1837118563824621E-2"/>
+          <c:x val="9.0983975934959202E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.85075821436209009"/>
+          <c:h val="9.5197552722254622E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2190,7 +2068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2211,8 +2089,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0147427397859331E-2"/>
-          <c:y val="0.14072351667008168"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.14072364414407132"/>
           <c:w val="0.89041946418401596"/>
           <c:h val="0.65439254456575824"/>
         </c:manualLayout>
@@ -2268,7 +2146,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94FB-4057-8EAE-52B630929C1F}"/>
+              <c16:uniqueId val="{00000000-DF26-44A6-9045-A7E21B93E908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2284,7 +2162,6 @@
                   <c:v>Fix-B</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2316,12 +2193,11 @@
                   <c:v>41.476934999999898</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94FB-4057-8EAE-52B630929C1F}"/>
+              <c16:uniqueId val="{00000001-DF26-44A6-9045-A7E21B93E908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2356,7 +2232,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>103.664862499999</c:v>
+                  <c:v>103.6648625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.883042500000002</c:v>
@@ -2372,7 +2248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-94FB-4057-8EAE-52B630929C1F}"/>
+              <c16:uniqueId val="{00000002-DF26-44A6-9045-A7E21B93E908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2423,7 +2299,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-94FB-4057-8EAE-52B630929C1F}"/>
+              <c16:uniqueId val="{00000003-DF26-44A6-9045-A7E21B93E908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2436,7 +2312,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Old-proposed</c:v>
+                  <c:v>Network-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2474,7 +2350,58 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-94FB-4057-8EAE-52B630929C1F}"/>
+              <c16:uniqueId val="{00000004-DF26-44A6-9045-A7E21B93E908}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('30'!$G$4,'30'!$G$11,'30'!$G$18,'30'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>72.254692500000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.3517624999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.591819999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.524014999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DF26-44A6-9045-A7E21B93E908}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2541,8 +2468,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.16767122852823421"/>
-              <c:y val="0.80465342622135061"/>
+              <c:x val="0.15122690747668494"/>
+              <c:y val="0.80465345116052001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2717,10 +2644,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11475263290833415"/>
-          <c:y val="0.88684847870411032"/>
-          <c:w val="0.85523872315433913"/>
-          <c:h val="7.9756338638206192E-2"/>
+          <c:x val="9.8308193806170077E-2"/>
+          <c:y val="0.88684845126286194"/>
+          <c:w val="0.89999989209731523"/>
+          <c:h val="8.1663200938210473E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2781,272 +2708,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'30'!$B$29:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>61.762774374999701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.75995437499995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.89765124999974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.89765124999974</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.161028124999724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DCA-49E7-BCBB-885C9F3AB502}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="241832575"/>
-        <c:axId val="241822175"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241832575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241822175"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="241822175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241832575"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3111,20 +2773,20 @@
                   <c:v>3708.2824000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2124.0376999999999</c:v>
+                  <c:v>2382.5729000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1677.7365500000001</c:v>
+                  <c:v>1710.1538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2532.11645</c:v>
+                  <c:v>2690.6831000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F0D-4B65-8427-20E294D435D2}"/>
+              <c16:uniqueId val="{00000000-4718-4782-8D24-A8DAA1CA4703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3159,23 +2821,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3297.8515000000002</c:v>
+                  <c:v>4298.3624499999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792.05935</c:v>
+                  <c:v>2894.4005999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2063.0392000000002</c:v>
+                  <c:v>2107.8560499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2430.1913</c:v>
+                  <c:v>2787.2583500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2F0D-4B65-8427-20E294D435D2}"/>
+              <c16:uniqueId val="{00000001-4718-4782-8D24-A8DAA1CA4703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3226,7 +2888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2F0D-4B65-8427-20E294D435D2}"/>
+              <c16:uniqueId val="{00000002-4718-4782-8D24-A8DAA1CA4703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3277,7 +2939,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2F0D-4B65-8427-20E294D435D2}"/>
+              <c16:uniqueId val="{00000003-4718-4782-8D24-A8DAA1CA4703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3290,7 +2952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Old-proposed</c:v>
+                  <c:v>Network-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3312,7 +2974,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4897.7155999999904</c:v>
+                  <c:v>4180.5002000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2676.6125499999998</c:v>
@@ -3321,14 +2983,65 @@
                   <c:v>2394.1423500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3246.61915</c:v>
+                  <c:v>3156.4290999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2F0D-4B65-8427-20E294D435D2}"/>
+              <c16:uniqueId val="{00000004-4718-4782-8D24-A8DAA1CA4703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('20'!$G$5,'20'!$G$12,'20'!$G$19,'20'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3036.1089499999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2563.8451500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2057.5586499999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2352.1450499999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4718-4782-8D24-A8DAA1CA4703}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3435,7 +3148,7 @@
         <c:axId val="644725600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12000"/>
+          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3567,10 +3280,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14924181266122039"/>
-          <c:y val="0.90480270120445494"/>
-          <c:w val="0.82099360029419433"/>
-          <c:h val="9.1837118563824621E-2"/>
+          <c:x val="9.0983975934959202E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.85075821436209009"/>
+          <c:h val="9.5197552722254622E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3631,7 +3344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3652,8 +3365,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0147427397859331E-2"/>
-          <c:y val="0.14072351667008168"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.14072364414407132"/>
           <c:w val="0.89041946418401596"/>
           <c:h val="0.65439254456575824"/>
         </c:manualLayout>
@@ -3709,7 +3422,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5880-49E0-8788-0C3903F0A854}"/>
+              <c16:uniqueId val="{00000000-3E6C-4192-BCFA-B1A952B6709F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3725,7 +3438,6 @@
                   <c:v>Fix-B</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -3757,12 +3469,11 @@
                   <c:v>63.192812500000002</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5880-49E0-8788-0C3903F0A854}"/>
+              <c16:uniqueId val="{00000001-3E6C-4192-BCFA-B1A952B6709F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3813,7 +3524,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5880-49E0-8788-0C3903F0A854}"/>
+              <c16:uniqueId val="{00000002-3E6C-4192-BCFA-B1A952B6709F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3848,7 +3559,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>148.522829999999</c:v>
+                  <c:v>148.52283</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>71.347212499999898</c:v>
@@ -3864,7 +3575,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5880-49E0-8788-0C3903F0A854}"/>
+              <c16:uniqueId val="{00000003-3E6C-4192-BCFA-B1A952B6709F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3877,7 +3588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Old-proposed</c:v>
+                  <c:v>Network-based</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3915,7 +3626,58 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5880-49E0-8788-0C3903F0A854}"/>
+              <c16:uniqueId val="{00000004-3E6C-4192-BCFA-B1A952B6709F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('20'!$G$4,'20'!$G$11,'20'!$G$18,'20'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119.7596925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.242114999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.610635000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.323759999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E6C-4192-BCFA-B1A952B6709F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3982,8 +3744,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.145710102149886"/>
-              <c:y val="0.81011888065585991"/>
+              <c:x val="0.15122690747668494"/>
+              <c:y val="0.80465345116052001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4158,10 +3920,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11475263290833415"/>
-          <c:y val="0.88684847870411032"/>
-          <c:w val="0.85523872315433913"/>
-          <c:h val="7.9756338638206192E-2"/>
+          <c:x val="9.8308193806170077E-2"/>
+          <c:y val="0.88684845126286194"/>
+          <c:w val="0.89999989209731523"/>
+          <c:h val="8.1663200938210473E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4200,271 +3962,6 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'20'!$B$29:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>88.240854999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77.304694374999741</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.470571249999679</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.482619374999679</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.163228749999703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62A2-41D0-8C34-DE4E99ABF7B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="241071199"/>
-        <c:axId val="241069535"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="241071199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241069535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="241069535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="241071199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4727,126 +4224,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7363,1515 +6740,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9379,15 +7247,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>24553</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>6773</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9414,16 +7282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>605367</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21168</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>395395</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>455083</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>112608</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9448,42 +7316,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>287866</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD84AB35-49B4-6127-0C4F-F9F0471AD82E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9491,23 +7323,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>507151</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>465667</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160865</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5A4ACF-1F7E-4ABD-8D0B-0164F5E9E5B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE05D23-2C53-47DC-984A-014FA664E54C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9530,22 +7362,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>309031</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>395395</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>39794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2EE2196-A8E6-475A-AF95-436032E2EE47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04015212-07A3-44CA-9F51-39ED8B090A4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9565,42 +7397,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>474133</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>364066</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F4F9F8-D443-B3F0-EB00-A7D3995B655F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9608,23 +7404,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127424</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A53601-EF1B-4A75-90E5-89B43F1BF7FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB56BDAF-91D2-4371-9919-F5DE071B6588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9647,22 +7443,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:colOff>395395</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>148166</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173991</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39794</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31EC863-297F-4421-9666-6818917B0BA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED4DBE6-7673-4C9A-B828-7DA3F54C62DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9677,42 +7473,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>586317</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4739AA9B-CE50-FF73-3BFA-1BBE5FADC8F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10018,41 +7778,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10060,19 +7824,22 @@
         <v>15.783258500000001</v>
       </c>
       <c r="C2">
-        <v>-0.46258289999998198</v>
+        <v>-1.08654829999998</v>
       </c>
       <c r="D2">
-        <v>-2.5069636900000001</v>
+        <v>-2.50696369999998</v>
       </c>
       <c r="E2">
         <v>-2.50696369999</v>
       </c>
       <c r="F2">
-        <v>6.7272194000000196</v>
+        <v>7.0062730000000197</v>
+      </c>
+      <c r="G2">
+        <v>2.6814019000000102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10080,7 +7847,7 @@
         <v>13777784.75</v>
       </c>
       <c r="C3">
-        <v>13099041.35</v>
+        <v>13488782.699999999</v>
       </c>
       <c r="D3">
         <v>17676184.050000001</v>
@@ -10089,10 +7856,13 @@
         <v>17676184</v>
       </c>
       <c r="F3">
-        <v>14992527.65</v>
+        <v>14922764.25</v>
+      </c>
+      <c r="G3">
+        <v>11612697.65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10103,7 +7873,7 @@
         <v>57.491082499999898</v>
       </c>
       <c r="D4">
-        <v>68.197770000000006</v>
+        <v>68.197772499999999</v>
       </c>
       <c r="E4">
         <v>68.197772000000001</v>
@@ -10111,8 +7881,11 @@
       <c r="F4">
         <v>74.744829999999993</v>
       </c>
+      <c r="G4">
+        <v>55.5721925</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10120,7 +7893,7 @@
         <v>3365.33725</v>
       </c>
       <c r="C5">
-        <v>4950.2377500000002</v>
+        <v>5371.4324999999999</v>
       </c>
       <c r="D5">
         <v>7916.5024999999996</v>
@@ -10129,12 +7902,15 @@
         <v>7916.5024999999996</v>
       </c>
       <c r="F5">
-        <v>5111.1275999999998</v>
+        <v>5024.7009500000004</v>
+      </c>
+      <c r="G5">
+        <v>4183.6509500000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1.3063542776002799</v>
@@ -10143,18 +7919,21 @@
         <v>1.5761448349307701</v>
       </c>
       <c r="D6">
-        <v>1.6293929</v>
+        <v>1.629392971246</v>
       </c>
       <c r="E6">
         <v>1.6293929</v>
       </c>
       <c r="F6">
-        <v>1.39865104721334</v>
+        <v>1.3915512957046501</v>
+      </c>
+      <c r="G6">
+        <v>1.53472961779671</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -10169,18 +7948,21 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>-2.4667582999999902</v>
+        <v>-2.5879234999999898</v>
       </c>
       <c r="C9">
-        <v>-9.4050519999999906</v>
+        <v>-9.4437493999999909</v>
       </c>
       <c r="D9">
         <v>-39.506892000000001</v>
@@ -10191,16 +7973,19 @@
       <c r="F9">
         <v>-40.222479299999897</v>
       </c>
+      <c r="G9">
+        <v>-5.4507463999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>8644586.4499999993</v>
+        <v>8691127.75</v>
       </c>
       <c r="C10">
-        <v>8558410.5</v>
+        <v>8568084.8499999996</v>
       </c>
       <c r="D10">
         <v>13623903.1</v>
@@ -10211,8 +7996,11 @@
       <c r="F10">
         <v>13630634.199999999</v>
       </c>
+      <c r="G10">
+        <v>7801590.3499999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10231,16 +8019,19 @@
       <c r="F11">
         <v>14.8550574999999</v>
       </c>
+      <c r="G11">
+        <v>29.350614999999902</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2100.0439000000001</v>
+        <v>2177.1801</v>
       </c>
       <c r="C12">
-        <v>3141.3577999999902</v>
+        <v>3162.5140499999902</v>
       </c>
       <c r="D12">
         <v>4227.29655</v>
@@ -10251,10 +8042,13 @@
       <c r="F12">
         <v>4222.7664500000001</v>
       </c>
+      <c r="G12">
+        <v>3169.2586499999902</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1.2708555200567899</v>
@@ -10271,10 +8065,13 @@
       <c r="F13">
         <v>1.2436398059401199</v>
       </c>
+      <c r="G13">
+        <v>1.4246834694118999</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -10289,15 +8086,18 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>-3.7422933</v>
+        <v>-3.7565119</v>
       </c>
       <c r="C16">
         <v>-12.8520667</v>
@@ -10311,13 +8111,16 @@
       <c r="F16">
         <v>-72.793028699999994</v>
       </c>
+      <c r="G16">
+        <v>-7.8780840999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>6161288.9500000002</v>
+        <v>6164843.5999999996</v>
       </c>
       <c r="C17">
         <v>6913439.7999999998</v>
@@ -10331,8 +8134,11 @@
       <c r="F17">
         <v>13297357.800000001</v>
       </c>
+      <c r="G17">
+        <v>6496744.1500000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10351,13 +8157,16 @@
       <c r="F18">
         <v>-19.603597499999999</v>
       </c>
+      <c r="G18">
+        <v>20.438892500000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>1590.9681</v>
+        <v>1598.0773999999999</v>
       </c>
       <c r="C19">
         <v>2339.4616499999902</v>
@@ -10371,10 +8180,13 @@
       <c r="F19">
         <v>3873.2804500000002</v>
       </c>
+      <c r="G19">
+        <v>2516.9164999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1.2696722281386801</v>
@@ -10391,10 +8203,13 @@
       <c r="F20">
         <v>1.2116909241509799</v>
       </c>
+      <c r="G20">
+        <v>1.36315228966986</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -10409,18 +8224,21 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>-8.3024594999999799</v>
+        <v>-8.3451152999999891</v>
       </c>
       <c r="C23">
-        <v>-16.6466388999999</v>
+        <v>-16.998861299999898</v>
       </c>
       <c r="D23">
         <v>-69.066112899999894</v>
@@ -10429,18 +8247,21 @@
         <v>-69.066112899999894</v>
       </c>
       <c r="F23">
-        <v>-68.816534599999898</v>
+        <v>-68.7246793999999</v>
+      </c>
+      <c r="G23">
+        <v>-14.4909006999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>9722159.25</v>
+        <v>9732823.1999999993</v>
       </c>
       <c r="C24">
-        <v>9226527.8499999996</v>
+        <v>9314583.4499999993</v>
       </c>
       <c r="D24">
         <v>14330005.1</v>
@@ -10449,10 +8270,13 @@
         <v>14330005.1</v>
       </c>
       <c r="F24">
-        <v>13911554.9</v>
+        <v>13888591.1</v>
+      </c>
+      <c r="G24">
+        <v>8466383.3000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -10471,16 +8295,19 @@
       <c r="F25">
         <v>-9.5628150000000005</v>
       </c>
+      <c r="G25">
+        <v>24.194632500000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>2376.7910999999999</v>
+        <v>2391.0097000000001</v>
       </c>
       <c r="C26">
-        <v>3423.09375</v>
+        <v>3545.5950499999999</v>
       </c>
       <c r="D26">
         <v>4903.0218500000001</v>
@@ -10489,12 +8316,15 @@
         <v>4903.0218500000001</v>
       </c>
       <c r="F26">
-        <v>4361.8397000000004</v>
+        <v>4327.3940000000002</v>
+      </c>
+      <c r="G26">
+        <v>3136.9722499999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>1.2578393089575199</v>
@@ -10509,21 +8339,24 @@
         <v>1.3146373210270901</v>
       </c>
       <c r="F27">
-        <v>1.27795527156549</v>
+        <v>1.2755886877292599</v>
+      </c>
+      <c r="G27">
+        <v>1.42231688557567</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:F29" si="0">AVERAGE(C4,C11,C18,C25)</f>
+        <f t="shared" ref="C29:G29" si="0">AVERAGE(C4,C11,C18,C25)</f>
         <v>31.86583437499997</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>12.793995000000027</v>
+        <v>12.793995625000026</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -10533,50 +8366,59 @@
         <f t="shared" si="0"/>
         <v>15.108368749999975</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>32.389083124999978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD493CD-E42B-45D7-B6FA-DBA2E1F93639}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0D993-7A0F-4E59-A595-265B666FF3E8}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10584,7 +8426,7 @@
         <v>30.633637399999898</v>
       </c>
       <c r="C2">
-        <v>13.556895799999999</v>
+        <v>17.699299199999999</v>
       </c>
       <c r="D2">
         <v>11.3098122999999</v>
@@ -10593,10 +8435,13 @@
         <v>11.3098122999999</v>
       </c>
       <c r="F2">
-        <v>21.7738122999999</v>
+        <v>23.029175599999899</v>
+      </c>
+      <c r="G2">
+        <v>19.326067099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10604,7 +8449,7 @@
         <v>17329423.149999999</v>
       </c>
       <c r="C3">
-        <v>13511831.050000001</v>
+        <v>15011230.199999999</v>
       </c>
       <c r="D3">
         <v>23088762.550000001</v>
@@ -10613,10 +8458,13 @@
         <v>23088762.550000001</v>
       </c>
       <c r="F3">
-        <v>19083273.800000001</v>
+        <v>18697768.600000001</v>
+      </c>
+      <c r="G3">
+        <v>12226531.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10627,7 +8475,7 @@
         <v>81.8367199999999</v>
       </c>
       <c r="D4">
-        <v>103.664862499999</v>
+        <v>103.6648625</v>
       </c>
       <c r="E4">
         <v>103.664862499999</v>
@@ -10635,8 +8483,11 @@
       <c r="F4">
         <v>105.035249999999</v>
       </c>
+      <c r="G4">
+        <v>72.254692500000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10644,7 +8495,7 @@
         <v>2250.9818999999902</v>
       </c>
       <c r="C5">
-        <v>2722.7076999999999</v>
+        <v>3875.4812499999998</v>
       </c>
       <c r="D5">
         <v>8612.1738499999992</v>
@@ -10653,10 +8504,13 @@
         <v>8612.1738499999992</v>
       </c>
       <c r="F5">
-        <v>4383.9832500000002</v>
+        <v>3838.85025</v>
+      </c>
+      <c r="G5">
+        <v>2459.7737499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10664,7 +8518,7 @@
         <v>1.1650682155882699</v>
       </c>
       <c r="C6">
-        <v>1.2976158314196899</v>
+        <v>1.29677157908955</v>
       </c>
       <c r="D6">
         <v>1.55848980143185</v>
@@ -10673,12 +8527,15 @@
         <v>1.55848980143185</v>
       </c>
       <c r="F6">
-        <v>1.2781980278265499</v>
+        <v>1.2528704579224601</v>
+      </c>
+      <c r="G6">
+        <v>1.25962447656355</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -10693,18 +8550,21 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>4.3310005</v>
+        <v>4.5770823000000096</v>
       </c>
       <c r="C9">
-        <v>9.60834480000001</v>
+        <v>9.4838410000000106</v>
       </c>
       <c r="D9">
         <v>-30.664689499999898</v>
@@ -10715,16 +8575,19 @@
       <c r="F9">
         <v>-30.039263599999899</v>
       </c>
+      <c r="G9">
+        <v>14.442761900000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>10551350.5</v>
+        <v>10787330.050000001</v>
       </c>
       <c r="C10">
-        <v>10293238.800000001</v>
+        <v>10324364.75</v>
       </c>
       <c r="D10">
         <v>17386933</v>
@@ -10735,8 +8598,11 @@
       <c r="F10">
         <v>16960083.399999999</v>
       </c>
+      <c r="G10">
+        <v>9606625.1500000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -10755,16 +8621,19 @@
       <c r="F11">
         <v>43.813569999999899</v>
       </c>
+      <c r="G11">
+        <v>56.3517624999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>1207.36005</v>
+        <v>1360.21314999999</v>
       </c>
       <c r="C12">
-        <v>2321.1192999999998</v>
+        <v>2373.2922999999901</v>
       </c>
       <c r="D12">
         <v>2837.4988499999999</v>
@@ -10775,8 +8644,11 @@
       <c r="F12">
         <v>2420.8560499999999</v>
       </c>
+      <c r="G12">
+        <v>2192.4892999999902</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -10795,10 +8667,13 @@
       <c r="F13">
         <v>1.1388963933540399</v>
       </c>
+      <c r="G13">
+        <v>1.23514115898959</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -10813,15 +8688,18 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>4.6052800999999901</v>
+        <v>4.88657249999999</v>
       </c>
       <c r="C16">
         <v>3.5010064999999999</v>
@@ -10835,13 +8713,16 @@
       <c r="F16">
         <v>-73.261244000000005</v>
       </c>
+      <c r="G16">
+        <v>11.2015174</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>7631238.0999999996</v>
+        <v>7763415</v>
       </c>
       <c r="C17">
         <v>8638464</v>
@@ -10855,8 +8736,11 @@
       <c r="F17">
         <v>16640141</v>
       </c>
+      <c r="G17">
+        <v>8311325.6500000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -10875,13 +8759,16 @@
       <c r="F18">
         <v>-1.42818</v>
       </c>
+      <c r="G18">
+        <v>46.591819999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>968.99045000000001</v>
+        <v>1072.6506999999999</v>
       </c>
       <c r="C19">
         <v>1799.9855500000001</v>
@@ -10895,8 +8782,11 @@
       <c r="F19">
         <v>2098.5066000000002</v>
       </c>
+      <c r="G19">
+        <v>1709.25755</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -10915,10 +8805,13 @@
       <c r="F20">
         <v>1.1177900851006299</v>
       </c>
+      <c r="G20">
+        <v>1.22416587869782</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -10933,18 +8826,21 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>0.92591929999997602</v>
+        <v>1.06209869999997</v>
       </c>
       <c r="C23">
-        <v>-5.9732457999999804</v>
+        <v>-5.78112639999999</v>
       </c>
       <c r="D23">
         <v>-66.423331000000005</v>
@@ -10953,18 +8849,21 @@
         <v>-66.423331000000005</v>
       </c>
       <c r="F23">
-        <v>-67.210481099999996</v>
+        <v>-67.156231500000004</v>
+      </c>
+      <c r="G23">
+        <v>0.71796760000000803</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>12220553.300000001</v>
+        <v>12299008.449999999</v>
       </c>
       <c r="C24">
-        <v>10493170.199999999</v>
+        <v>10883265.35</v>
       </c>
       <c r="D24">
         <v>18234254</v>
@@ -10973,10 +8872,13 @@
         <v>18234254</v>
       </c>
       <c r="F24">
-        <v>17605363.399999999</v>
+        <v>17591801</v>
+      </c>
+      <c r="G24">
+        <v>9745886.8499999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -10995,16 +8897,19 @@
       <c r="F25">
         <v>9.2234724999999802</v>
       </c>
+      <c r="G25">
+        <v>42.524014999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>1429.1283000000001</v>
+        <v>1487.07139999999</v>
       </c>
       <c r="C26">
-        <v>2107.4048499999999</v>
+        <v>2585.51505</v>
       </c>
       <c r="D26">
         <v>3713.6121499999999</v>
@@ -11013,10 +8918,13 @@
         <v>3713.6121499999999</v>
       </c>
       <c r="F26">
-        <v>3066.6686</v>
+        <v>3066.2915499999999</v>
+      </c>
+      <c r="G26">
+        <v>1915.87105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -11024,7 +8932,7 @@
         <v>1.1473389166554</v>
       </c>
       <c r="C27">
-        <v>1.2427394299608201</v>
+        <v>1.24527218695123</v>
       </c>
       <c r="D27">
         <v>1.2275428880183701</v>
@@ -11033,74 +8941,86 @@
         <v>1.2275428880183701</v>
       </c>
       <c r="F27">
-        <v>1.1811090098608601</v>
+        <v>1.1802647575307299</v>
+      </c>
+      <c r="G27">
+        <v>1.2258543833580899</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:F29" si="0">AVERAGE(C4,C11,C18,C25)</f>
+        <f>AVERAGE(C4,C11,C18,C25)</f>
         <v>54.75995437499995</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4,D11,D18,D25)</f>
+        <v>35.897651249999996</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E4,E11,E18,E25)</f>
         <v>35.89765124999974</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>35.89765124999974</v>
-      </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4,F11,F18,F25)</f>
         <v>39.161028124999724</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G4,G11,G18,G25)</f>
+        <v>54.430572499999975</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1E509A-0CE7-4D82-BAC5-16E3389F826E}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADBA5A0-DD3F-4BF4-9AB4-20D6211728EE}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11108,7 +9028,7 @@
         <v>47.6696038999997</v>
       </c>
       <c r="C2">
-        <v>16.510380999999999</v>
+        <v>27.050693399999901</v>
       </c>
       <c r="D2">
         <v>20.169438899999701</v>
@@ -11117,10 +9037,13 @@
         <v>18.921106999999701</v>
       </c>
       <c r="F2">
-        <v>43.376514399999699</v>
+        <v>46.200812199999703</v>
+      </c>
+      <c r="G2">
+        <v>37.641777299999802</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11128,7 +9051,7 @@
         <v>24569545.899999999</v>
       </c>
       <c r="C3">
-        <v>17052534.75</v>
+        <v>20812456.649999999</v>
       </c>
       <c r="D3">
         <v>32076299.649999999</v>
@@ -11137,10 +9060,13 @@
         <v>32400430.75</v>
       </c>
       <c r="F3">
-        <v>26000060.149999999</v>
+        <v>25299119.449999999</v>
+      </c>
+      <c r="G3">
+        <v>19157603.800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11154,13 +9080,16 @@
         <v>148.47463749999901</v>
       </c>
       <c r="E4">
-        <v>148.522829999999</v>
+        <v>148.52283</v>
       </c>
       <c r="F4">
         <v>150.54228999999901</v>
       </c>
+      <c r="G4">
+        <v>119.7596925</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11168,7 +9097,7 @@
         <v>3708.2824000000001</v>
       </c>
       <c r="C5">
-        <v>3297.8515000000002</v>
+        <v>4298.3624499999996</v>
       </c>
       <c r="D5">
         <v>11299.5563</v>
@@ -11177,10 +9106,13 @@
         <v>11627.039049999999</v>
       </c>
       <c r="F5">
-        <v>4897.7155999999904</v>
+        <v>4180.5002000000004</v>
+      </c>
+      <c r="G5">
+        <v>3036.1089499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11188,7 +9120,7 @@
         <v>1.159996192833</v>
       </c>
       <c r="C6">
-        <v>1.2522010184171699</v>
+        <v>1.2510112787322101</v>
       </c>
       <c r="D6">
         <v>1.53773854280683</v>
@@ -11197,12 +9129,15 @@
         <v>1.5543948983962299</v>
       </c>
       <c r="F6">
-        <v>1.2284062247180301</v>
+        <v>1.1939037738542799</v>
+      </c>
+      <c r="G6">
+        <v>1.2147242183410201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -11217,18 +9152,21 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>6.2318129999999803</v>
+        <v>6.8640382000000004</v>
       </c>
       <c r="C9">
-        <v>11.928181800000001</v>
+        <v>11.697803199999999</v>
       </c>
       <c r="D9">
         <v>-21.927329700000001</v>
@@ -11239,16 +9177,19 @@
       <c r="F9">
         <v>-24.681796899999998</v>
       </c>
+      <c r="G9">
+        <v>22.510033400000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>14924826.75</v>
+        <v>15571299.199999999</v>
       </c>
       <c r="C10">
-        <v>14535984.550000001</v>
+        <v>14616704.199999999</v>
       </c>
       <c r="D10">
         <v>23318635.550000001</v>
@@ -11259,8 +9200,11 @@
       <c r="F10">
         <v>23323631.100000001</v>
       </c>
+      <c r="G10">
+        <v>14041770.4</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -11279,16 +9223,19 @@
       <c r="F11">
         <v>71.850227499999903</v>
       </c>
+      <c r="G11">
+        <v>82.242114999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2124.0376999999999</v>
+        <v>2382.5729000000001</v>
       </c>
       <c r="C12">
-        <v>2792.05935</v>
+        <v>2894.4005999999999</v>
       </c>
       <c r="D12">
         <v>2702.1483499999999</v>
@@ -11299,16 +9246,19 @@
       <c r="F12">
         <v>2676.6125499999998</v>
       </c>
+      <c r="G12">
+        <v>2563.8451500000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1.15047827535335</v>
+        <v>1.1480987959834299</v>
       </c>
       <c r="C13">
-        <v>1.2165088278684599</v>
+        <v>1.21353447865607</v>
       </c>
       <c r="D13">
         <v>1.0993194689001999</v>
@@ -11319,10 +9269,13 @@
       <c r="F13">
         <v>1.0987245990577199</v>
       </c>
+      <c r="G13">
+        <v>1.17189358968257</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -11337,18 +9290,21 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>9.2243983999999895</v>
+        <v>8.5384062999999895</v>
       </c>
       <c r="C16">
-        <v>5.8142169999999904</v>
+        <v>5.7169107999999902</v>
       </c>
       <c r="D16">
         <v>-85.566866999999903</v>
@@ -11359,16 +9315,19 @@
       <c r="F16">
         <v>-88.891375999999994</v>
       </c>
+      <c r="G16">
+        <v>14.9222784</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>10801764.15</v>
+        <v>11143456.550000001</v>
       </c>
       <c r="C17">
-        <v>11926652</v>
+        <v>11950978.550000001</v>
       </c>
       <c r="D17">
         <v>23038869.25</v>
@@ -11379,8 +9338,11 @@
       <c r="F17">
         <v>23053499</v>
       </c>
+      <c r="G17">
+        <v>11685839.15</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -11399,16 +9361,19 @@
       <c r="F18">
         <v>6.4676199999999904</v>
       </c>
+      <c r="G18">
+        <v>63.610635000000002</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>1677.7365500000001</v>
+        <v>1710.1538</v>
       </c>
       <c r="C19">
-        <v>2063.0392000000002</v>
+        <v>2107.8560499999999</v>
       </c>
       <c r="D19">
         <v>2383.2707500000001</v>
@@ -11419,13 +9384,16 @@
       <c r="F19">
         <v>2394.1423500000001</v>
       </c>
+      <c r="G19">
+        <v>2057.5586499999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20">
-        <v>1.1546423642507</v>
+        <v>1.15404749440822</v>
       </c>
       <c r="C20">
         <v>1.1802217674772699</v>
@@ -11439,10 +9407,13 @@
       <c r="F20">
         <v>1.08623233236567</v>
       </c>
+      <c r="G20">
+        <v>1.1617808023604399</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -11457,18 +9428,21 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>2.7400995999999198</v>
+        <v>2.8983185999999299</v>
       </c>
       <c r="C23">
-        <v>-2.0221778999999902</v>
+        <v>-5.9722900000010501E-2</v>
       </c>
       <c r="D23">
         <v>-80.909058200000104</v>
@@ -11477,18 +9451,21 @@
         <v>-80.909058200000104</v>
       </c>
       <c r="F23">
-        <v>-74.585433300000005</v>
+        <v>-74.304498899999999</v>
+      </c>
+      <c r="G23">
+        <v>7.2142171999999603</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>17275376.350000001</v>
+        <v>17677086.600000001</v>
       </c>
       <c r="C24">
-        <v>13761247.6</v>
+        <v>14910633.85</v>
       </c>
       <c r="D24">
         <v>25095220.800000001</v>
@@ -11497,10 +9474,13 @@
         <v>25095220.800000001</v>
       </c>
       <c r="F24">
-        <v>24039552.699999999</v>
+        <v>23969319.100000001</v>
+      </c>
+      <c r="G24">
+        <v>14490510.699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -11519,16 +9499,19 @@
       <c r="F25">
         <v>23.7927774999999</v>
       </c>
+      <c r="G25">
+        <v>68.323759999999993</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>2532.11645</v>
+        <v>2690.6831000000002</v>
       </c>
       <c r="C26">
-        <v>2430.1913</v>
+        <v>2787.2583500000001</v>
       </c>
       <c r="D26">
         <v>4482.2654000000002</v>
@@ -11537,18 +9520,21 @@
         <v>4482.2654000000002</v>
       </c>
       <c r="F26">
-        <v>3246.61915</v>
+        <v>3156.4290999999998</v>
+      </c>
+      <c r="G26">
+        <v>2352.1450499999901</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>1.13620139913386</v>
+        <v>1.13679626897634</v>
       </c>
       <c r="C27">
-        <v>1.1986627325940999</v>
+        <v>1.1980678627516199</v>
       </c>
       <c r="D27">
         <v>1.1873602055870101</v>
@@ -11557,33 +9543,41 @@
         <v>1.1873602055870101</v>
       </c>
       <c r="F27">
-        <v>1.13144244039404</v>
+        <v>1.12787322133917</v>
+      </c>
+      <c r="G27">
+        <v>1.1671346309427399</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:F29" si="0">AVERAGE(C4,C11,C18,C25)</f>
+        <f>AVERAGE(C4,C11,C18,C25)</f>
         <v>77.304694374999741</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4,D11,D18,D25)</f>
         <v>61.470571249999679</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>61.482619374999679</v>
+        <f>AVERAGE(E4,E11,E18,E25)</f>
+        <v>61.482619374999928</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4,F11,F18,F25)</f>
         <v>63.163228749999703</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G4,G11,G18,G25)</f>
+        <v>83.484050624999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AC6AE-768B-4F24-9C62-53FE7CCD4011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987031E-93AC-46AE-88D4-E14CAE7E07BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="5256" yWindow="1824" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
+    <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="19">
   <si>
     <t>Fix B</t>
   </si>
@@ -116,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3678,6 +3686,1282 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3E6C-4192-BCFA-B1A952B6709F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="836325408"/>
+        <c:axId val="836328736"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836325408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High 	Medium	           Low	              Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.15122690747668494"/>
+              <c:y val="0.80465345116052001"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="836328736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836328736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>QoE</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836325408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8308193806170077E-2"/>
+          <c:y val="0.88684845126286194"/>
+          <c:w val="0.89999989209731523"/>
+          <c:h val="8.1663200938210473E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11912335958005249"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.86976552930883655"/>
+          <c:h val="0.66682815689705455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3413.1605399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2066.3222689999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1481.92408599999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2356.710568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4288.7718590000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2626.4527079999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2042.210724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780.2042669999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$D$5,'50 user traces'!$D$12,'50 user traces'!$D$19,'50 user traces'!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10374.999572000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3278.4124409999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2828.8010489999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4572.5788140000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11179.8140109999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3278.4124409999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2828.8010489999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4667.9839240000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$F$5,'50 user traces'!$F$12,'50 user traces'!$F$19,'50 user traces'!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4294.0716060000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3062.7875490000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2736.644558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3441.8010410000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$G$5,'50 user traces'!$G$12,'50 user traces'!$G$19,'50 user traces'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3269.9377039999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2581.6783300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2071.0399779999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2511.1707609999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F9A9-49CF-A12E-4081D2108C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High	Medium	    Low	     Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.21156167979002624"/>
+              <c:y val="0.82465223097112861"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Waste Data (KBytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0983975934959202E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.85075821436209009"/>
+          <c:h val="9.5197552722254622E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.14072364414407132"/>
+          <c:w val="0.89041946418401596"/>
+          <c:h val="0.65439254456575824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$B$4,'50 user traces'!$B$11,'50 user traces'!$B$18,'50 user traces'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.421492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.613159549999907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.341576750000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.283526749999893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA6B-4367-9B6E-8466B364E991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>107.16285415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.037681699999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.164687549999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.599569299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA6B-4367-9B6E-8466B364E991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$D$4,'50 user traces'!$D$11,'50 user traces'!$D$18,'50 user traces'!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.88321764999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.7187466499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6404378000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.2063897499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA6B-4367-9B6E-8466B364E991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$E$4,'50 user traces'!$E$11,'50 user traces'!$E$18,'50 user traces'!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.90003969999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.7187466499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6404378000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.2261292499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CA6B-4367-9B6E-8466B364E991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>133.83894989999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.504360399999896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8258069499999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.049436749999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CA6B-4367-9B6E-8466B364E991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$G$4,'50 user traces'!$G$11,'50 user traces'!$G$18,'50 user traces'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>102.039209149999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.842699499999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.828240950000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.638128949999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CA6B-4367-9B6E-8466B364E991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4224,6 +5508,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6740,6 +8104,1012 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7481,6 +9851,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB7448A-2CF9-4377-B768-3DA8259BE274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>395395</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>39794</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C70EE6-9F32-4462-8673-553C012C587A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7780,7 +10231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
@@ -8949,27 +11400,27 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f>AVERAGE(B4,B11,B18,B25)</f>
+        <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
       </c>
       <c r="C29">
-        <f>AVERAGE(C4,C11,C18,C25)</f>
+        <f t="shared" si="0"/>
         <v>54.75995437499995</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(D4,D11,D18,D25)</f>
+        <f t="shared" si="0"/>
         <v>35.897651249999996</v>
       </c>
       <c r="E29">
-        <f>AVERAGE(E4,E11,E18,E25)</f>
+        <f t="shared" si="0"/>
         <v>35.89765124999974</v>
       </c>
       <c r="F29">
-        <f>AVERAGE(F4,F11,F18,F25)</f>
+        <f t="shared" si="0"/>
         <v>39.161028124999724</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G4,G11,G18,G25)</f>
+        <f t="shared" si="0"/>
         <v>54.430572499999975</v>
       </c>
     </row>
@@ -8984,7 +11435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADBA5A0-DD3F-4BF4-9AB4-20D6211728EE}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -9551,28 +12002,630 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f>AVERAGE(B4,B11,B18,B25)</f>
+        <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
       </c>
       <c r="C29">
-        <f>AVERAGE(C4,C11,C18,C25)</f>
+        <f t="shared" si="0"/>
         <v>77.304694374999741</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(D4,D11,D18,D25)</f>
+        <f t="shared" si="0"/>
         <v>61.470571249999679</v>
       </c>
       <c r="E29">
-        <f>AVERAGE(E4,E11,E18,E25)</f>
+        <f t="shared" si="0"/>
         <v>61.482619374999928</v>
       </c>
       <c r="F29">
-        <f>AVERAGE(F4,F11,F18,F25)</f>
+        <f t="shared" si="0"/>
         <v>63.163228749999703</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G4,G11,G18,G25)</f>
+        <f t="shared" si="0"/>
         <v>83.484050624999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>47.646995123999801</v>
+      </c>
+      <c r="C2">
+        <v>26.789736353999899</v>
+      </c>
+      <c r="D2">
+        <v>22.7128471139998</v>
+      </c>
+      <c r="E2">
+        <v>19.499071767999801</v>
+      </c>
+      <c r="F2">
+        <v>43.871369943999802</v>
+      </c>
+      <c r="G2">
+        <v>30.6171889579999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>21681899.2189999</v>
+      </c>
+      <c r="C3">
+        <v>18977666.9489999</v>
+      </c>
+      <c r="D3">
+        <v>28292592.634</v>
+      </c>
+      <c r="E3">
+        <v>29100241.982999999</v>
+      </c>
+      <c r="F3">
+        <v>22491894.989</v>
+      </c>
+      <c r="G3">
+        <v>17855505.048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>138.421492</v>
+      </c>
+      <c r="C4">
+        <v>107.16285415</v>
+      </c>
+      <c r="D4">
+        <v>135.88321764999901</v>
+      </c>
+      <c r="E4">
+        <v>135.90003969999901</v>
+      </c>
+      <c r="F4">
+        <v>133.83894989999899</v>
+      </c>
+      <c r="G4">
+        <v>102.039209149999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3413.1605399999999</v>
+      </c>
+      <c r="C5">
+        <v>4288.7718590000004</v>
+      </c>
+      <c r="D5">
+        <v>10374.999572000001</v>
+      </c>
+      <c r="E5">
+        <v>11179.8140109999</v>
+      </c>
+      <c r="F5">
+        <v>4294.0716060000004</v>
+      </c>
+      <c r="G5">
+        <v>3269.9377039999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1.23506980274496</v>
+      </c>
+      <c r="C6">
+        <v>1.3717298131634601</v>
+      </c>
+      <c r="D6">
+        <v>1.5912065688569701</v>
+      </c>
+      <c r="E6">
+        <v>1.6212241708348301</v>
+      </c>
+      <c r="F6">
+        <v>1.28026747703888</v>
+      </c>
+      <c r="G6">
+        <v>1.3412999970677999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9.9130220139999992</v>
+      </c>
+      <c r="C9">
+        <v>8.2414489359999994</v>
+      </c>
+      <c r="D9">
+        <v>-16.781696925999999</v>
+      </c>
+      <c r="E9">
+        <v>-16.781696925999999</v>
+      </c>
+      <c r="F9">
+        <v>-17.351849600000001</v>
+      </c>
+      <c r="G9">
+        <v>15.5316397799999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>13708759.384</v>
+      </c>
+      <c r="C10">
+        <v>13029720.691</v>
+      </c>
+      <c r="D10">
+        <v>21125110.894000001</v>
+      </c>
+      <c r="E10">
+        <v>21125110.894000001</v>
+      </c>
+      <c r="F10">
+        <v>20964052.499999899</v>
+      </c>
+      <c r="G10">
+        <v>12827764.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>68.613159549999907</v>
+      </c>
+      <c r="C11" s="2">
+        <v>65.037681699999993</v>
+      </c>
+      <c r="D11">
+        <v>67.7187466499999</v>
+      </c>
+      <c r="E11">
+        <v>67.7187466499999</v>
+      </c>
+      <c r="F11">
+        <v>66.504360399999896</v>
+      </c>
+      <c r="G11">
+        <v>66.842699499999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2066.3222689999998</v>
+      </c>
+      <c r="C12">
+        <v>2626.4527079999998</v>
+      </c>
+      <c r="D12">
+        <v>3278.4124409999999</v>
+      </c>
+      <c r="E12">
+        <v>3278.4124409999999</v>
+      </c>
+      <c r="F12">
+        <v>3062.7875490000001</v>
+      </c>
+      <c r="G12">
+        <v>2581.6783300000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1.20791226633439</v>
+      </c>
+      <c r="C13">
+        <v>1.2788217689328401</v>
+      </c>
+      <c r="D13">
+        <v>1.1902888913540699</v>
+      </c>
+      <c r="E13">
+        <v>1.1902888913540699</v>
+      </c>
+      <c r="F13">
+        <v>1.17958025760927</v>
+      </c>
+      <c r="G13">
+        <v>1.2825072931927299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8.9091793159999995</v>
+      </c>
+      <c r="C16">
+        <v>3.12527921</v>
+      </c>
+      <c r="D16">
+        <v>-74.247874159999895</v>
+      </c>
+      <c r="E16">
+        <v>-74.247874159999895</v>
+      </c>
+      <c r="F16">
+        <v>-74.794724861999995</v>
+      </c>
+      <c r="G16">
+        <v>11.273646321999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>9863101.3460000008</v>
+      </c>
+      <c r="C17">
+        <v>10759852.0849999</v>
+      </c>
+      <c r="D17">
+        <v>20722077.989999998</v>
+      </c>
+      <c r="E17">
+        <v>20722077.989999998</v>
+      </c>
+      <c r="F17">
+        <v>20655132.953000002</v>
+      </c>
+      <c r="G17">
+        <v>10638648.657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>74.341576750000002</v>
+      </c>
+      <c r="C18">
+        <v>46.164687549999996</v>
+      </c>
+      <c r="D18">
+        <v>8.6404378000000008</v>
+      </c>
+      <c r="E18">
+        <v>8.6404378000000008</v>
+      </c>
+      <c r="F18">
+        <v>7.8258069499999996</v>
+      </c>
+      <c r="G18">
+        <v>53.828240950000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1481.92408599999</v>
+      </c>
+      <c r="C19">
+        <v>2042.210724</v>
+      </c>
+      <c r="D19">
+        <v>2828.8010489999901</v>
+      </c>
+      <c r="E19">
+        <v>2828.8010489999901</v>
+      </c>
+      <c r="F19">
+        <v>2736.644558</v>
+      </c>
+      <c r="G19">
+        <v>2071.0399779999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.2095891255325999</v>
+      </c>
+      <c r="C20">
+        <v>1.25104130325142</v>
+      </c>
+      <c r="D20">
+        <v>1.1665546465441201</v>
+      </c>
+      <c r="E20">
+        <v>1.1665546465441201</v>
+      </c>
+      <c r="F20">
+        <v>1.1608543105340501</v>
+      </c>
+      <c r="G20">
+        <v>1.25779937936546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>7.3543962019999398</v>
+      </c>
+      <c r="C23">
+        <v>-1.9232142760000099</v>
+      </c>
+      <c r="D23">
+        <v>-67.553105974000005</v>
+      </c>
+      <c r="E23">
+        <v>-67.909875577999998</v>
+      </c>
+      <c r="F23">
+        <v>-64.649326681999995</v>
+      </c>
+      <c r="G23">
+        <v>3.1487729659999699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>15732282.637</v>
+      </c>
+      <c r="C24">
+        <v>13630695.893999999</v>
+      </c>
+      <c r="D24">
+        <v>22439873.930999901</v>
+      </c>
+      <c r="E24">
+        <v>22534001.206999999</v>
+      </c>
+      <c r="F24">
+        <v>21424690.857999999</v>
+      </c>
+      <c r="G24">
+        <v>13372338.995999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>70.283526749999893</v>
+      </c>
+      <c r="C25">
+        <v>52.599569299999999</v>
+      </c>
+      <c r="D25">
+        <v>22.2063897499999</v>
+      </c>
+      <c r="E25">
+        <v>22.2261292499999</v>
+      </c>
+      <c r="F25">
+        <v>21.049436749999899</v>
+      </c>
+      <c r="G25">
+        <v>56.638128949999903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2356.710568</v>
+      </c>
+      <c r="C26">
+        <v>2780.2042669999901</v>
+      </c>
+      <c r="D26">
+        <v>4572.5788140000004</v>
+      </c>
+      <c r="E26">
+        <v>4667.9839240000001</v>
+      </c>
+      <c r="F26">
+        <v>3441.8010410000002</v>
+      </c>
+      <c r="G26">
+        <v>2511.1707609999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1.2012941599459701</v>
+      </c>
+      <c r="C27">
+        <v>1.27913262342328</v>
+      </c>
+      <c r="D27">
+        <v>1.2639653640027999</v>
+      </c>
+      <c r="E27">
+        <v>1.26730370845698</v>
+      </c>
+      <c r="F27">
+        <v>1.20820317378068</v>
+      </c>
+      <c r="G27">
+        <v>1.2750114365837799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
+        <v>87.914938762499958</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>67.741198174999994</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>58.612197962499707</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>58.621338349999704</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>57.304638499999697</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>69.837069637499724</v>
       </c>
     </row>
   </sheetData>

--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987031E-93AC-46AE-88D4-E14CAE7E07BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF2FC1E-E676-4242-ADD6-DBC87FFBBDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="1824" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
     <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="23">
   <si>
     <t>Fix B</t>
   </si>
@@ -97,6 +98,18 @@
   <si>
     <t>Wasted time ratio</t>
   </si>
+  <si>
+    <t>fix_preload</t>
+  </si>
+  <si>
+    <t>no_save</t>
+  </si>
+  <si>
+    <t>QoE_avg</t>
+  </si>
+  <si>
+    <t>fixed_preload</t>
+  </si>
 </sst>
 </file>
 
@@ -143,10 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,6 +754,834 @@
           <c:y val="0.90480254274574057"/>
           <c:w val="0.85075821436209009"/>
           <c:h val="9.5197552722254622E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.14072364414407132"/>
+          <c:w val="0.89041946418401596"/>
+          <c:h val="0.65439254456575824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$G$4,'50 user traces'!$G$11,'50 user traces'!$G$18,'50 user traces'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>108.25515915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.217999500000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.73894095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.372028950000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_preload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$H$4,'50 user traces'!$H$11,'50 user traces'!$H$18,'50 user traces'!$H$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.70660185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.088824549999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.397806449999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.352883349999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$I$4,'50 user traces'!$I$11,'50 user traces'!$I$18,'50 user traces'!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119.08759135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.059849849999907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.036196400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.801424949999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="836325408"/>
+        <c:axId val="836328736"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$B$4,'50 user traces'!$B$11,'50 user traces'!$B$18,'50 user traces'!$B$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>138.421492</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>68.613159549999907</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>51.986034699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>74.341576750000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5D49-4D30-8135-7D174AEA255F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>107.16285415</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65.037681699999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.273487549999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.687869300000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5D49-4D30-8135-7D174AEA255F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Next-One</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$D$4,'50 user traces'!$D$11,'50 user traces'!$D$18,'50 user traces'!$D$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>135.92721764999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>67.762746649999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6844377999989995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.25038975</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5D49-4D30-8135-7D174AEA255F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>WaterFall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$E$4,'50 user traces'!$E$11,'50 user traces'!$E$18,'50 user traces'!$E$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>135.94403969999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>67.762746649999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.6844377999989995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22.270129245</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5D49-4D30-8135-7D174AEA255F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Network-based</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dPt>
+                  <c:idx val="1"/>
+                  <c:invertIfNegative val="0"/>
+                  <c:bubble3D val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000004-5D49-4D30-8135-7D174AEA255F}"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dPt>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>139.31934989999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>69.130960400000006</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.5533069499999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>24.17738675</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5D49-4D30-8135-7D174AEA255F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836325408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High 	  Medium                   Low                       Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.18172609112830246"/>
+              <c:y val="0.81425945676098832"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="836328736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836328736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>QoE</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836325408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5019534042941061E-2"/>
+          <c:y val="0.905026658186182"/>
+          <c:w val="0.75568659513826653"/>
+          <c:h val="8.1480178810501708E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4146,7 +4988,9 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -4337,8 +5181,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="70"/>
         <c:axId val="644726432"/>
         <c:axId val="644725600"/>
       </c:barChart>
@@ -4372,7 +5215,7 @@
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>High	Medium	    Low	     Mixed                             </a:t>
+                  <a:t>High	Medium	      Low	     Mixed                             </a:t>
                 </a:r>
                 <a:endParaRPr lang="vi-VN" b="1" baseline="0">
                   <a:solidFill>
@@ -4387,8 +5230,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.21156167979002624"/>
-              <c:y val="0.82465223097112861"/>
+              <c:x val="0.20878751452349506"/>
+              <c:y val="0.82465219304234372"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4432,7 +5275,6 @@
         <c:axId val="644725600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4564,9 +5406,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0983975934959202E-2"/>
+          <c:x val="9.3758157349385432E-2"/>
           <c:y val="0.90480254274574057"/>
-          <c:w val="0.85075821436209009"/>
+          <c:w val="0.847984032947664"/>
           <c:h val="9.5197552722254622E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4696,10 +5538,10 @@
                   <c:v>68.613159549999907</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>51.986034699999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>74.341576750000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.283526749999893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4747,10 +5589,10 @@
                   <c:v>65.037681699999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.164687549999996</c:v>
+                  <c:v>50.273487549999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.599569299999999</c:v>
+                  <c:v>56.687869300000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4792,16 +5634,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.88321764999901</c:v>
+                  <c:v>135.92721764999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.7187466499999</c:v>
+                  <c:v>67.762746649999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6404378000000008</c:v>
+                  <c:v>8.6844377999989995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2063897499999</c:v>
+                  <c:v>22.25038975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,16 +5685,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.90003969999901</c:v>
+                  <c:v>135.94403969999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.7187466499999</c:v>
+                  <c:v>67.762746649999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6404378000000008</c:v>
+                  <c:v>8.6844377999989995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2261292499999</c:v>
+                  <c:v>22.270129245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4887,6 +5729,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9594-4268-A192-9D0D8109228A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c:f>
@@ -4894,16 +5746,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>133.83894989999899</c:v>
+                  <c:v>139.31934989999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.504360399999896</c:v>
+                  <c:v>69.130960400000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8258069499999996</c:v>
+                  <c:v>9.5533069499999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.049436749999899</c:v>
+                  <c:v>24.17738675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4945,16 +5797,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>102.039209149999</c:v>
+                  <c:v>108.25515915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.842699499999995</c:v>
+                  <c:v>71.217999500000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.828240950000001</c:v>
+                  <c:v>56.73894095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.638128949999903</c:v>
+                  <c:v>61.372028950000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,8 +5825,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="70"/>
         <c:axId val="836325408"/>
         <c:axId val="836328736"/>
         <c:extLst/>
@@ -5011,7 +5862,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>High 	Medium	           Low	              Mixed                             </a:t>
+                  <a:t>High 	  Medium                   Low                       Mixed                             </a:t>
                 </a:r>
                 <a:endParaRPr lang="vi-VN" sz="1000" b="1">
                   <a:solidFill>
@@ -5028,8 +5879,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.15122690747668494"/>
-              <c:y val="0.80465345116052001"/>
+              <c:x val="0.18172609112830246"/>
+              <c:y val="0.81425945676098832"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5204,9 +6055,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.8308193806170077E-2"/>
-          <c:y val="0.88684845126286194"/>
-          <c:w val="0.89999989209731523"/>
+          <c:x val="8.5019534042941061E-2"/>
+          <c:y val="0.905026658186182"/>
+          <c:w val="0.86395551543347648"/>
           <c:h val="8.1663200938210473E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -5268,7 +6119,865 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11912335958005249"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.86976552930883655"/>
+          <c:h val="0.66682815689705455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$G$5,'50 user traces'!$G$12,'50 user traces'!$G$19,'50 user traces'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3269.9377039999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2581.6783300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2071.0399779999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2511.1707609999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_preload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$H$5,'50 user traces'!$H$12,'50 user traces'!$H$19,'50 user traces'!$H$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7403.1791479999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3143.3183600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2315.199807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3731.8837600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$I$5,'50 user traces'!$I$12,'50 user traces'!$I$19,'50 user traces'!$I$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12186.940406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3329.9534229999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2311.425729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4699.6553979999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3413.1605399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2066.3222689999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1481.92408599999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2356.710568</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4288.7718590000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2626.4527079999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2042.210724</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2780.2042669999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Next-One</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:softEdge rad="0"/>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$D$5,'50 user traces'!$D$12,'50 user traces'!$D$19,'50 user traces'!$D$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>10374.999572000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3278.4124409999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2828.8010489999901</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4572.5788140000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>WaterFall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>11179.8140109999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3278.4124409999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2828.8010489999901</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4667.9839240000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Network-based</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$F$5,'50 user traces'!$F$12,'50 user traces'!$F$19,'50 user traces'!$F$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4294.0716060000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3062.7875490000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2736.644558</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3441.8010410000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High	Medium	      Low	     Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20878751452349506"/>
+              <c:y val="0.82465219304234372"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Waste Data (KBytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3758157349385432E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.8376848298367362"/>
+          <c:h val="9.5197457254259404E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5588,6 +7297,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6091,7 +7840,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6594,7 +8343,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7097,7 +8846,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7600,7 +9349,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8103,7 +9852,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8606,7 +10355,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9109,7 +10858,1013 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9855,16 +12610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>436033</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596053</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9893,16 +12648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>395395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>39794</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9929,13 +12684,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577427</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE30C058-4C04-4BAB-8DB5-1D4D92C16137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168485</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD2CB3E-9A0D-4B04-B0B6-A19D77011BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9943,34 +12774,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -10231,8 +13062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:G29"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11435,7 +14266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADBA5A0-DD3F-4BF4-9AB4-20D6211728EE}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -12035,10 +14866,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12048,10 +14879,12 @@
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
@@ -12072,8 +14905,14 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -12095,8 +14934,14 @@
       <c r="G2">
         <v>30.6171889579999</v>
       </c>
+      <c r="H2">
+        <v>17.881305673999901</v>
+      </c>
+      <c r="I2">
+        <v>4.01654212199991</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12118,8 +14963,14 @@
       <c r="G3">
         <v>17855505.048</v>
       </c>
+      <c r="H3">
+        <v>23248049.044</v>
+      </c>
+      <c r="I3">
+        <v>27777837.306999899</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12130,19 +14981,25 @@
         <v>107.16285415</v>
       </c>
       <c r="D4">
-        <v>135.88321764999901</v>
+        <v>135.92721764999999</v>
       </c>
       <c r="E4">
-        <v>135.90003969999901</v>
+        <v>135.94403969999999</v>
       </c>
       <c r="F4">
-        <v>133.83894989999899</v>
+        <v>139.31934989999999</v>
       </c>
       <c r="G4">
-        <v>102.039209149999</v>
+        <v>108.25515915</v>
+      </c>
+      <c r="H4">
+        <v>115.70660185</v>
+      </c>
+      <c r="I4">
+        <v>119.08759135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12164,8 +15021,14 @@
       <c r="G5">
         <v>3269.9377039999999</v>
       </c>
+      <c r="H5">
+        <v>7403.1791479999902</v>
+      </c>
+      <c r="I5">
+        <v>12186.940406</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -12187,9 +15050,15 @@
       <c r="G6">
         <v>1.3412999970677999</v>
       </c>
+      <c r="H6">
+        <v>1.4730012996810899</v>
+      </c>
+      <c r="I6">
+        <v>1.74814986684213</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -12210,8 +15079,14 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -12233,8 +15108,14 @@
       <c r="G9">
         <v>15.5316397799999</v>
       </c>
+      <c r="H9">
+        <v>-1.0554253180000099</v>
+      </c>
+      <c r="I9">
+        <v>12.8801552899999</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -12256,31 +15137,43 @@
       <c r="G10">
         <v>12827764.93</v>
       </c>
+      <c r="H10">
+        <v>15109874.9669999</v>
+      </c>
+      <c r="I10">
+        <v>14206173.640000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
         <v>68.613159549999907</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>65.037681699999993</v>
       </c>
       <c r="D11">
-        <v>67.7187466499999</v>
+        <v>67.762746649999997</v>
       </c>
       <c r="E11">
-        <v>67.7187466499999</v>
+        <v>67.762746649999997</v>
       </c>
       <c r="F11">
-        <v>66.504360399999896</v>
+        <v>69.130960400000006</v>
       </c>
       <c r="G11">
-        <v>66.842699499999995</v>
+        <v>71.217999500000005</v>
+      </c>
+      <c r="H11">
+        <v>62.088824549999998</v>
+      </c>
+      <c r="I11">
+        <v>72.059849849999907</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -12302,8 +15195,14 @@
       <c r="G12">
         <v>2581.6783300000002</v>
       </c>
+      <c r="H12">
+        <v>3143.3183600000002</v>
+      </c>
+      <c r="I12">
+        <v>3329.9534229999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -12325,9 +15224,15 @@
       <c r="G13">
         <v>1.2825072931927299</v>
       </c>
+      <c r="H13">
+        <v>1.23591375816989</v>
+      </c>
+      <c r="I13">
+        <v>1.3147230141155299</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -12348,8 +15253,14 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -12371,8 +15282,14 @@
       <c r="G16">
         <v>11.273646321999999</v>
       </c>
+      <c r="H16">
+        <v>-15.209341125999901</v>
+      </c>
+      <c r="I16">
+        <v>6.8372700479999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -12394,31 +15311,43 @@
       <c r="G17">
         <v>10638648.657</v>
       </c>
+      <c r="H17">
+        <v>12481486.893999999</v>
+      </c>
+      <c r="I17">
+        <v>11235619.088</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>74.341576750000002</v>
+        <v>51.986034699999998</v>
       </c>
       <c r="C18">
-        <v>46.164687549999996</v>
+        <v>50.273487549999999</v>
       </c>
       <c r="D18">
-        <v>8.6404378000000008</v>
+        <v>8.6844377999989995</v>
       </c>
       <c r="E18">
-        <v>8.6404378000000008</v>
+        <v>8.6844377999989995</v>
       </c>
       <c r="F18">
-        <v>7.8258069499999996</v>
+        <v>9.5533069499999996</v>
       </c>
       <c r="G18">
-        <v>53.828240950000001</v>
+        <v>56.73894095</v>
+      </c>
+      <c r="H18">
+        <v>36.397806449999997</v>
+      </c>
+      <c r="I18">
+        <v>53.036196400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -12440,8 +15369,14 @@
       <c r="G19">
         <v>2071.0399779999998</v>
       </c>
+      <c r="H19">
+        <v>2315.199807</v>
+      </c>
+      <c r="I19">
+        <v>2311.425729</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -12463,9 +15398,15 @@
       <c r="G20">
         <v>1.25779937936546</v>
       </c>
+      <c r="H20">
+        <v>1.19779922730968</v>
+      </c>
+      <c r="I20">
+        <v>1.26626836578888</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
@@ -12486,8 +15427,14 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -12509,8 +15456,14 @@
       <c r="G23">
         <v>3.1487729659999699</v>
       </c>
+      <c r="H23">
+        <v>-10.133793069999999</v>
+      </c>
+      <c r="I23">
+        <v>-2.19752247000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -12532,31 +15485,43 @@
       <c r="G24">
         <v>13372338.995999999</v>
       </c>
+      <c r="H24">
+        <v>16095069.105</v>
+      </c>
+      <c r="I24">
+        <v>16271324.355</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
-        <v>70.283526749999893</v>
+        <v>74.341576750000002</v>
       </c>
       <c r="C25">
-        <v>52.599569299999999</v>
+        <v>56.687869300000003</v>
       </c>
       <c r="D25">
-        <v>22.2063897499999</v>
+        <v>22.25038975</v>
       </c>
       <c r="E25">
-        <v>22.2261292499999</v>
+        <v>22.270129245</v>
       </c>
       <c r="F25">
-        <v>21.049436749999899</v>
+        <v>24.17738675</v>
       </c>
       <c r="G25">
-        <v>56.638128949999903</v>
+        <v>61.372028950000001</v>
+      </c>
+      <c r="H25">
+        <v>57.352883349999999</v>
+      </c>
+      <c r="I25">
+        <v>65.801424949999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -12578,8 +15543,14 @@
       <c r="G26">
         <v>2511.1707609999999</v>
       </c>
+      <c r="H26">
+        <v>3731.8837600000002</v>
+      </c>
+      <c r="I26">
+        <v>4699.6553979999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -12601,31 +15572,48 @@
       <c r="G27">
         <v>1.2750114365837799</v>
       </c>
+      <c r="H27">
+        <v>1.27016437513809</v>
+      </c>
+      <c r="I27">
+        <v>1.36902469297624</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B29">
-        <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
-        <v>87.914938762499958</v>
+        <f t="shared" ref="B29:I29" si="0">AVERAGE(B4,B11,B18,B25)</f>
+        <v>83.340565749999982</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>67.741198174999994</v>
+        <v>69.790473175000002</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>58.612197962499707</v>
+        <v>58.656197962499746</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>58.621338349999704</v>
+        <v>58.665338348749742</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>57.304638499999697</v>
+        <v>60.545251000000007</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>69.837069637499724</v>
+        <v>74.396032137500001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>67.886529049999993</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>77.496265637499974</v>
       </c>
     </row>
   </sheetData>
@@ -12633,4 +15621,327 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E67B3-CC58-427A-8175-0EE44CD72631}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>47.626003435999799</v>
+      </c>
+      <c r="C2">
+        <v>47.504801201999797</v>
+      </c>
+      <c r="D2">
+        <v>45.693339937999802</v>
+      </c>
+      <c r="E2">
+        <v>46.4956252019998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>21676498.890999898</v>
+      </c>
+      <c r="C3">
+        <v>21646301.636999998</v>
+      </c>
+      <c r="D3">
+        <v>21215951.978</v>
+      </c>
+      <c r="E3">
+        <v>21249006.511999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>138.379549</v>
+      </c>
+      <c r="C4">
+        <v>138.15460775</v>
+      </c>
+      <c r="D4">
+        <v>134.99099784999899</v>
+      </c>
+      <c r="E4">
+        <v>136.04640125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3411.424477</v>
+      </c>
+      <c r="C5">
+        <v>3411.318925</v>
+      </c>
+      <c r="D5">
+        <v>3390.0991250000002</v>
+      </c>
+      <c r="E5">
+        <v>3204.1095399999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1.2350466627275101</v>
+      </c>
+      <c r="C6">
+        <v>1.2351057304370601</v>
+      </c>
+      <c r="D6">
+        <v>1.23862418767376</v>
+      </c>
+      <c r="E6">
+        <v>1.2359993590745999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>11.120784489999901</v>
+      </c>
+      <c r="C9">
+        <v>47.504801201999797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>13656150.140000001</v>
+      </c>
+      <c r="C10">
+        <v>21646301.636999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>70.091735049999897</v>
+      </c>
+      <c r="C11">
+        <v>134.09000774999899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2087.10855299999</v>
+      </c>
+      <c r="C12">
+        <v>3411.318925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1.20497150666523</v>
+      </c>
+      <c r="C13">
+        <v>1.2351057304370601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8.4614960799999892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>9923233.8550000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>51.840931499999897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1487.2717829999899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.20882052038777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>5.2833863919999402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>15387965.8769999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>70.940349900000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2311.2760539999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1.20068084223903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF2FC1E-E676-4242-ADD6-DBC87FFBBDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF688C-6859-42BA-966F-8BD94EBFD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
     <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
+    <sheet name="M" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="30">
   <si>
     <t>Fix B</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>fixed_preload</t>
+  </si>
+  <si>
+    <t>M = 10</t>
+  </si>
+  <si>
+    <t>M = 8</t>
+  </si>
+  <si>
+    <t>M = 6</t>
+  </si>
+  <si>
+    <t>M = 4</t>
+  </si>
+  <si>
+    <t>M = 2</t>
+  </si>
+  <si>
+    <t>phong</t>
+  </si>
+  <si>
+    <t>Phong</t>
   </si>
 </sst>
 </file>
@@ -835,8 +856,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6029332846516982E-2"/>
-          <c:y val="0.14072364414407132"/>
+          <c:x val="8.8513246574431548E-2"/>
+          <c:y val="0.11850148731408575"/>
           <c:w val="0.89041946418401596"/>
           <c:h val="0.65439254456575824"/>
         </c:manualLayout>
@@ -845,6 +866,271 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$B$4,'50 user traces'!$B$11,'50 user traces'!$B$18,'50 user traces'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.379549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.091735049999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.840931499999897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.940349900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>107.16285415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.037681699999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.273487549999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.687869300000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$D$4,'50 user traces'!$D$11,'50 user traces'!$D$18,'50 user traces'!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.92721764999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.762746649999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6844377999989995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.25038975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$E$4,'50 user traces'!$E$11,'50 user traces'!$E$18,'50 user traces'!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>135.94403969999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.762746649999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6844377999989995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.270129245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-5D49-4D30-8135-7D174AEA255F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>139.31934989999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.130960400000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5533069499999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.17738675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5D49-4D30-8135-7D174AEA255F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
@@ -1002,6 +1288,1286 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$J$4,'50 user traces'!$J$11,'50 user traces'!$J$18,'50 user traces'!$J$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136.57751149999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.643006400000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.592971200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.424909900000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6490-444F-AE23-1AC590DB9AB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="836325408"/>
+        <c:axId val="836328736"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836325408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High 	  Medium                   Low                       Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35110278898064567"/>
+              <c:y val="0.79422205604187734"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="836328736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836328736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>QoE</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836325408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0065735684040812E-2"/>
+          <c:y val="0.83391531058617674"/>
+          <c:w val="0.92254733992826143"/>
+          <c:h val="0.16608468941382326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11912335958005249"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.86976552930883655"/>
+          <c:h val="0.66682815689705455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$B$5,M!$B$12,M!$B$19,M!$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.424477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2087.10855299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487.2717829999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2311.2760539999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77CD-40DE-9B54-196F8C3CF6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$C$5,M!$C$12,M!$C$19,M!$C$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.318925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2071.3137839999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1492.0375839999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2305.111985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77CD-40DE-9B54-196F8C3CF6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$D$5,M!$D$12,M!$D$19,M!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.8028450000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2082.13299799999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1497.8575699999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2294.5519599999898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77CD-40DE-9B54-196F8C3CF6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$E$5,M!$E$12,M!$E$19,M!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3417.8234179999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2091.19986499999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1506.367133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2285.8125030000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77CD-40DE-9B54-196F8C3CF6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$G$5,M!$G$12,M!$G$19,M!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3375.6604629999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2110.3595730000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1550.948312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2310.32883699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-77CD-40DE-9B54-196F8C3CF6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>M!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(M!$F$5,M!$F$12,M!$F$19,M!$F$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-77CD-40DE-9B54-196F8C3CF6B8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High	Medium	      Low	     Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20878751452349506"/>
+              <c:y val="0.82465219304234372"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Waste Data (KBytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3758157349385432E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.847984032947664"/>
+          <c:h val="9.5197552722254622E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.14072364414407132"/>
+          <c:w val="0.89041946418401596"/>
+          <c:h val="0.65439254456575824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$B$4,M!$B$11,M!$B$18,M!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.379549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.091735049999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.840931499999897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.940349900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-017F-4C75-937D-A5928F4065F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$C$4,M!$C$11,M!$C$18,M!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.15460775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.003327049999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.769555199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.087418899999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-017F-4C75-937D-A5928F4065F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$D$4,M!$D$11,M!$D$18,M!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.0177194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.039389249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.701261599999903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.854208499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-017F-4C75-937D-A5928F4065F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$E$4,M!$E$11,M!$E$18,M!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>137.52551890000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.301577550000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.078760699999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.5342646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-017F-4C75-937D-A5928F4065F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>M!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(M!$G$4,M!$G$11,M!$G$18,M!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134.32521489999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.562141150000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.139313299999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.935611850000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-017F-4C75-937D-A5928F4065F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1017,282 +2583,19 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="4"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$B$1</c15:sqref>
+                          <c15:sqref>M!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Proposed</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$B$4,'50 user traces'!$B$11,'50 user traces'!$B$18,'50 user traces'!$B$25)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>138.421492</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>68.613159549999907</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>51.986034699999998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>74.341576750000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5D49-4D30-8135-7D174AEA255F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fix-B</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>107.16285415</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>65.037681699999993</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>50.273487549999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>56.687869300000003</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-5D49-4D30-8135-7D174AEA255F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Next-One</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$D$4,'50 user traces'!$D$11,'50 user traces'!$D$18,'50 user traces'!$D$25)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>135.92721764999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>67.762746649999997</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8.6844377999989995</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>22.25038975</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5D49-4D30-8135-7D174AEA255F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>WaterFall</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$E$4,'50 user traces'!$E$11,'50 user traces'!$E$18,'50 user traces'!$E$25)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>135.94403969999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>67.762746649999997</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8.6844377999989995</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>22.270129245</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-5D49-4D30-8135-7D174AEA255F}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Network-based</c:v>
-                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -1310,42 +2613,30 @@
                   <c:idx val="1"/>
                   <c:invertIfNegative val="0"/>
                   <c:bubble3D val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst>
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                      <c16:uniqueId val="{00000004-5D49-4D30-8135-7D174AEA255F}"/>
+                      <c16:uniqueId val="{00000004-017F-4C75-937D-A5928F4065F3}"/>
                     </c:ext>
                   </c:extLst>
                 </c:dPt>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$F$4,'50 user traces'!$F$11,'50 user traces'!$F$18,'50 user traces'!$F$25)</c15:sqref>
+                          <c15:sqref>(M!$F$4,M!$F$11,M!$F$18,M!$F$25)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>139.31934989999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>69.130960400000006</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>9.5533069499999996</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>24.17738675</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-5D49-4D30-8135-7D174AEA255F}"/>
+                    <c16:uniqueId val="{00000005-017F-4C75-937D-A5928F4065F3}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1580,8 +2871,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.5019534042941061E-2"/>
           <c:y val="0.905026658186182"/>
-          <c:w val="0.75568659513826653"/>
-          <c:h val="8.1480178810501708E-2"/>
+          <c:w val="0.86395551543347648"/>
+          <c:h val="8.1663200938210473E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4896,16 +6187,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3413.1605399999999</c:v>
+                  <c:v>3411.424477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2066.3222689999998</c:v>
+                  <c:v>2087.10855299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1481.92408599999</c:v>
+                  <c:v>1487.2717829999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2356.710568</c:v>
+                  <c:v>2311.2760539999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,57 +6204,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F9A9-49CF-A12E-4081D2108C31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fix-B</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4288.7718590000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2626.4527079999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2042.210724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2780.2042669999901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F9A9-49CF-A12E-4081D2108C31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5184,6 +6424,75 @@
         <c:gapWidth val="70"/>
         <c:axId val="644726432"/>
         <c:axId val="644725600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4288.7718590000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2626.4527079999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2042.210724</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2780.2042669999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F9A9-49CF-A12E-4081D2108C31}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="644726432"/>
@@ -5492,9 +6801,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.6029332846516982E-2"/>
-          <c:y val="0.14072364414407132"/>
-          <c:w val="0.89041946418401596"/>
-          <c:h val="0.65439254456575824"/>
+          <c:y val="0.13592056396408661"/>
+          <c:w val="0.90428264379271539"/>
+          <c:h val="0.65919580657605126"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5532,16 +6841,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>138.421492</c:v>
+                  <c:v>138.379549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.613159549999907</c:v>
+                  <c:v>70.091735049999897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.986034699999998</c:v>
+                  <c:v>51.840931499999897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.341576750000002</c:v>
+                  <c:v>70.940349900000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,57 +6858,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA6B-4367-9B6E-8466B364E991}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fix-B</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>107.16285415</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.037681699999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.273487549999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.687869300000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA6B-4367-9B6E-8466B364E991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5828,7 +7086,75 @@
         <c:gapWidth val="70"/>
         <c:axId val="836325408"/>
         <c:axId val="836328736"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$C$4,'50 user traces'!$C$11,'50 user traces'!$C$18,'50 user traces'!$C$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>107.16285415</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65.037681699999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.273487549999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.687869300000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CA6B-4367-9B6E-8466B364E991}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="836325408"/>
@@ -6140,8 +7466,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11912335958005249"/>
-          <c:y val="0.14393518518518519"/>
+          <c:x val="0.11912337608742302"/>
+          <c:y val="9.0601924759405081E-2"/>
           <c:w val="0.86976552930883655"/>
           <c:h val="0.66682815689705455"/>
         </c:manualLayout>
@@ -6150,6 +7476,263 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.424477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2087.10855299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487.2717829999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2311.2760539999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4288.7718590000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2626.4527079999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2042.210724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780.2042669999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$D$5,'50 user traces'!$D$12,'50 user traces'!$D$19,'50 user traces'!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10374.999572000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3278.4124409999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2828.8010489999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4572.5788140000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11179.8140109999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3278.4124409999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2828.8010489999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4667.9839240000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$F$5,'50 user traces'!$F$12,'50 user traces'!$F$19,'50 user traces'!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4294.0716060000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3062.7875490000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2736.644558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3441.8010410000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C0A-4AD7-A658-C8B812F6C46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
@@ -6307,6 +7890,59 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50 user traces'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('50 user traces'!$J$5,'50 user traces'!$J$12,'50 user traces'!$J$19,'50 user traces'!$J$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3121.0411859999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2346.6260309999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1857.09827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2356.46449599999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B27-4C65-9175-E478D06B18A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6318,337 +7954,7 @@
         <c:gapWidth val="70"/>
         <c:axId val="644726432"/>
         <c:axId val="644725600"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Proposed</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>3413.1605399999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2066.3222689999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1481.92408599999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2356.710568</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-7C0A-4AD7-A658-C8B812F6C46E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fix-B</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>4288.7718590000004</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2626.4527079999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2042.210724</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2780.2042669999901</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-7C0A-4AD7-A658-C8B812F6C46E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Next-One</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:softEdge rad="0"/>
-                  </a:effectLst>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$D$5,'50 user traces'!$D$12,'50 user traces'!$D$19,'50 user traces'!$D$26)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>10374.999572000001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3278.4124409999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2828.8010489999901</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4572.5788140000004</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7C0A-4AD7-A658-C8B812F6C46E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>WaterFall</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>11179.8140109999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3278.4124409999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2828.8010489999901</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4667.9839240000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-7C0A-4AD7-A658-C8B812F6C46E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'50 user traces'!$F$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Network-based</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('50 user traces'!$F$5,'50 user traces'!$F$12,'50 user traces'!$F$19,'50 user traces'!$F$26)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>4294.0716060000004</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3062.7875490000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2736.644558</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3441.8010410000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-7C0A-4AD7-A658-C8B812F6C46E}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="644726432"/>
@@ -6695,8 +8001,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.20878751452349506"/>
-              <c:y val="0.82465219304234372"/>
+              <c:x val="0.21140803743871639"/>
+              <c:y val="0.78020787401574798"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6873,10 +8179,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3758157349385432E-2"/>
-          <c:y val="0.90480254274574057"/>
-          <c:w val="0.8376848298367362"/>
-          <c:h val="9.5197457254259404E-2"/>
+          <c:x val="2.2101706733200391E-3"/>
+          <c:y val="0.8470246719160105"/>
+          <c:w val="0.99778986942669901"/>
+          <c:h val="0.15297532808398948"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6978,6 +8284,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8343,7 +9729,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8846,7 +10232,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9349,7 +10735,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9852,7 +11238,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10355,7 +11741,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10858,7 +12244,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11361,7 +12747,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11864,7 +13250,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12367,20 +13753,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>436033</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603673</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12407,16 +14799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>395395</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>39794</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12686,15 +15078,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>577427</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12725,15 +15117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>168485</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12763,10 +15155,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1693</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459952BE-30D1-4EB6-A38B-707557C73C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265855</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA679B-2B84-48A3-874A-A6433206BE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12774,34 +15247,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -13060,10 +15533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13075,7 +15548,7 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -13097,8 +15570,11 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13120,8 +15596,11 @@
       <c r="G2">
         <v>2.6814019000000102</v>
       </c>
+      <c r="H2">
+        <v>12.400029399999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13143,8 +15622,11 @@
       <c r="G3">
         <v>11612697.65</v>
       </c>
+      <c r="H3">
+        <v>13457863.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13166,8 +15648,11 @@
       <c r="G4">
         <v>55.5721925</v>
       </c>
+      <c r="H4">
+        <v>72.553984999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13189,8 +15674,11 @@
       <c r="G5">
         <v>4183.6509500000002</v>
       </c>
+      <c r="H5">
+        <v>3696.1902500000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -13212,8 +15700,11 @@
       <c r="G6">
         <v>1.53472961779671</v>
       </c>
+      <c r="H6">
+        <v>1.31345402910898</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -13235,8 +15726,11 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -13258,8 +15752,11 @@
       <c r="G9">
         <v>-5.4507463999999999</v>
       </c>
+      <c r="H9">
+        <v>-5.9809045999999899</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -13281,8 +15778,11 @@
       <c r="G10">
         <v>7801590.3499999996</v>
       </c>
+      <c r="H10">
+        <v>8958526.1500000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -13304,8 +15804,11 @@
       <c r="G11">
         <v>29.350614999999902</v>
       </c>
+      <c r="H11">
+        <v>32.373199999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -13327,8 +15830,11 @@
       <c r="G12">
         <v>3169.2586499999902</v>
       </c>
+      <c r="H12">
+        <v>2909.2682</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -13350,8 +15856,11 @@
       <c r="G13">
         <v>1.4246834694118999</v>
       </c>
+      <c r="H13">
+        <v>1.2637557685481</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -13373,8 +15882,11 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -13396,8 +15908,11 @@
       <c r="G16">
         <v>-7.8780840999999997</v>
       </c>
+      <c r="H16">
+        <v>-12.127577499999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -13419,8 +15934,11 @@
       <c r="G17">
         <v>6496744.1500000004</v>
       </c>
+      <c r="H17">
+        <v>7038172.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -13442,8 +15960,11 @@
       <c r="G18">
         <v>20.438892500000001</v>
       </c>
+      <c r="H18">
+        <v>18.362612500000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -13465,8 +15986,11 @@
       <c r="G19">
         <v>2516.9164999999998</v>
       </c>
+      <c r="H19">
+        <v>2407.2777999999998</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -13488,8 +16012,11 @@
       <c r="G20">
         <v>1.36315228966986</v>
       </c>
+      <c r="H20">
+        <v>1.2495562655307</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -13511,8 +16038,11 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -13534,8 +16064,11 @@
       <c r="G23">
         <v>-14.4909006999999</v>
       </c>
+      <c r="H23">
+        <v>-12.5949740999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -13557,8 +16090,11 @@
       <c r="G24">
         <v>8466383.3000000007</v>
       </c>
+      <c r="H24">
+        <v>9616830.4000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -13580,8 +16116,11 @@
       <c r="G25">
         <v>24.194632500000001</v>
       </c>
+      <c r="H25">
+        <v>30.322347499999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -13603,8 +16142,11 @@
       <c r="G26">
         <v>3136.9722499999998</v>
       </c>
+      <c r="H26">
+        <v>2806.8782500000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -13626,8 +16168,11 @@
       <c r="G27">
         <v>1.42231688557567</v>
       </c>
+      <c r="H27">
+        <v>1.27795527156549</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -13664,7 +16209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0D993-7A0F-4E59-A595-265B666FF3E8}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -14866,10 +17411,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14881,9 +17426,10 @@
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -14911,13 +17457,16 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>47.646995123999801</v>
+        <v>47.626003435999799</v>
       </c>
       <c r="C2">
         <v>26.789736353999899</v>
@@ -14940,13 +17489,16 @@
       <c r="I2">
         <v>4.01654212199991</v>
       </c>
+      <c r="J2">
+        <v>48.638760467999802</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>21681899.2189999</v>
+        <v>21676498.890999898</v>
       </c>
       <c r="C3">
         <v>18977666.9489999</v>
@@ -14969,13 +17521,16 @@
       <c r="I3">
         <v>27777837.306999899</v>
       </c>
+      <c r="J3">
+        <v>20737737.758000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>138.421492</v>
+        <v>138.379549</v>
       </c>
       <c r="C4">
         <v>107.16285415</v>
@@ -14998,13 +17553,16 @@
       <c r="I4">
         <v>119.08759135</v>
       </c>
+      <c r="J4">
+        <v>136.57751149999899</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3413.1605399999999</v>
+        <v>3411.424477</v>
       </c>
       <c r="C5">
         <v>4288.7718590000004</v>
@@ -15027,13 +17585,16 @@
       <c r="I5">
         <v>12186.940406</v>
       </c>
+      <c r="J5">
+        <v>3121.0411859999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.23506980274496</v>
+        <v>1.2350466627275101</v>
       </c>
       <c r="C6">
         <v>1.3717298131634601</v>
@@ -15056,8 +17617,11 @@
       <c r="I6">
         <v>1.74814986684213</v>
       </c>
+      <c r="J6">
+        <v>1.21931401754962</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -15085,13 +17649,16 @@
       <c r="I8" t="s">
         <v>20</v>
       </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>9.9130220139999992</v>
+        <v>11.120784489999901</v>
       </c>
       <c r="C9">
         <v>8.2414489359999994</v>
@@ -15114,13 +17681,16 @@
       <c r="I9">
         <v>12.8801552899999</v>
       </c>
+      <c r="J9">
+        <v>14.209912095999901</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>13708759.384</v>
+        <v>13656150.140000001</v>
       </c>
       <c r="C10">
         <v>13029720.691</v>
@@ -15143,13 +17713,16 @@
       <c r="I10">
         <v>14206173.640000001</v>
       </c>
+      <c r="J10">
+        <v>14891811.075999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>68.613159549999907</v>
+        <v>70.091735049999897</v>
       </c>
       <c r="C11">
         <v>65.037681699999993</v>
@@ -15172,13 +17745,16 @@
       <c r="I11">
         <v>72.059849849999907</v>
       </c>
+      <c r="J11">
+        <v>77.643006400000004</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2066.3222689999998</v>
+        <v>2087.10855299999</v>
       </c>
       <c r="C12">
         <v>2626.4527079999998</v>
@@ -15201,13 +17777,16 @@
       <c r="I12">
         <v>3329.9534229999999</v>
       </c>
+      <c r="J12">
+        <v>2346.6260309999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1.20791226633439</v>
+        <v>1.20497150666523</v>
       </c>
       <c r="C13">
         <v>1.2788217689328401</v>
@@ -15230,8 +17809,11 @@
       <c r="I13">
         <v>1.3147230141155299</v>
       </c>
+      <c r="J13">
+        <v>1.1943664143302799</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -15259,13 +17841,16 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>8.9091793159999995</v>
+        <v>8.4614960799999892</v>
       </c>
       <c r="C16">
         <v>3.12527921</v>
@@ -15288,13 +17873,16 @@
       <c r="I16">
         <v>6.8372700479999997</v>
       </c>
+      <c r="J16">
+        <v>4.8138827240000097</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>9863101.3460000008</v>
+        <v>9923233.8550000004</v>
       </c>
       <c r="C17">
         <v>10759852.0849999</v>
@@ -15317,13 +17905,16 @@
       <c r="I17">
         <v>11235619.088</v>
       </c>
+      <c r="J17">
+        <v>11636647.119000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>51.986034699999998</v>
+        <v>51.840931499999897</v>
       </c>
       <c r="C18">
         <v>50.273487549999999</v>
@@ -15346,13 +17937,16 @@
       <c r="I18">
         <v>53.036196400000001</v>
       </c>
+      <c r="J18">
+        <v>54.592971200000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
-        <v>1481.92408599999</v>
+        <v>1487.2717829999899</v>
       </c>
       <c r="C19">
         <v>2042.210724</v>
@@ -15375,13 +17969,16 @@
       <c r="I19">
         <v>2311.425729</v>
       </c>
+      <c r="J19">
+        <v>1857.09827</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.2095891255325999</v>
+        <v>1.20882052038777</v>
       </c>
       <c r="C20">
         <v>1.25104130325142</v>
@@ -15404,8 +18001,11 @@
       <c r="I20">
         <v>1.26626836578888</v>
       </c>
+      <c r="J20">
+        <v>1.19225077715909</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -15433,13 +18033,16 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>7.3543962019999398</v>
+        <v>5.2833863919999402</v>
       </c>
       <c r="C23">
         <v>-1.9232142760000099</v>
@@ -15462,13 +18065,16 @@
       <c r="I23">
         <v>-2.19752247000002</v>
       </c>
+      <c r="J23">
+        <v>9.5154508279999295</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>15732282.637</v>
+        <v>15387965.8769999</v>
       </c>
       <c r="C24">
         <v>13630695.893999999</v>
@@ -15491,13 +18097,16 @@
       <c r="I24">
         <v>16271324.355</v>
       </c>
+      <c r="J24">
+        <v>15415977.267999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
-        <v>74.341576750000002</v>
+        <v>70.940349900000001</v>
       </c>
       <c r="C25">
         <v>56.687869300000003</v>
@@ -15520,13 +18129,16 @@
       <c r="I25">
         <v>65.801424949999998</v>
       </c>
+      <c r="J25">
+        <v>75.424909900000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>2356.710568</v>
+        <v>2311.2760539999999</v>
       </c>
       <c r="C26">
         <v>2780.2042669999901</v>
@@ -15549,13 +18161,16 @@
       <c r="I26">
         <v>4699.6553979999999</v>
       </c>
+      <c r="J26">
+        <v>2356.46449599999</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27">
-        <v>1.2012941599459701</v>
+        <v>1.20068084223903</v>
       </c>
       <c r="C27">
         <v>1.27913262342328</v>
@@ -15578,14 +18193,17 @@
       <c r="I27">
         <v>1.36902469297624</v>
       </c>
+      <c r="J27">
+        <v>1.1950394550005401</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29:I29" si="0">AVERAGE(B4,B11,B18,B25)</f>
-        <v>83.340565749999982</v>
+        <v>82.813141362499948</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -15624,44 +18242,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E67B3-CC58-427A-8175-0EE44CD72631}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0FE4AB-FA8B-4062-91F3-33A87312A0B6}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -15672,13 +18292,16 @@
         <v>47.504801201999797</v>
       </c>
       <c r="D2">
-        <v>45.693339937999802</v>
+        <v>47.490905879999801</v>
       </c>
       <c r="E2">
-        <v>46.4956252019998</v>
+        <v>47.161613511999803</v>
+      </c>
+      <c r="G2">
+        <v>44.801890627999803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -15689,13 +18312,16 @@
         <v>21646301.636999998</v>
       </c>
       <c r="D3">
-        <v>21215951.978</v>
+        <v>21613715.879999999</v>
       </c>
       <c r="E3">
-        <v>21249006.511999998</v>
+        <v>21562238.846999999</v>
+      </c>
+      <c r="G3">
+        <v>21302918.568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -15706,13 +18332,16 @@
         <v>138.15460775</v>
       </c>
       <c r="D4">
-        <v>134.99099784999899</v>
+        <v>138.0177194</v>
       </c>
       <c r="E4">
-        <v>136.04640125</v>
+        <v>137.52551890000001</v>
+      </c>
+      <c r="G4">
+        <v>134.32521489999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -15723,13 +18352,16 @@
         <v>3411.318925</v>
       </c>
       <c r="D5">
-        <v>3390.0991250000002</v>
+        <v>3411.8028450000002</v>
       </c>
       <c r="E5">
-        <v>3204.1095399999999</v>
+        <v>3417.8234179999999</v>
+      </c>
+      <c r="G5">
+        <v>3375.6604629999902</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -15740,13 +18372,16 @@
         <v>1.2351057304370601</v>
       </c>
       <c r="D6">
-        <v>1.23862418767376</v>
+        <v>1.2352137553051601</v>
       </c>
       <c r="E6">
-        <v>1.2359993590745999</v>
+        <v>1.23564818408641</v>
+      </c>
+      <c r="G6">
+        <v>1.2354346141475401</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -15762,11 +18397,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -15774,10 +18409,19 @@
         <v>11.120784489999901</v>
       </c>
       <c r="C9">
-        <v>47.504801201999797</v>
+        <v>11.032622694000001</v>
+      </c>
+      <c r="D9">
+        <v>10.743107029999999</v>
+      </c>
+      <c r="E9">
+        <v>9.3780100019999892</v>
+      </c>
+      <c r="G9">
+        <v>7.5329767179999898</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -15785,10 +18429,19 @@
         <v>13656150.140000001</v>
       </c>
       <c r="C10">
-        <v>21646301.636999998</v>
+        <v>13658038.589</v>
+      </c>
+      <c r="D10">
+        <v>13735745.555</v>
+      </c>
+      <c r="E10">
+        <v>13846579.387</v>
+      </c>
+      <c r="G10">
+        <v>13907966.107999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -15796,10 +18449,19 @@
         <v>70.091735049999897</v>
       </c>
       <c r="C11">
-        <v>134.09000774999899</v>
+        <v>70.003327049999996</v>
+      </c>
+      <c r="D11">
+        <v>70.039389249999999</v>
+      </c>
+      <c r="E11">
+        <v>69.301577550000005</v>
+      </c>
+      <c r="G11">
+        <v>67.562141150000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -15807,10 +18469,19 @@
         <v>2087.10855299999</v>
       </c>
       <c r="C12">
-        <v>3411.318925</v>
+        <v>2071.3137839999999</v>
+      </c>
+      <c r="D12">
+        <v>2082.13299799999</v>
+      </c>
+      <c r="E12">
+        <v>2091.19986499999</v>
+      </c>
+      <c r="G12">
+        <v>2110.3595730000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15818,10 +18489,19 @@
         <v>1.20497150666523</v>
       </c>
       <c r="C13">
-        <v>1.2351057304370601</v>
+        <v>1.20450872677703</v>
+      </c>
+      <c r="D13">
+        <v>1.2034860084769201</v>
+      </c>
+      <c r="E13">
+        <v>1.2027641763153301</v>
+      </c>
+      <c r="G13">
+        <v>1.2025930770666</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -15837,51 +18517,111 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <v>8.4614960799999892</v>
       </c>
+      <c r="C16">
+        <v>8.2601648920000006</v>
+      </c>
+      <c r="D16">
+        <v>8.0589165319999996</v>
+      </c>
+      <c r="E16">
+        <v>7.1109871880000002</v>
+      </c>
+      <c r="G16">
+        <v>4.1631884239999897</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
         <v>9923233.8550000004</v>
       </c>
+      <c r="C17">
+        <v>9949610.0769999996</v>
+      </c>
+      <c r="D17">
+        <v>9973436.2669999897</v>
+      </c>
+      <c r="E17">
+        <v>10052843.378</v>
+      </c>
+      <c r="G17">
+        <v>10278743.719000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
         <v>51.840931499999897</v>
       </c>
+      <c r="C18">
+        <v>51.769555199999999</v>
+      </c>
+      <c r="D18">
+        <v>51.701261599999903</v>
+      </c>
+      <c r="E18">
+        <v>51.078760699999997</v>
+      </c>
+      <c r="G18">
+        <v>49.139313299999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19">
         <v>1487.2717829999899</v>
       </c>
+      <c r="C19">
+        <v>1492.0375839999999</v>
+      </c>
+      <c r="D19">
+        <v>1497.8575699999899</v>
+      </c>
+      <c r="E19">
+        <v>1506.367133</v>
+      </c>
+      <c r="G19">
+        <v>1550.948312</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>1.20882052038777</v>
       </c>
+      <c r="C20">
+        <v>1.2086517708003199</v>
+      </c>
+      <c r="D20">
+        <v>1.20851944508376</v>
+      </c>
+      <c r="E20">
+        <v>1.2072347498020299</v>
+      </c>
+      <c r="G20">
+        <v>1.20631348635199</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -15897,51 +18637,138 @@
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23">
         <v>5.2833863919999402</v>
       </c>
+      <c r="C23">
+        <v>5.1508920359999504</v>
+      </c>
+      <c r="D23">
+        <v>5.3354469599999499</v>
+      </c>
+      <c r="E23">
+        <v>5.2100020999999499</v>
+      </c>
+      <c r="G23">
+        <v>3.0106230859999501</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>15387965.8769999</v>
       </c>
+      <c r="C24">
+        <v>15207156.716</v>
+      </c>
+      <c r="D24">
+        <v>15098327.885</v>
+      </c>
+      <c r="E24">
+        <v>15041728.124999899</v>
+      </c>
+      <c r="G24">
+        <v>14924022.190999901</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
         <v>70.940349900000001</v>
       </c>
+      <c r="C25">
+        <v>70.087418899999903</v>
+      </c>
+      <c r="D25">
+        <v>69.854208499999999</v>
+      </c>
+      <c r="E25">
+        <v>69.5342646</v>
+      </c>
+      <c r="G25">
+        <v>66.935611850000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
         <v>2311.2760539999999</v>
       </c>
+      <c r="C26">
+        <v>2305.111985</v>
+      </c>
+      <c r="D26">
+        <v>2294.5519599999898</v>
+      </c>
+      <c r="E26">
+        <v>2285.8125030000001</v>
+      </c>
+      <c r="G26">
+        <v>2310.32883699999</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27">
         <v>1.20068084223903</v>
+      </c>
+      <c r="C27">
+        <v>1.2002364758844299</v>
+      </c>
+      <c r="D27">
+        <v>1.1997498085589799</v>
+      </c>
+      <c r="E27">
+        <v>1.19971432992998</v>
+      </c>
+      <c r="G27">
+        <v>1.2002094398535399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B4,B11,B18,B25)</f>
+        <v>82.813141362499948</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C4,C11,C18,C25)</f>
+        <v>82.503727224999977</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D4,D11,D18,D25)</f>
+        <v>82.403144687499974</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E4,E11,E18,E25)</f>
+        <v>81.860030437500001</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G4,G11,G18,G25)</f>
+        <v>79.490570300000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF688C-6859-42BA-966F-8BD94EBFD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DED1BF-B1B3-4F4E-9096-58B7044BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="600" yWindow="1824" windowWidth="19368" windowHeight="9540" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>136.57751149999899</c:v>
+                  <c:v>136.46390174999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.643006400000004</c:v>
@@ -7923,7 +7923,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3121.0411859999999</c:v>
+                  <c:v>2978.9633490000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2346.6260309999998</c:v>
@@ -15535,8 +15535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17413,8 +17413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17490,7 +17490,7 @@
         <v>4.01654212199991</v>
       </c>
       <c r="J2">
-        <v>48.638760467999802</v>
+        <v>49.130266033999803</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -17522,7 +17522,7 @@
         <v>27777837.306999899</v>
       </c>
       <c r="J3">
-        <v>20737737.758000001</v>
+        <v>20529321.429000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -17554,7 +17554,7 @@
         <v>119.08759135</v>
       </c>
       <c r="J4">
-        <v>136.57751149999899</v>
+        <v>136.46390174999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -17586,7 +17586,7 @@
         <v>12186.940406</v>
       </c>
       <c r="J5">
-        <v>3121.0411859999999</v>
+        <v>2978.9633490000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -17618,7 +17618,7 @@
         <v>1.74814986684213</v>
       </c>
       <c r="J6">
-        <v>1.21931401754962</v>
+        <v>1.21294057916065</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -18245,7 +18245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0FE4AB-FA8B-4062-91F3-33A87312A0B6}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>

--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DED1BF-B1B3-4F4E-9096-58B7044BBEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB7321-F8DE-4139-952F-3EFA96247004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1824" windowWidth="19368" windowHeight="9540" activeTab="3" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
     <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
-    <sheet name="M" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId5"/>
+    <sheet name="100 user traces" sheetId="17" r:id="rId6"/>
+    <sheet name="M" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="36">
   <si>
     <t>Fix B</t>
   </si>
@@ -131,6 +133,24 @@
   <si>
     <t>Phong</t>
   </si>
+  <si>
+    <t>Phong_other</t>
+  </si>
+  <si>
+    <t>Phongv3</t>
+  </si>
+  <si>
+    <t>no bmax=4</t>
+  </si>
+  <si>
+    <t>[153.85324999999997, 153.5819, 152.14314999999996, 150.51939999999996, 151.60304999999997, 142.35449999999997, 152.45454999999998, 157.96724999999998, 155.69479999999996, 154.82269999999997, 156.76159999999996, 155.07679999999996, 151.76609999999997, 149.77884999999998, 152.44899999999998, 150.18529999999998, 152.63719999999998, 145.68099999999998, 158.85349999999997, 153.5116, 135.23735, 133.7525, 132.80159999999998, 136.213, 138.23635, 122.79135, 134.61325, 137.5537, 137.36434999999997, 134.72424999999998, 136.48495, 133.0082, 133.84365, 133.1918, 134.45739999999998, 132.42284999999998, 128.33489999999998, 132.9957, 136.2611, 135.17815, 202.27605, 199.93189999999998, 198.49314999999999, 198.86565000000002, 199.0983, 191.15384999999998, 200.10455, 204.567, 203.21095, 201.8227, 204.5041, 200.9791, 199.41609999999997, 199.19254999999998, 200.099, 196.5353, 197.03719999999998, 200.3366, 205.70299999999997, 201.8116, 170.3331, 168.55264999999997, 169.44495, 168.04874999999998, 171.81189999999998, 162.5142, 170.43784999999997, 176.81699999999998, 171.55235, 167.30944999999997, 172.20409999999998, 169.55374999999998, 171.4497, 172.3041, 168.56029999999998, 163.51125, 162.48575, 167.36079999999998, 176.75409999999997, 169.46159999999998, 150.4183, 152.17709999999997, 151.49314999999999, 150.09874999999997, 151.13195, 141.57319999999999, 149.03249999999997, 157.29569999999998, 155.78174999999996, 152.87269999999998, 153.6041, 153.82435, 151.718, 147.08514999999997, 153.09899999999996, 149.99104999999997, 145.9838, 151.20334999999997, 159.05699999999996, 151.56159999999997, 118.3064, 112.91539999999999, 113.29585, 117.26855, 118.75595, 108.28774999999999, 115.00355, 121.417, 120.25704999999999, 116.5464, 115.58615, 114.77905, 115.7255, 115.4956, 113.75699999999999, 114.66799999999999, 113.1892, 115.33399999999999, 119.4041, 116.81344999999999, 217.35909999999998, 213.3037, 214.33915, 215.22050000000002, 216.5846, 202.45309999999998, 214.93784999999997, 219.10995, 216.6993, 211.30505, 218.40685, 215.36284999999998, 213.04135, 215.1983, 214.11275, 213.168, 207.71179999999998, 214.5113, 220.08305000000001, 217.74205, 43.610800000000005, 37.782450000000004, 39.27735, 36.7398, 42.22025, 22.852999999999998, 33.5869, 47.417, 45.1489, 38.370200000000004, 43.20815000000001, 36.75755, 40.316100000000006, 40.3757, 39.699000000000005, 37.972550000000005, 30.058, 42.93305, 47.3541, 39.96315, 136.25325, 133.3319, 131.89315, 132.12505, 132.7684, 125.32105, 133.50455, 139.917, 135.63415, 135.2227, 137.81159999999997, 134.8268, 132.65515, 131.34935, 133.3732, 129.9353, 130.4372, 133.62189999999998, 138.73669999999998, 135.2116, 243.79245, 248.12904999999995, 250.19549999999998, 250.66539999999998, 250.27504999999996, 242.07684999999998, 247.43269999999995, 252.47655, 252.65414999999996, 248.67479999999998, 249.25939999999997, 243.92324999999997, 249.44774999999998, 244.75205, 244.4653, 246.11624999999998, 244.99699999999999, 245.65734999999998, 252.1898, 250.55254999999997, 70.50054999999999, 64.4935, 63.07455, 67.27785, 67.90119999999999, 46.365449999999996, 64.51945, 72.91924999999999, 68.91205, 63.82435, 68.40874999999998, 64.29995, 67.56609999999999, 67.926, 64.05879999999999, 63.6369, 60.0972, 66.12834999999998, 73.2541, 69.91159999999999, 208.71884999999997, 208.29934999999998, 212.1962, 206.38635, 214.77345, 199.3217, 212.85660000000001, 216.52179999999998, 216.8326, 211.16694999999999, 213.95009999999996, 213.0744, 207.5079, 206.93035000000003, 212.4496, 213.29149999999998, 208.05764999999997, 207.06799999999996, 217.75575, 216.6191, 166.64045, 168.22835, 166.94315, 160.49994999999998, 162.4755, 155.76635, 167.10655, 170.50655, 167.87879999999998, 165.52115, 171.03435, 168.0416, 165.88715, 168.34935, 167.0233, 164.9853, 166.18475, 161.85989999999998, 172.74329999999998, 167.3681, 255.57920000000001, 253.38189999999997, 253.89315, 252.26940000000002, 253.35305, 243.4545, 254.20454999999998, 258.0245, 257.4448, 256.54125, 258.5116, 256.4679, 253.43470000000002, 255.42885, 254.199, 251.93529999999998, 254.3872, 248.6397, 260.89765, 255.2616, 77.05325, 74.1319, 72.69315, 73.0194, 74.10305, 62.11885, 74.30455, 80.717, 77.50715, 76.0227, 78.6116, 75.6268, 73.6161, 73.646, 74.299, 70.7353, 71.2372, 74.6476, 80.57085, 76.0116, 47.53455000000001, 41.78135, 41.417, 38.9584, 43.3282, 25.73775, 39.17795, 50.68955000000001, 45.439800000000005, 45.218250000000005, 44.9525, 43.431850000000004, 47.13865000000001, 44.807550000000006, 44.416700000000006, 41.777100000000004, 34.628049999999995, 43.892450000000004, 48.10620000000001, 40.84115, 129.70055, 125.93190000000001, 125.14314999999999, 127.69875, 130.57625, 122.5172, 126.13785, 132.1359, 131.925, 127.8227, 130.16185, 127.4971, 125.4161, 126.1318, 126.099, 124.10910000000001, 124.33720000000001, 128.1237, 132.4541, 128.4616, 62.305049999999994, 59.231899999999996, 59.245450000000005, 54.18214999999999, 59.9931, 40.4261, 55.5004, 67.767, 63.9263, 61.297250000000005, 62.21690000000001, 60.018249999999995, 60.6661, 61.1117, 61.998999999999995, 57.023849999999996, 49.128, 63.4773, 67.7041, 58.9657, 183.74555, 180.58190000000002, 181.29175, 180.50735, 179.92100000000002, 169.67155000000002, 180.48260000000002, 185.66610000000003, 183.74625, 179.54535, 182.65095000000002, 183.64265000000003, 181.52215, 182.6257, 182.04900000000004, 180.19045000000003, 177.82475000000002, 178.5543, 189.27305, 180.51160000000004, 426.3347, 419.3457, 427.12675, 427.3277, 432.1984, 415.7057, 423.38334999999995, 436.00210000000004, 431.63710000000003, 425.8123, 432.10145, 426.58164999999997, 423.1316, 417.98, 422.55325, 429.3307, 414.85405000000003, 428.23245000000003, 428.05975, 426.44055000000003, 79.10054999999998, 74.06224999999999, 74.63275, 76.16194999999999, 79.62354999999998, 62.784500000000016, 76.30275, 82.567, 80.97045, 74.0826, 79.25409999999998, 75.15575, 79.41609999999999, 75.36965, 75.91055, 73.50735, 67.93194999999999, 76.77815, 82.29504999999999, 78.00349999999999, 180.14549999999997, 176.8319, 177.62874999999997, 179.29874999999998, 180.50254999999999, 167.00319999999996, 177.62769999999998, 182.16699999999997, 179.99944999999997, 178.18200000000002, 181.45409999999998, 175.87519999999998, 179.46609999999998, 180.76719999999997, 180.80099999999996, 171.7395, 173.7171, 178.50214999999997, 185.34549999999996, 180.06159999999997, 138.07485, 134.5493, 129.42149999999998, 138.89505, 137.90345, 125.11479999999999, 135.97514999999999, 141.767, 139.86704999999998, 135.72655, 136.24759999999998, 135.42735, 135.7943, 136.51964999999998, 137.23495, 133.3621, 133.31045, 136.05955, 140.37949999999998, 138.57684999999998, 225.7461, 225.7319, 224.29315, 222.39374999999998, 223.00565, 213.8545, 224.60455, 230.11724999999998, 227.8226, 224.78775, 228.9116, 226.52009999999999, 223.9161, 225.82885, 224.599, 222.3353, 224.7872, 220.41434999999998, 230.80925, 225.6616, 92.59794999999998, 91.0876, 91.8178, 91.3084, 97.82624999999999, 79.5906, 91.35849999999999, 98.46699999999998, 93.6593, 90.58875, 95.1541, 92.4735, 95.96609999999998, 90.75414999999998, 91.52074999999999, 87.45904999999999, 84.547, 89.97529999999999, 98.84875, 91.61175, 81.447, 77.16775, 75.7846, 78.2871, 82.47625, 65.81035, 78.03784999999999, 84.417, 83.84535, 79.7227, 82.4041, 79.3971, 76.70559999999999, 79.84304999999999, 77.92685, 78.0047, 73.81009999999999, 80.5491, 84.35409999999999, 81.66159999999999, 182.6927, 186.68210000000002, 185.44314999999997, 183.8194, 184.90304999999998, 175.0045, 183.80454999999998, 190.6919, 188.99479999999997, 188.12269999999998, 190.06159999999997, 187.25939999999997, 185.06609999999998, 183.07885000000002, 185.749, 183.4853, 185.9372, 177.10989999999998, 191.5356, 186.8116, 113.15325, 112.8819, 111.44314999999999, 109.81939999999999, 110.90305, 101.0045, 111.75455, 117.26724999999999, 114.99479999999998, 114.1227, 116.06159999999998, 114.37679999999999, 111.06609999999999, 110.37885, 111.749, 109.4853, 111.9372, 106.35989999999998, 118.75104999999999, 112.8116, 134.00889999999998, 133.8288, 132.99314999999999, 131.05485, 131.10385, 121.48034999999999, 133.84235, 136.19635, 137.42235, 134.3727, 133.23495, 136.2586, 132.40955, 130.02575, 133.9922, 131.63164999999998, 130.3872, 131.61444999999998, 139.52655, 133.04309999999998, 138.85055, 137.62214999999998, 137.43765, 137.49874999999997, 141.0528, 130.6774, 138.2807, 143.35984999999997, 141.46544999999998, 136.41279999999998, 140.30409999999998, 136.4185, 138.5161, 141.28599999999997, 136.22175, 135.40394999999998, 131.22065, 133.98799999999997, 142.75859999999997, 140.86159999999998, 179.46655, 176.37635, 181.30239999999998, 176.84685000000002, 177.7138, 163.85955, 176.2473, 185.3529, 183.678, 177.79774999999998, 180.2343, 175.57945, 176.968, 181.57075, 177.76254999999998, 176.1347, 170.32495, 180.2997, 184.54445, 175.8534, 63.23245, 58.4291, 56.918800000000005, 55.3298, 62.06345, 46.06830000000001, 56.52810000000001, 67.46545, 61.443599999999996, 56.040099999999995, 61.16295000000001, 60.9792, 62.6661, 61.61435, 60.113400000000006, 58.42785, 51.057, 61.58345, 67.70410000000001, 60.9329, 130.90055, 127.08455, 123.44045, 126.86004999999999, 130.9974, 116.52210000000001, 127.70849999999999, 133.8194, 132.99985, 126.82239999999999, 129.2731, 128.3419, 129.7161, 127.99484999999999, 125.44345, 127.07579999999999, 120.90355, 128.87664999999998, 134.3041, 128.70395, 157.82055, 151.02775, 150.207, 156.60435, 157.50660000000002, 142.0996, 151.6572, 161.98565000000002, 158.79735000000002, 153.51595, 156.98675000000003, 152.9061, 155.01610000000002, 154.40525000000002, 153.74900000000002, 152.77245000000002, 148.52425, 158.04005, 161.53055, 153.92305000000002, 110.7425, 104.98334999999999, 105.87689999999999, 108.20615, 110.6019, 95.70715, 105.03765, 113.4879, 113.7358, 104.545, 109.60105, 106.10455, 112.3446, 109.1626, 106.321, 106.7317, 99.29385, 109.688, 113.9541, 110.78875000000001, 90.51014999999998, 84.54244999999999, 85.71919999999999, 85.1259, 91.12064999999998, 74.13544999999999, 84.2534, 95.517, 92.78824999999999, 85.97505, 88.5842, 84.72949999999999, 90.86609999999999, 88.14954999999999, 87.6387, 84.3236, 79.40010000000001, 89.7473, 95.4541, 86.44319999999999, 96.9084, 93.63189999999999, 94.79314999999998, 94.46569999999998, 93.7332, 82.72155, 93.5326, 101.517, 98.35709999999999, 94.8727, 96.13569999999999, 97.7971, 95.06609999999999, 89.87750000000001, 95.09899999999999, 93.24045, 91.38719999999999, 93.92059999999998, 102.70414999999998, 93.5616, 147.26599999999996, 150.28725, 150.49695, 153.54704999999998, 154.62625, 141.06475, 147.52014999999997, 156.567, 156.33759999999998, 150.46484999999998, 154.5541, 151.49714999999998, 149.46609999999998, 148.9756, 150.14899999999997, 149.17419999999998, 146.93134999999998, 149.11554999999998, 156.24325, 153.8116, 72.94605, 73.29135, 71.39314999999999, 73.9025, 73.55285, 58.38400000000001, 70.8013, 78.767, 73.38025, 71.4456, 73.5041, 69.92755, 73.0161, 73.86125, 72.8204, 64.91310000000001, 66.8907, 68.9643, 78.7041, 73.41159999999999, 194.75285, 197.87644999999998, 198.49315, 196.25889999999998, 194.9837, 189.19105, 194.37914999999998, 203.267, 200.41484999999997, 198.83234999999996, 200.63619999999997, 199.51009999999997, 196.8161, 192.49025, 196.78794999999997, 194.98489999999998, 191.8372, 188.25374999999997, 203.80109999999996, 196.6116, 34.8727, 27.9833, 27.5911, 28.40325, 37.365950000000005, 22.5478, 32.54975, 38.167, 35.811949999999996, 29.32085, 34.84995, 31.8264, 35.0161, 28.7455, 33.56725, 33.91255, 24.774549999999998, 34.54525, 38.1041, 29.085900000000002, 40.27415, 39.62535, 37.2938, 39.795, 41.19915, 25.6829, 37.812999999999995, 43.717, 43.6874, 38.6356, 37.49415, 36.27565, 40.482099999999996, 39.0328, 37.50775, 37.13285, 28.520899999999997, 37.39055, 43.6541, 39.6827, 143.54225000000002, 138.08195000000003, 138.64315000000002, 140.73995, 142.26455, 131.79905000000002, 140.93785000000003, 145.6483, 143.50035000000003, 140.67270000000002, 141.89445000000003, 142.2971, 140.2161, 136.79325, 140.899, 136.3721, 135.8372, 141.98205000000002, 146.00350000000003, 140.34155, 119.3606, 117.50740000000002, 119.94025000000002, 120.33435, 119.26505000000002, 109.30395, 115.507, 126.14550000000001, 124.0006, 120.94430000000001, 121.72195000000002, 119.10055000000001, 121.84904999999999, 119.52535, 120.14275, 115.6106, 116.1705, 114.79165, 123.83225000000002, 120.94800000000001, 87.84309999999999, 85.88264999999998, 86.10215, 83.27469999999998, 87.54699999999998, 68.44115000000001, 84.04684999999999, 91.817, 87.45644999999999, 85.8783, 87.10364999999999, 82.16539999999999, 86.06609999999999, 84.88865, 84.14675, 83.35604999999998, 79.00855, 84.77449999999999, 91.7541, 88.41159999999999, 158.04905, 157.2819, 157.79315, 155.6551, 154.87385, 146.4381, 155.72535, 162.31725, 159.8684, 158.07315, 160.0324, 158.8471, 155.99955, 157.08644999999999, 156.149, 154.3811, 153.7372, 155.04829999999998, 162.8569, 155.9116, 228.09185000000002, 228.7819, 227.34314999999998, 225.94875, 226.2438, 219.86454999999998, 227.57315, 233.28445, 231.0958, 225.66019999999997, 231.25054999999998, 228.87449999999998, 227.6161, 228.83684999999997, 228.949, 224.91725, 224.23015, 228.09500000000003, 235.67104999999998, 225.37900000000002, 163.51950000000002, 162.8319, 163.34315, 161.12555, 159.91325, 154.0577, 161.1958, 168.117, 165.36105, 163.699, 165.50285, 164.34529999999998, 161.6661, 162.5569, 161.699, 159.85155, 159.2872, 161.6788, 167.84635, 161.4616, 51.57320000000001, 50.08190000000001, 50.59315000000001, 51.88770000000001, 50.678450000000005, 39.1487, 50.14540000000001, 56.65960000000001, 53.90125000000001, 51.97270000000001, 53.6144, 51.64710000000001, 49.566100000000006, 53.574900000000014, 50.24900000000001, 51.82905000000001, 47.34215000000002, 52.79910000000001, 56.33770000000001, 53.911600000000014, 49.41055, 43.974500000000006, 42.89235000000001, 43.03785, 49.7232, 29.6485, 42.619800000000005, 52.56555, 50.6582, 45.68215, 46.313, 45.30785, 49.01465, 44.74594999999999, 44.3427, 45.901650000000004, 36.80445, 45.6186, 49.9822, 47.566100000000006]</t>
+  </si>
+  <si>
+    <t>[89.89869999999999, 116.68395000000001, 85.41345, 111.24194999999999, 81.7188, 130.38975000000002, 85.77785, 67.60265000000001, 73.83635, 100.99985000000001, 105.266, 108.39705000000001, 103.36665, 98.2838, 121.96645, 70.3, 78.07735, 104.68979999999999, 93.05495, 78.534, 67.70570000000001, 85.87945, 70.53105, 95.07124999999999, 64.83005, 108.8561, 67.97034999999998, 47.619249999999994, 67.21820000000001, 77.00265, 84.39655, 89.7277, 84.41054999999999, 74.78384999999999, 102.5282, 60.531349999999996, 53.738850000000006, 86.42349999999999, 74.92555, 64.9514, 112.90490000000001, 134.8513, 106.61975, 143.39884999999998, 107.49195, 147.90324999999999, 123.84019999999998, 98.40895, 92.9711, 129.72045, 140.1595, 138.13474999999997, 136.57625, 127.82539999999999, 142.79725000000002, 100.74439999999998, 109.46714999999999, 136.9982, 106.7798, 103.5608, 98.72784999999999, 125.76375, 100.82055, 118.585, 93.00109999999998, 143.20364999999998, 98.68100000000001, 76.389, 83.88735, 106.9844, 120.55089999999998, 121.48995, 119.73545000000001, 115.1148, 130.8461, 81.32075, 91.46230000000001, 121.05050000000001, 92.4861, 82.1287, 76.34084999999999, 105.13990000000001, 78.0651, 104.75264999999997, 72.06559999999999, 121.7509, 78.10735, 58.28425000000001, 69.60230000000001, 91.77005000000001, 97.92964999999998, 101.33290000000001, 99.65625000000001, 95.3304, 109.59734999999998, 67.06845, 69.8861, 100.8954, 81.98105, 67.59609999999999, 53.862350000000006, 81.93395, 55.96639999999999, 76.13895, 55.024699999999996, 92.2468, 60.540299999999995, 36.63705, 58.55010000000001, 70.9748, 70.112, 80.22529999999999, 59.72595, 62.88145, 80.21249999999999, 50.17839999999999, 45.76299999999999, 80.63885, 60.865199999999994, 53.6811, 124.99285, 137.90725000000003, 111.57855, 146.2563, 116.62379999999999, 152.41895, 129.037, 112.56910000000002, 100.0858, 130.5034, 142.85944999999998, 147.28635000000003, 131.08515, 135.39175, 143.87695, 112.1292, 118.316, 137.15995, 109.65535, 109.2016, 7.685599999999997, 20.435950000000002, 2.8732999999999995, 12.957599999999998, 7.185899999999997, 12.4576, 12.842799999999997, 4.551249999999998, 14.2794, 15.680699999999998, 25.60935, 13.248749999999998, 15.609449999999999, 14.95425, 21.42805, 8.364899999999999, 5.724899999999999, 12.15495, 4.281449999999998, 21.1754, 67.70939999999999, 91.51605, 66.63299999999998, 95.7134, 65.565, 105.3715, 67.42295, 52.012150000000005, 62.30254999999999, 82.54889999999999, 82.18885000000002, 91.52055000000001, 76.10755, 71.63719999999999, 92.97964999999999, 61.72474999999999, 57.82214999999999, 86.91959999999999, 74.14695, 62.00855, 151.56965, 160.70565, 144.07104999999996, 171.6617, 151.82435, 171.87179999999998, 152.91625, 151.8247, 137.38515, 153.65074999999996, 173.83055, 165.06855000000002, 168.75515, 183.21355, 153.27229999999997, 135.24385, 138.4737, 159.55395, 127.9097, 133.3186, 15.920449999999997, 35.45204999999999, 22.6751, 31.05215, 22.4503, 37.5114, 23.929549999999992, 15.7728, 31.59675000000001, 30.0701, 42.081799999999994, 35.495349999999995, 33.05375, 27.81165, 32.2826, 26.12985, 15.21405, 33.538, 18.9344, 32.30035, 117.12759999999999, 127.43735, 111.60469999999998, 141.23775, 104.23995, 149.0461, 116.84945, 100.85674999999999, 91.28779999999998, 117.40859999999999, 139.08475, 135.9615, 125.23215, 123.28805000000001, 129.27644999999998, 101.53825, 110.31335, 134.5781, 106.67415000000001, 102.91529999999999, 90.6916, 123.645, 92.2747, 109.77059999999999, 84.45410000000001, 129.95765, 94.9328, 70.92695, 78.13565, 105.61355, 113.28485, 126.5102, 106.44924999999999, 105.383, 129.9328, 82.03945, 86.03535, 112.5436, 93.66250000000001, 90.68635, 165.73495, 172.80425000000002, 145.46254999999996, 172.01445, 145.23714999999999, 171.38035, 156.86315, 168.5912, 145.36585, 161.64485000000002, 176.9784, 170.4579, 174.51790000000003, 184.11435, 170.90495, 126.34255, 150.9792, 176.43075, 134.6717, 147.90744999999998, 19.871750000000002, 47.61365, 29.031499999999998, 39.5083, 31.1328, 45.590900000000005, 33.96359999999999, 22.19125, 42.187149999999995, 40.25659999999999, 51.57425, 49.88335000000001, 39.6653, 37.6049, 41.636250000000004, 30.350699999999996, 20.630199999999995, 43.357299999999995, 29.16435, 47.14014999999999, 0.733349999999996, 24.80645, 2.393849999999999, 14.347199999999997, 6.1057500000000005, 14.886899999999999, 14.772149999999996, 2.0205500000000005, 22.30585, 16.2857, 30.62865, 19.86345, 17.004400000000004, 12.731549999999997, 23.173549999999995, 10.918249999999997, 3.7947000000000006, 15.995599999999998, 4.285399999999997, 21.3287, 63.743449999999996, 87.74605000000001, 64.9762, 87.95895, 65.3895, 104.291, 59.29309999999999, 47.12859999999999, 64.06055, 76.4549, 83.89025, 93.15465000000002, 70.67565, 67.4431, 93.47975000000001, 58.66609999999999, 58.0886, 83.41415000000002, 69.8929, 62.841350000000006, 11.2356, 36.801500000000004, 20.368199999999998, 28.0336, 18.073949999999996, 32.9544, 17.40865, 15.060399999999998, 21.66745, 27.3232, 31.340999999999998, 31.258200000000002, 28.62195, 23.769199999999998, 27.271949999999993, 23.6432, 14.312499999999998, 30.642199999999995, 12.7115, 31.08945, 93.1042, 118.43785, 87.84505, 108.81395, 88.59435, 132.29864999999998, 94.56465000000001, 81.9145, 82.2173, 111.63814999999998, 108.45714999999998, 119.76894999999999, 110.99974999999999, 116.69135, 124.55919999999998, 81.60785, 90.414, 119.59155, 83.69365000000002, 81.83024999999999, 248.72019999999998, 309.0602, 258.4778, 269.5104, 242.22565, 281.64065, 283.044, 253.27859999999998, 238.98059999999998, 263.07534999999996, 296.5084, 247.11984999999999, 284.6779, 277.89725, 274.6423, 212.55935, 262.04510000000005, 273.0395, 239.3152, 260.21770000000004, 20.373549999999998, 46.2318, 31.965050000000005, 43.20290000000001, 31.642300000000002, 52.884550000000004, 39.291799999999995, 23.5237, 36.92145, 37.011599999999994, 57.36965, 49.85849999999999, 42.661699999999996, 35.889849999999996, 45.75735, 32.5835, 21.985400000000002, 47.0827, 27.359049999999996, 45.403200000000005, 100.3662, 129.14124999999999, 97.0045, 124.93059999999998, 89.34635, 140.213, 106.91035, 78.99579999999999, 84.57395000000001, 113.61114999999998, 121.46175000000001, 120.64395000000002, 118.78439999999998, 109.58545, 128.13495000000003, 86.30895, 92.2289, 122.0496, 101.66914999999999, 86.8524, 70.49685000000001, 82.38514999999998, 63.13640000000001, 94.8681, 61.75020000000001, 109.67129999999999, 66.68195, 49.7785, 60.221399999999996, 82.6601, 83.52325, 88.18595, 76.72579999999999, 77.89800000000001, 98.51065, 53.21059999999999, 52.09245, 84.30855, 72.57995, 63.1353, 151.21899999999997, 151.98989999999998, 119.32069999999999, 156.07299999999998, 138.9852, 172.36389999999997, 140.8979, 134.07204999999996, 118.98299999999999, 146.40524999999997, 153.61905, 150.31535, 150.90230000000003, 156.83275, 157.8484, 124.3947, 131.84605, 148.22065, 126.75005000000002, 126.70205, 28.372849999999996, 55.29615, 36.48519999999999, 55.64345, 37.34015, 61.2556, 44.843999999999994, 22.444549999999996, 42.28005, 48.69255, 47.92889999999999, 57.35399999999999, 37.669500000000006, 38.51709999999999, 55.9124, 36.46625, 28.971449999999997, 57.520149999999994, 35.50014999999999, 42.43655, 19.196250000000003, 48.89075, 32.555049999999994, 43.33989999999999, 29.17265, 52.737049999999996, 36.567750000000004, 26.361249999999995, 46.27809999999999, 40.7627, 48.08644999999999, 50.98585, 44.5588, 35.32545, 45.274699999999996, 35.402, 19.464099999999995, 46.542950000000005, 26.647100000000002, 43.21685, 112.50809999999998, 138.73445, 110.4854, 125.97565000000002, 101.27100000000002, 147.36705, 109.68475000000001, 96.62635, 101.98584999999999, 124.01435000000001, 136.33814999999998, 134.32435, 127.7467, 125.82479999999998, 143.24445, 93.8223, 112.67145, 126.1754, 100.93165, 98.24820000000001, 54.194299999999984, 84.13879999999999, 50.7786, 75.20404999999998, 59.05315, 90.38905000000001, 60.620450000000005, 42.38110000000001, 63.151399999999995, 73.8108, 74.57635, 82.01735, 67.25925000000001, 65.91139999999999, 87.28034999999998, 55.527550000000005, 47.9073, 81.39789999999999, 63.0775, 58.846149999999994, 67.9572, 86.75935000000001, 59.40995, 89.38735000000001, 66.5634, 99.17589999999998, 72.3244, 45.678, 61.021350000000005, 83.54005000000001, 82.31465, 85.7713, 77.9451, 72.32735, 89.84755000000001, 61.26795, 60.6635, 91.62915000000001, 79.4479, 66.77815000000001, 70.0265, 93.45339999999999, 67.9587, 92.85825, 60.840599999999995, 110.13065, 72.2911, 46.103649999999995, 58.39915, 75.4523, 82.18730000000001, 91.59920000000001, 79.15315000000001, 73.40335, 86.48615, 61.39605000000001, 51.805550000000004, 82.61725, 66.4764, 62.087250000000004, 101.61600000000001, 124.13605000000001, 93.91905, 117.81445, 93.10580000000002, 139.73695, 99.76755, 81.66669999999999, 84.88380000000001, 108.75365000000001, 122.16175000000001, 118.9974, 113.6339, 114.07785000000001, 131.9049, 83.28164999999998, 90.41765000000001, 123.18365, 94.00310000000002, 84.45455, 11.632449999999997, 35.8709, 14.136, 28.590749999999996, 15.9469, 34.47815, 25.151699999999998, 11.1331, 24.90745, 26.692149999999998, 36.84845, 27.795249999999996, 31.76735, 26.461050000000004, 32.6455, 21.2757, 8.024649999999998, 27.144849999999998, 10.067249999999998, 30.791349999999998, 66.24325, 76.66299999999998, 60.12565, 90.80849999999998, 60.1559, 99.86534999999999, 66.88509999999998, 43.497099999999996, 65.3547, 81.62539999999998, 81.467, 88.93355000000001, 69.755, 70.81235, 100.5737, 59.8762, 61.464600000000004, 86.94059999999999, 72.22715, 64.65645, 76.04129999999999, 104.85364999999999, 77.65275, 96.74629999999999, 71.5071, 129.76675, 79.3389, 61.03425000000001, 65.2497, 81.37105000000001, 94.60745000000001, 102.8148, 97.89525, 93.75370000000001, 110.62325, 69.39909999999999, 68.46535, 91.81549999999999, 80.01650000000001, 62.04780000000001, 44.46595, 80.96269999999998, 61.05765, 67.85660000000001, 57.51425, 84.7649, 61.1196, 39.8959, 57.17575000000001, 69.4542, 67.58545, 74.3243, 61.3469, 66.13104999999999, 76.0381, 53.67835, 47.399499999999996, 77.6084, 57.60025000000001, 56.093700000000005, 25.91545, 58.8531, 40.62499999999999, 53.145649999999996, 33.392199999999995, 60.3286, 41.56225, 30.376349999999995, 45.7465, 44.6834, 55.02364999999999, 58.01225, 42.2503, 45.014100000000006, 51.3178, 39.963300000000004, 25.640649999999994, 58.71575, 32.32495, 48.88835, 41.24949999999999, 69.9454, 42.7725, 55.37570000000001, 46.785700000000006, 70.01530000000001, 56.36410000000001, 29.8473, 61.409549999999996, 63.1009, 65.44035, 68.63885, 56.90135000000001, 54.537800000000004, 62.60425000000001, 49.734849999999994, 42.657000000000004, 70.07485000000001, 49.752050000000004, 55.913650000000004, 79.32135, 104.80285, 76.78925, 102.76395, 77.69614999999999, 123.01070000000003, 82.0739, 61.72650000000001, 69.8446, 94.2065, 104.44600000000001, 96.8544, 97.21155, 98.31075, 111.05514999999998, 66.7732, 66.47149999999999, 92.28345, 85.78299999999999, 70.9389, 27.968449999999994, 46.72525000000001, 33.33745, 42.62865, 36.25854999999999, 52.06375, 41.07885, 21.99445, 44.97065, 44.09355, 59.38705, 48.968799999999995, 42.75395, 40.2857, 47.08330000000001, 34.703250000000004, 20.60275, 48.18265, 33.06125, 48.285450000000004, 115.7064, 133.01975000000002, 104.86435000000002, 124.89670000000001, 103.66695, 142.62270000000004, 119.92454999999998, 106.73499999999999, 101.4442, 130.55445, 139.65355, 129.81585, 133.0313, 136.04289999999997, 137.88435, 98.96985000000001, 109.5822, 129.46685, 101.45054999999999, 98.73504999999999, 5.374849999999999, 16.15995, 5.9434999999999985, 9.16815, 7.18145, 8.120199999999999, 16.46115, 5.50655, 14.58385, 10.981, 23.97955, 10.1641, 8.903099999999998, 8.093049999999998, 14.177849999999998, 8.1128, 8.14205, 16.84565, 7.895999999999999, 18.5929, 14.662099999999999, 19.181600000000003, 6.373099999999999, 11.6062, 13.69665, 12.225099999999998, 21.189850000000003, 8.889849999999997, 22.69425, 13.04725, 29.7519, 21.41145, 12.810299999999996, 12.68625, 15.822099999999997, 15.346750000000002, 6.932549999999999, 16.270599999999998, 6.63195, 26.10425, 71.93745, 93.4214, 75.41225, 99.45435, 71.7945, 114.6264, 70.49849999999999, 50.18130000000001, 62.74209999999998, 87.24419999999998, 82.80465, 95.72964999999999, 84.30935000000001, 75.81475, 100.28209999999999, 58.99864999999999, 59.373349999999995, 89.5575, 79.45374999999999, 56.286449999999995, 60.01030000000001, 84.2518, 61.482600000000005, 81.42995, 57.8333, 92.96405, 67.5786, 46.07485, 77.13290000000002, 82.73930000000001, 78.35494999999999, 85.2329, 74.7348, 68.7653, 88.31775, 57.922149999999995, 53.786150000000006, 81.5338, 67.47725000000001, 64.14040000000001, 30.02625, 52.35315, 43.760349999999995, 50.26725, 32.25535, 58.21595, 34.86084999999999, 26.493650000000002, 40.40625, 43.55155, 46.658750000000005, 59.2087, 46.9737, 40.88074999999999, 50.3365, 37.764250000000004, 22.639899999999997, 52.4751, 34.90859999999999, 48.179249999999996, 94.92559999999999, 108.2712, 85.10614999999999, 106.80120000000001, 82.33555, 130.0709, 87.54560000000001, 76.88785, 78.67635, 103.82890000000002, 105.37039999999999, 111.42195, 101.4973, 102.34285, 121.18875, 75.1913, 80.70605, 112.41235, 92.4379, 78.8253, 144.33195, 142.3939, 125.51115, 159.5613, 136.64100000000002, 166.7548, 134.5838, 131.18795, 119.9528, 139.8573, 150.60065, 148.4526, 147.45944999999998, 159.4661, 154.01434999999998, 122.25169999999999, 133.71005, 148.53555, 121.53735000000002, 119.87184999999998, 87.64274999999998, 111.42929999999998, 84.53194999999998, 111.72455000000001, 78.1773, 128.38905, 87.85055, 65.2302, 74.7094, 99.79375, 107.17929999999998, 113.36314999999999, 99.30435, 97.07254999999999, 126.80494999999999, 69.575, 80.67399999999999, 108.59264999999999, 86.63725, 78.69819999999999, 9.536449999999999, 35.606, 12.19135, 21.59635, 11.3714, 26.5937, 24.67485, 11.501999999999999, 29.925749999999997, 24.12325, 38.513450000000006, 27.252950000000002, 25.0663, 24.32895, 25.108300000000003, 18.5707, 13.088649999999998, 26.189849999999996, 12.7008, 33.6995, 5.7791500000000005, 24.91835, 6.294149999999998, 18.722749999999998, 5.412099999999995, 18.0174, 17.841899999999992, 5.823349999999999, 26.631149999999998, 18.771250000000002, 30.728650000000002, 19.781399999999998, 22.9529, 12.071999999999997, 20.899749999999997, 13.337999999999997, 9.6695, 20.697399999999995, 6.019449999999998, 19.87035]</t>
+  </si>
+  <si>
+    <t>[73.37254999999999, 67.4955, 69.88179999999998, 54.62650000000001, 75.14784999999999, 66.3109, 56.38069999999999, 65.64325000000001, 72.86015, 76.1241, 76.26004999999999, 66.2154, 63.97789999999999, 73.35235, 83.15105, 63.674499999999995, 64.99465000000001, 75.0668, 55.45664999999998, 54.56205, 57.85725, 52.155150000000006, 51.17335, 45.412600000000005, 56.6754, 52.88969999999999, 52.45395, 55.270649999999996, 60.635250000000006, 57.57594999999999, 56.0583, 48.49535, 52.0525, 56.967200000000005, 61.472100000000005, 44.29955, 50.477149999999995, 57.69855, 41.79815, 49.21679999999999, 101.56105, 91.5058, 88.9666, 81.50455, 102.50415, 80.6553, 87.02899999999998, 90.9053, 96.1224, 92.58395, 105.87259999999999, 93.75305, 85.1456, 103.03574999999998, 108.42424999999997, 84.26119999999999, 89.18925000000002, 88.10415, 86.21619999999999, 74.08085, 84.9099, 74.82265, 75.9471, 72.12984999999999, 86.3896, 73.03350000000002, 72.27875, 82.91155, 86.22045000000001, 80.22420000000001, 87.03679999999999, 81.66435, 73.96170000000001, 88.91810000000001, 88.22075, 72.34615, 76.7147, 79.28575, 69.17285000000001, 63.804300000000005, 70.2472, 56.03189999999999, 54.47335, 49.47295, 64.44154999999999, 55.37435, 54.00774999999999, 58.68909999999999, 65.994, 68.83305, 66.35294999999999, 58.371199999999995, 60.92739999999999, 70.18764999999999, 76.46365, 55.45455, 62.49905, 65.6915, 44.456849999999996, 43.72054999999999, 52.34904999999999, 40.415450000000014, 45.260850000000005, 37.45974999999999, 54.08425, 41.702600000000004, 40.1229, 51.2863, 48.70419999999999, 46.81764999999999, 45.734300000000005, 43.901149999999994, 42.86175, 57.0661, 55.82525, 45.7658, 43.5377, 48.09025, 34.118849999999995, 33.4161, 111.28815, 91.49659999999999, 81.1832, 82.86095, 102.02749999999999, 83.0189, 88.24699999999999, 97.36515, 94.2073, 92.6233, 95.083, 103.2654, 96.8967, 108.43515, 107.78469999999999, 88.10205, 94.5903, 88.621, 89.15665000000001, 81.54355, 8.172449999999998, 4.6007500000000014, 4.635249999999999, 3.2791999999999977, 9.1201, 12.745899999999997, 8.868, 12.919699999999995, -3.1429000000000014, 9.218099999999998, 6.455349999999999, 9.551499999999999, 2.1729000000000003, 8.836749999999999, 10.089449999999996, 4.116199999999999, 5.486199999999996, -0.7134500000000012, -5.537000000000002, -0.44374999999999987, 56.9975, 47.97455000000001, 56.08465, 44.86595, 54.300399999999996, 52.901849999999996, 44.1583, 58.41649999999999, 61.73994999999999, 60.69845, 61.374300000000005, 49.89495, 51.6105, 58.313599999999994, 67.26655000000001, 52.365950000000005, 51.4821, 57.86295000000001, 44.9155, 44.987750000000005, 129.9507, 112.0885, 103.21255000000001, 104.98070000000001, 125.04175000000001, 105.7483, 107.71619999999999, 114.06224999999999, 115.00155000000001, 113.56495, 122.93534999999999, 117.48089999999999, 119.3709, 128.13165, 127.6238, 115.39514999999999, 126.56040000000002, 113.05954999999999, 113.30374999999998, 106.86585, 13.320399999999996, 13.413099999999998, 18.29085, 10.611700000000003, 18.06165, 21.7348, 17.61995, 19.7352, 12.528299999999998, 22.203649999999996, 13.387599999999999, 21.189899999999998, 12.264949999999995, 13.846099999999995, 22.142650000000003, 12.701799999999999, 15.284050000000004, 13.128549999999999, 2.1072499999999996, 16.607099999999996, 102.11649999999999, 86.1979, 79.96374999999999, 71.8186, 96.25319999999999, 80.515, 84.39375, 93.0406, 96.30715, 88.51585, 96.54854999999999, 95.43190000000001, 82.48880000000001, 91.88125000000001, 100.97715000000001, 87.96244999999999, 89.43690000000001, 85.91645, 88.01149999999998, 71.03075, 83.1179, 77.7544, 64.85725, 62.9662, 81.4492, 68.66040000000001, 67.37475, 74.6334, 78.07610000000001, 71.6707, 79.969, 73.49645000000001, 68.97899999999998, 79.78735, 89.68099999999998, 68.13210000000001, 71.59020000000001, 74.27255, 57.04259999999999, 62.8762, 142.25905, 107.26395000000001, 115.0993, 108.4083, 129.34720000000002, 113.10019999999999, 119.05005, 114.86005000000002, 120.57235000000001, 118.15654999999998, 132.56189999999998, 118.35675, 118.06400000000001, 138.35424999999998, 140.4846, 122.32674999999999, 128.62875, 123.385, 110.36639999999998, 109.87575, 24.184199999999997, 22.679900000000004, 26.016149999999996, 19.111500000000003, 24.65854999999999, 27.103399999999997, 25.127, 28.54385, 17.217449999999996, 33.701899999999995, 25.8617, 25.25725, 18.937499999999996, 28.901799999999998, 31.6101, 21.66539999999999, 21.01495, 20.290599999999998, 11.939149999999998, 18.7431, 9.564799999999996, 4.364499999999997, 6.743599999999999, 5.704349999999998, 11.216399999999997, 9.685050000000002, 13.162149999999999, 12.937549999999998, -4.671800000000005, 13.870249999999999, 6.8162, 9.629949999999997, 2.5439500000000006, 9.09925, 16.811149999999998, 6.37505, 7.970149999999998, 3.1148499999999997, -3.3386000000000013, 1.0139999999999987, 58.226749999999996, 43.80009999999999, 57.314750000000004, 44.11999999999999, 59.97609999999999, 51.782999999999994, 47.7552, 55.33004999999999, 56.52395, 57.450799999999994, 56.46885000000001, 49.04199999999999, 48.319, 65.41815, 60.911449999999995, 53.10945, 45.695249999999994, 50.076899999999995, 40.52719999999999, 39.8215, 17.333, 11.5016, 15.14595, 8.730149999999998, 20.81105, 17.466099999999997, 10.775749999999999, 17.592099999999995, 8.255349999999996, 18.917999999999996, 14.075249999999999, 14.15935, 8.448450000000001, 14.512149999999998, 21.851149999999997, 9.86985, 12.551499999999999, 5.760499999999995, 0.5905999999999976, 8.690999999999999, 84.21505000000002, 66.2272, 66.62409999999998, 65.11449999999999, 77.6082, 65.44905, 68.45685, 73.92595, 85.6691, 76.36315, 79.4259, 75.2356, 68.0094, 80.10364999999999, 89.36605000000002, 70.18275, 75.53785, 76.38674999999999, 61.3288, 55.03255, 203.48340000000002, 171.19670000000002, 196.34994999999998, 193.18099999999998, 211.21625000000003, 190.54404999999997, 195.04964999999999, 176.2024, 213.3357, 196.18290000000002, 206.9326, 203.39189999999996, 192.21285, 197.8616, 205.83145000000002, 221.96979999999996, 191.77910000000003, 198.12825, 178.527, 183.3689, 19.907500000000002, 21.500599999999995, 23.319699999999997, 21.592699999999997, 25.7206, 30.57655, 26.72785, 27.79605, 17.104599999999998, 34.53935, 24.2468, 31.6029, 17.66545, 30.344950000000004, 34.6547, 24.64095, 23.177249999999994, 19.786900000000003, 8.836399999999998, 16.823449999999998, 81.31985, 70.14759999999998, 74.29570000000001, 67.89499999999998, 81.03524999999999, 73.47095, 69.93329999999999, 82.08245, 87.0899, 83.5581, 83.8039, 78.04655, 72.20634999999999, 84.71085000000001, 89.94014999999999, 69.5078, 76.51644999999999, 82.51854999999999, 66.5183, 60.9712, 60.523700000000005, 45.926050000000004, 48.48835, 43.90705, 62.9927, 49.20405, 44.823699999999995, 57.14485, 55.15725, 60.654399999999995, 56.0246, 53.4106, 50.67549999999999, 62.8949, 57.419900000000005, 45.86765, 47.84125, 56.2059, 42.0334, 40.7628, 128.77815, 97.52145, 101.05125000000001, 94.69404999999999, 115.49305, 102.9668, 104.05999999999999, 107.95675, 109.26260000000002, 106.39855, 117.78589999999997, 109.47480000000002, 106.76165, 121.38869999999999, 129.9934, 106.6142, 112.42325000000001, 114.12075000000002, 98.33295, 92.9826, 30.8581, 24.689449999999994, 31.76005, 28.048450000000003, 40.3536, 32.4256, 24.92635, 37.88275, 23.818049999999996, 37.78555, 27.821550000000002, 32.958, 20.412, 37.68195, 39.60225, 23.4379, 27.173799999999996, 27.986549999999994, 17.10465, 19.053749999999994, 27.205899999999993, 22.836, 24.883349999999997, 19.887900000000002, 26.429249999999996, 24.930999999999997, 23.77895, 28.380199999999995, 21.406150000000004, 31.067449999999997, 25.672349999999998, 24.22965, 19.007249999999996, 27.558999999999997, 36.684799999999996, 25.94915, 20.0564, 20.103149999999996, 11.95515, 13.599, 100.47800000000001, 85.97155000000001, 85.58675, 73.17184999999999, 93.0547, 84.20044999999999, 83.19965, 87.55969999999999, 95.41645, 92.68820000000001, 102.25025000000001, 92.1358, 85.73215, 99.3706, 102.32649999999998, 83.51374999999999, 89.52329999999999, 100.79825000000001, 75.7046, 69.98415, 53.7443, 41.88560000000002, 47.03675, 40.12585, 55.80219999999999, 49.134550000000004, 46.40705, 48.40425, 48.7884, 55.84479999999999, 49.83944999999999, 41.83115, 38.1344, 58.6032, 62.87254999999999, 43.44765, 42.15445000000001, 48.551950000000005, 30.311349999999997, 35.12715, 64.78030000000001, 52.95445000000001, 49.401900000000005, 42.73224999999999, 67.0051, 52.60135, 50.785250000000005, 59.0698, 58.0177, 62.93575, 57.962500000000006, 50.029999999999994, 52.29315, 61.905899999999995, 67.48030000000001, 50.5437, 50.4487, 62.0713, 43.5392, 43.598150000000004, 56.492149999999995, 48.3734, 50.61385, 42.293350000000004, 64.22290000000001, 49.4425, 49.2546, 60.096650000000004, 59.429649999999995, 60.31885, 55.2236, 50.61595, 49.572649999999996, 63.516149999999996, 63.811550000000004, 49.17755, 46.0379, 51.3777, 37.82515, 38.863249999999994, 89.25765, 70.42985000000002, 76.41195, 69.32770000000001, 86.95660000000001, 72.2855, 71.87365, 77.62475, 83.87235, 82.64070000000001, 88.0003, 75.51075, 80.3815, 85.8527, 90.79825, 67.50280000000001, 80.1285, 75.44195, 63.439099999999996, 64.554, 14.321199999999997, 10.902849999999999, 10.53365, 10.6939, 18.464349999999996, 15.796950000000002, 18.724000000000004, 17.127049999999997, 5.511150000000002, 17.49995, 13.609749999999998, 13.325649999999996, 12.75245, 18.01835, 18.22215, 8.777649999999998, 16.115899999999996, 8.949049999999998, 3.002999999999998, 9.744099999999998, 60.7319, 48.53730000000001, 52.25405, 43.616, 61.88929999999999, 51.04819999999999, 48.744499999999995, 55.28040000000001, 62.06875000000001, 57.73004999999999, 58.50585, 46.3785, 55.6053, 67.1674, 63.5224, 54.96554999999999, 49.42595, 55.89069999999999, 43.9633, 46.3502, 64.1037, 53.57430000000001, 55.8819, 43.056999999999995, 62.81044999999999, 54.431400000000004, 57.819300000000005, 65.42089999999999, 64.7846, 61.648849999999996, 62.494800000000005, 52.97545, 55.560900000000004, 69.53085, 67.43034999999999, 50.54344999999999, 56.03955, 57.517399999999995, 40.809200000000004, 43.77185, 50.35885000000001, 42.83045, 49.9538, 43.498000000000005, 56.71469999999999, 39.9571, 41.23429999999999, 51.147349999999996, 50.2499, 55.77310000000001, 47.902049999999996, 46.828900000000004, 43.294, 60.124950000000005, 50.07775, 42.014700000000005, 42.1239, 48.32155, 31.627000000000002, 36.6024, 34.791, 26.313100000000002, 26.0148, 24.3567, 35.27255, 28.991549999999993, 24.7319, 31.04765, 27.8702, 34.271899999999995, 33.84715, 32.45735, 24.1083, 40.436749999999996, 38.957, 28.40135, 26.0041, 27.415099999999995, 18.83775, 22.3509, 45.161350000000006, 36.91640000000001, 38.04215, 31.524250000000002, 49.2408, 39.547900000000006, 35.24345000000001, 46.13100000000001, 39.8307, 51.567, 40.613150000000005, 39.79489999999999, 32.891400000000004, 46.3638, 52.33965000000001, 37.94614999999999, 35.840300000000006, 44.22385, 28.22845, 25.994799999999998, 67.72439999999999, 60.255700000000004, 65.41900000000001, 54.27735, 68.32325, 61.795849999999994, 53.70935000000001, 64.62299999999999, 65.3709, 67.46035, 68.6828, 57.87115000000001, 63.504400000000004, 77.4119, 77.36930000000001, 64.8614, 58.73145000000001, 69.27655000000001, 51.396100000000004, 54.342150000000004, 32.1954, 26.86955, 28.708499999999997, 24.3242, 30.464650000000002, 32.652550000000005, 30.427149999999997, 32.2739, 24.991200000000003, 33.97385, 26.469999999999995, 31.20135, 23.001099999999997, 32.23995000000001, 40.16465, 26.401349999999994, 27.134399999999996, 27.08335, 11.4801, 19.413949999999993, 100.6179, 90.43169999999999, 83.9631, 83.2614, 94.20975000000001, 86.29350000000001, 86.35644999999998, 91.07230000000001, 94.90325000000001, 97.23155, 95.20235, 95.506, 88.51695, 101.19255, 115.6136, 85.6763, 94.02000000000001, 93.14175, 81.79740000000001, 69.69465, 4.7768999999999995, 6.318299999999999, 3.951799999999999, 3.567899999999999, 8.05645, 13.4127, 7.3309999999999995, 10.205199999999998, 1.4439499999999996, 5.681050000000001, 4.723999999999999, 7.278449999999999, 1.8084000000000002, 9.61095, 6.9857499999999995, 7.497449999999998, 11.6579, 2.0832999999999986, 0.96245, 5.3352999999999975, 7.442350000000001, 8.924999999999999, 13.09895, 2.425199999999999, 5.20825, 11.21655, 7.7783, 11.076500000000001, 0.9696999999999993, 9.405399999999998, 4.537450000000001, 12.2326, 2.597249999999998, 9.03155, 13.078099999999997, 15.7148, 6.61035, 9.468149999999998, -0.8134000000000006, 5.8692499999999965, 58.89470000000001, 47.72234999999999, 57.845949999999995, 50.06005, 58.7262, 49.98024999999999, 50.4127, 65.11605000000002, 53.626900000000006, 58.5937, 65.753, 53.11155000000001, 51.348400000000005, 61.276650000000004, 65.52355, 47.780499999999996, 49.8163, 63.34084999999999, 41.05944999999999, 46.664750000000005, 56.69285, 46.2956, 51.38759999999999, 47.71605000000001, 53.91595, 50.10764999999999, 53.19605000000001, 55.85565, 51.35634999999999, 60.40695, 55.723949999999995, 52.09895, 46.439699999999995, 59.92629999999998, 62.25544999999999, 46.73685, 47.1705, 57.514649999999996, 37.4111, 36.58325000000001, 30.900899999999996, 27.92405, 26.054849999999995, 20.366999999999997, 28.30425, 32.09325, 24.469949999999997, 27.345699999999994, 23.8703, 35.9507, 28.96125, 31.435699999999997, 22.6907, 34.17195, 32.60305, 21.760499999999997, 25.525549999999996, 22.9079, 11.619399999999999, 28.492949999999997, 82.88940000000001, 67.26415, 64.763, 62.221000000000004, 79.01645, 66.29355, 65.49375, 74.2159, 78.18485, 76.02964999999998, 84.0573, 69.56915, 67.35515000000001, 83.27104999999999, 85.3564, 67.24515, 73.45595, 85.7425, 56.04990000000001, 61.8137, 125.7477, 96.34885000000001, 97.30605, 99.01365, 108.00734999999999, 98.53235000000001, 104.87310000000001, 108.6713, 103.78945, 105.12595, 112.8894, 100.27994999999999, 105.16595, 122.24659999999999, 122.0018, 106.26685000000002, 112.1298, 111.45935000000001, 97.60545, 93.34245, 79.74174999999998, 64.6208, 62.615700000000004, 57.495500000000014, 71.5706, 62.57959999999999, 61.516549999999995, 69.6434, 74.01265, 73.78095, 70.37129999999999, 64.567, 62.73675, 68.5868, 82.23099999999997, 59.68160000000001, 68.56145, 75.38669999999999, 51.9072, 52.76735, 13.6086, 10.7039, 12.465399999999997, 12.854349999999997, 15.60605, 19.440999999999995, 18.0498, 20.87885, 5.097549999999999, 20.4949, 16.7518, 15.11835, 11.3781, 14.113449999999998, 22.1582, 12.987499999999999, 10.564300000000001, 9.6009, 1.5402499999999986, 9.51295, 9.634299999999996, 5.272049999999998, 7.524399999999997, 2.7356999999999982, 10.067250000000001, 10.222549999999998, 12.396799999999999, 11.75995, 1.1303499999999997, 10.066749999999997, 7.876349999999997, 9.366700000000002, 6.642899999999998, 8.43375, 15.672400000000001, 7.761999999999999, 6.83855, 5.806999999999999, 1.462899999999999, 7.671049999999998]</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,11 +203,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,16 +1026,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.92721764999999</c:v>
+                  <c:v>137.49988099999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.762746649999997</c:v>
+                  <c:v>68.850180899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6844377999989995</c:v>
+                  <c:v>9.3534760499999905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.25038975</c:v>
+                  <c:v>23.183430399999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,16 +1077,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.94403969999999</c:v>
+                  <c:v>137.52032904999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.762746649999997</c:v>
+                  <c:v>68.850180899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6844377999989995</c:v>
+                  <c:v>9.3534760499999905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.270129245</c:v>
+                  <c:v>23.202527949999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,16 +1138,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>139.31934989999999</c:v>
+                  <c:v>140.95589559999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.130960400000006</c:v>
+                  <c:v>70.205548250000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5533069499999996</c:v>
+                  <c:v>10.2208392999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.17738675</c:v>
+                  <c:v>25.0021450499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,16 +1348,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>136.46390174999999</c:v>
+                  <c:v>136.189966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.643006400000004</c:v>
+                  <c:v>78.416080600000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.592971200000001</c:v>
+                  <c:v>56.050970549999903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.424909900000003</c:v>
+                  <c:v>75.227871099999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1413,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>High 	  Medium                   Low                       Mixed                             </a:t>
+                  <a:t>High                                                       	  Medium                                                                      Low                                                                          Mixed                             </a:t>
                 </a:r>
                 <a:endParaRPr lang="vi-VN" sz="1000" b="1">
                   <a:solidFill>
@@ -1403,8 +1430,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35110278898064567"/>
-              <c:y val="0.79422205604187734"/>
+              <c:x val="0.14733484997026511"/>
+              <c:y val="0.7997386412002554"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1644,6 +1671,3249 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'50 user traces'!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fixed_preload</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>no_save</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Phong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'50 user traces'!$B$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82.813141362499948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.790473175000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.721742087499969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.731628487499968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.596107049999958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.396032137500001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.886529049999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.496265637499974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.471222062499947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE00-434C-8FD7-8456722FF53E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1936163776"/>
+        <c:axId val="1936167616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1936163776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936167616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1936167616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936163776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11912335958005249"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.86976552930883655"/>
+          <c:h val="0.66682815689705455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$B$5,'100 user traces'!$B$12,'100 user traces'!$B$19,'100 user traces'!$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.424477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2087.10855299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487.2717829999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2311.2760539999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-243C-4CAB-857D-D828EC825213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$D$5,'100 user traces'!$D$12,'100 user traces'!$D$19,'100 user traces'!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10398.499846999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3282.2179839999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2844.9444619999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4570.0132309999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-243C-4CAB-857D-D828EC825213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$E$5,'100 user traces'!$E$12,'100 user traces'!$E$19,'100 user traces'!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11204.3372389999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3282.2179839999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2844.9444619999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4664.7995349999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-243C-4CAB-857D-D828EC825213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$F$5,'100 user traces'!$F$12,'100 user traces'!$F$19,'100 user traces'!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4255.4862089999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3066.4288449999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2748.3808759999902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3450.3690120000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-243C-4CAB-857D-D828EC825213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$G$5,'100 user traces'!$G$12,'100 user traces'!$G$19,'100 user traces'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3269.9377039999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2581.6783300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2071.0399779999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2511.1707609999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-243C-4CAB-857D-D828EC825213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('100 user traces'!$C$5,'100 user traces'!$C$12,'100 user traces'!$C$19,'100 user traces'!$C$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4288.7718590000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2626.4527079999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2042.210724</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2780.2042669999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-243C-4CAB-857D-D828EC825213}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High	Medium	      Low	     Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20878751452349506"/>
+              <c:y val="0.82465219304234372"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Waste Data (KBytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3758157349385432E-2"/>
+          <c:y val="0.90480254274574057"/>
+          <c:w val="0.847984032947664"/>
+          <c:h val="9.5197552722254622E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6029332846516982E-2"/>
+          <c:y val="0.13592056396408661"/>
+          <c:w val="0.90428264379271539"/>
+          <c:h val="0.65919580657605126"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$B$4,'100 user traces'!$B$11,'100 user traces'!$B$18,'100 user traces'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.379549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.091735049999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.840931499999897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.940349900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0051-4136-A3FB-6D85ABF1D593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$D$4,'100 user traces'!$D$11,'100 user traces'!$D$18,'100 user traces'!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>137.49988099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.850180899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3534760499999905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.183430399999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0051-4136-A3FB-6D85ABF1D593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$E$4,'100 user traces'!$E$11,'100 user traces'!$E$18,'100 user traces'!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>137.52032904999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.850180899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3534760499999905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.202527949999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0051-4136-A3FB-6D85ABF1D593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0051-4136-A3FB-6D85ABF1D593}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$F$4,'100 user traces'!$F$11,'100 user traces'!$F$18,'100 user traces'!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>140.95589559999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.205548250000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.2208392999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0021450499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0051-4136-A3FB-6D85ABF1D593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$G$4,'100 user traces'!$G$11,'100 user traces'!$G$18,'100 user traces'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>108.25515915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.217999500000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.73894095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.372028950000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0051-4136-A3FB-6D85ABF1D593}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="836325408"/>
+        <c:axId val="836328736"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'100 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('100 user traces'!$C$4,'100 user traces'!$C$11,'100 user traces'!$C$18,'100 user traces'!$C$25)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>107.16285415</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>65.037681699999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50.273487549999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.687869300000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-0051-4136-A3FB-6D85ABF1D593}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836325408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High 	  Medium                   Low                       Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.18172609112830246"/>
+              <c:y val="0.81425945676098832"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="836328736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836328736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>QoE</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836325408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5019534042941061E-2"/>
+          <c:y val="0.905026658186182"/>
+          <c:w val="0.86395551543347648"/>
+          <c:h val="8.1663200938210473E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10163360322009218"/>
+          <c:y val="9.6984263429953352E-2"/>
+          <c:w val="0.86976552930883655"/>
+          <c:h val="0.66682815689705455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$B$5,'100 user traces'!$B$12,'100 user traces'!$B$19,'100 user traces'!$B$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3411.424477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2087.10855299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1487.2717829999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2311.2760539999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$C$5,'100 user traces'!$C$12,'100 user traces'!$C$19,'100 user traces'!$C$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4288.7718590000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2626.4527079999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2042.210724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780.2042669999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$D$5,'100 user traces'!$D$12,'100 user traces'!$D$19,'100 user traces'!$D$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10398.499846999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3282.2179839999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2844.9444619999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4570.0132309999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$E$5,'100 user traces'!$E$12,'100 user traces'!$E$19,'100 user traces'!$E$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11204.3372389999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3282.2179839999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2844.9444619999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4664.7995349999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$F$5,'100 user traces'!$F$12,'100 user traces'!$F$19,'100 user traces'!$F$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4255.4862089999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3066.4288449999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2748.3808759999902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3450.3690120000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$G$5,'100 user traces'!$G$12,'100 user traces'!$G$19,'100 user traces'!$G$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3269.9377039999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2581.6783300000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2071.0399779999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2511.1707609999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_preload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$H$5,'100 user traces'!$H$12,'100 user traces'!$H$19,'100 user traces'!$H$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7403.1791479999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3143.3183600000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2315.199807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3731.8837600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$I$5,'100 user traces'!$I$12,'100 user traces'!$I$19,'100 user traces'!$I$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12186.940406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3329.9534229999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2311.425729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4699.6553979999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$J$5,'100 user traces'!$J$12,'100 user traces'!$J$19,'100 user traces'!$J$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2978.9633490000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2345.3693010000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1851.99972399999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2340.3117309999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B75F-427A-99E9-FCB3F4E10918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="644726432"/>
+        <c:axId val="644725600"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="644726432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High                                                       	  Medium                                                                      Low                                                                          Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.14792679481635104"/>
+              <c:y val="0.78324102799252004"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644725600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644725600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Waste Data (KBytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644726432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2101706733200391E-3"/>
+          <c:y val="0.8470246719160105"/>
+          <c:w val="0.99778986942669901"/>
+          <c:h val="0.15297532808398948"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8513246574431548E-2"/>
+          <c:y val="0.11850148731408575"/>
+          <c:w val="0.89041946418401596"/>
+          <c:h val="0.65439254456575824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$B$4,'100 user traces'!$B$11,'100 user traces'!$B$18,'100 user traces'!$B$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>138.379549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.091735049999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.840931499999897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.940349900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fix-B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$C$4,'100 user traces'!$C$11,'100 user traces'!$C$18,'100 user traces'!$C$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>107.16285415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.037681699999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.273487549999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.687869300000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Next-One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$D$4,'100 user traces'!$D$11,'100 user traces'!$D$18,'100 user traces'!$D$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>137.49988099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.850180899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3534760499999905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.183430399999899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WaterFall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$E$4,'100 user traces'!$E$11,'100 user traces'!$E$18,'100 user traces'!$E$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>137.52032904999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.850180899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3534760499999905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.202527949999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Network-based</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$F$4,'100 user traces'!$F$11,'100 user traces'!$F$18,'100 user traces'!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>140.95589559999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.205548250000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.2208392999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.0021450499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$G$4,'100 user traces'!$G$11,'100 user traces'!$G$18,'100 user traces'!$G$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>108.25515915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.217999500000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.73894095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.372028950000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_preload</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$H$4,'100 user traces'!$H$11,'100 user traces'!$H$18,'100 user traces'!$H$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.70660185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.088824549999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.397806449999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.352883349999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_save</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$I$4,'100 user traces'!$I$11,'100 user traces'!$I$18,'100 user traces'!$I$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>119.08759135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.059849849999907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.036196400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.801424949999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100 user traces'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phong</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('100 user traces'!$J$4,'100 user traces'!$J$11,'100 user traces'!$J$18,'100 user traces'!$J$25)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>136.46390174999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.911990250000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.396315950000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.407705999999905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4145-4D84-AD4B-8AD66FCEC0B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:axId val="836325408"/>
+        <c:axId val="836328736"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="836325408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>High                                                       	  Medium                                                                      Low                                                                          Mixed                             </a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.14733484997026511"/>
+              <c:y val="0.7997386412002554"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="836328736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="836328736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>QoE</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836325408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0065735684040812E-2"/>
+          <c:y val="0.83391531058617674"/>
+          <c:w val="0.92254733992826143"/>
+          <c:h val="0.16608468941382326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2282,7 +5552,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6240,16 +9510,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10374.999572000001</c:v>
+                  <c:v>10398.499846999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3278.4124409999999</c:v>
+                  <c:v>3282.2179839999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828.8010489999901</c:v>
+                  <c:v>2844.9444619999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4572.5788140000004</c:v>
+                  <c:v>4570.0132309999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,16 +9561,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11179.8140109999</c:v>
+                  <c:v>11204.3372389999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3278.4124409999999</c:v>
+                  <c:v>3282.2179839999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828.8010489999901</c:v>
+                  <c:v>2844.9444619999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4667.9839240000001</c:v>
+                  <c:v>4664.7995349999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,16 +9612,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4294.0716060000004</c:v>
+                  <c:v>4255.4862089999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3062.7875490000001</c:v>
+                  <c:v>3066.4288449999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2736.644558</c:v>
+                  <c:v>2748.3808759999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3441.8010410000002</c:v>
+                  <c:v>3450.3690120000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6892,16 +10162,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.92721764999999</c:v>
+                  <c:v>137.49988099999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.762746649999997</c:v>
+                  <c:v>68.850180899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6844377999989995</c:v>
+                  <c:v>9.3534760499999905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.25038975</c:v>
+                  <c:v>23.183430399999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6943,16 +10213,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>135.94403969999999</c:v>
+                  <c:v>137.52032904999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.762746649999997</c:v>
+                  <c:v>68.850180899999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6844377999989995</c:v>
+                  <c:v>9.3534760499999905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.270129245</c:v>
+                  <c:v>23.202527949999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7004,16 +10274,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>139.31934989999999</c:v>
+                  <c:v>140.95589559999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.130960400000006</c:v>
+                  <c:v>70.205548250000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5533069499999996</c:v>
+                  <c:v>10.2208392999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.17738675</c:v>
+                  <c:v>25.0021450499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7466,8 +10736,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11912337608742302"/>
-          <c:y val="9.0601924759405081E-2"/>
+          <c:x val="0.10163360322009218"/>
+          <c:y val="9.6984263429953352E-2"/>
           <c:w val="0.86976552930883655"/>
           <c:h val="0.66682815689705455"/>
         </c:manualLayout>
@@ -7476,108 +10746,6 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Proposed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3411.424477</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2087.10855299999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1487.2717829999899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2311.2760539999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C0A-4AD7-A658-C8B812F6C46E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fix-B</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4288.7718590000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2626.4527079999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2042.210724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2780.2042669999901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C0A-4AD7-A658-C8B812F6C46E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -7611,16 +10779,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10374.999572000001</c:v>
+                  <c:v>10398.499846999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3278.4124409999999</c:v>
+                  <c:v>3282.2179839999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2828.8010489999901</c:v>
+                  <c:v>2844.9444619999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4572.5788140000004</c:v>
+                  <c:v>4570.0132309999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7628,57 +10796,6 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7C0A-4AD7-A658-C8B812F6C46E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'50 user traces'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WaterFall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11179.8140109999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3278.4124409999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2828.8010489999901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4667.9839240000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7C0A-4AD7-A658-C8B812F6C46E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7713,16 +10830,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4294.0716060000004</c:v>
+                  <c:v>4255.4862089999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3062.7875490000001</c:v>
+                  <c:v>3066.4288449999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2736.644558</c:v>
+                  <c:v>2748.3808759999902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3441.8010410000002</c:v>
+                  <c:v>3450.3690120000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7923,16 +11040,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2978.9633490000001</c:v>
+                  <c:v>2977.9900479999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2346.6260309999998</c:v>
+                  <c:v>2296.7297130000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1857.09827</c:v>
+                  <c:v>1816.5412080000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2356.46449599999</c:v>
+                  <c:v>2313.0259460000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7954,7 +11071,205 @@
         <c:gapWidth val="70"/>
         <c:axId val="644726432"/>
         <c:axId val="644725600"/>
-        <c:extLst/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$B$5,'50 user traces'!$B$12,'50 user traces'!$B$19,'50 user traces'!$B$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>3411.424477</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2087.10855299999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1487.2717829999899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2311.2760539999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fix-B</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$C$5,'50 user traces'!$C$12,'50 user traces'!$C$19,'50 user traces'!$C$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4288.7718590000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2626.4527079999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2042.210724</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2780.2042669999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'50 user traces'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>WaterFall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('50 user traces'!$E$5,'50 user traces'!$E$12,'50 user traces'!$E$19,'50 user traces'!$E$26)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>11204.3372389999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3282.2179839999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2844.9444619999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4664.7995349999901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7C0A-4AD7-A658-C8B812F6C46E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="644726432"/>
@@ -7980,19 +11295,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
+                    <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>High	Medium	      Low	     Mixed                             </a:t>
+                  <a:t>High                                                       	  Medium                                                                      Low                                                                          Mixed                             </a:t>
                 </a:r>
-                <a:endParaRPr lang="vi-VN" b="1" baseline="0">
+                <a:endParaRPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -8001,8 +11320,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.21140803743871639"/>
-              <c:y val="0.78020787401574798"/>
+              <c:x val="0.14792679481635104"/>
+              <c:y val="0.78324102799252004"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8403,6 +11722,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10735,6 +14254,2521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15002,16 +21036,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>596053</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586528</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15040,16 +21074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15078,16 +21112,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15116,16 +21150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15152,10 +21186,203 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64745F8B-C82C-9853-A6C2-D5A25C94B77C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586528</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD4B7BC-1C31-4644-992D-09B551200C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC0EE14-A81E-4CE7-9CF7-C8EA9CF4E234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A07F52C-6E79-410E-A2F1-3BB263ED7C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63A6074-26AA-4F7C-AE19-84C3E079A257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15535,20 +21762,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC672D6-8F04-4783-A03F-303C3066C99A}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -15574,7 +21801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -15600,7 +21827,7 @@
         <v>12.400029399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -15626,7 +21853,7 @@
         <v>13457863.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -15652,7 +21879,7 @@
         <v>72.553984999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -15678,7 +21905,7 @@
         <v>3696.1902500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -15704,7 +21931,7 @@
         <v>1.31345402910898</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -15730,7 +21957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -15756,7 +21983,7 @@
         <v>-5.9809045999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -15782,7 +22009,7 @@
         <v>8958526.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -15808,7 +22035,7 @@
         <v>32.373199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -15834,7 +22061,7 @@
         <v>2909.2682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -15860,7 +22087,7 @@
         <v>1.2637557685481</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -15886,7 +22113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -15909,10 +22136,10 @@
         <v>-7.8780840999999997</v>
       </c>
       <c r="H16">
-        <v>-12.127577499999999</v>
+        <v>-11.717597899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -15935,10 +22162,10 @@
         <v>6496744.1500000004</v>
       </c>
       <c r="H17">
-        <v>7038172.5</v>
+        <v>7007740.0999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -15961,10 +22188,10 @@
         <v>20.438892500000001</v>
       </c>
       <c r="H18">
-        <v>18.362612500000001</v>
+        <v>18.6258625</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -15987,10 +22214,10 @@
         <v>2516.9164999999998</v>
       </c>
       <c r="H19">
-        <v>2407.2777999999998</v>
+        <v>2475.1986000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -16013,10 +22240,10 @@
         <v>1.36315228966986</v>
       </c>
       <c r="H20">
-        <v>1.2495562655307</v>
+        <v>1.27203881197491</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -16042,7 +22269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -16068,7 +22295,7 @@
         <v>-12.5949740999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -16094,7 +22321,7 @@
         <v>9616830.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -16120,7 +22347,7 @@
         <v>30.322347499999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -16146,7 +22373,7 @@
         <v>2806.8782500000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -16172,7 +22399,7 @@
         <v>1.27795527156549</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -16213,16 +22440,16 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -16245,7 +22472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -16268,7 +22495,7 @@
         <v>19.326067099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -16291,7 +22518,7 @@
         <v>12226531.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16314,7 +22541,7 @@
         <v>72.254692500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -16337,7 +22564,7 @@
         <v>2459.7737499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16360,7 +22587,7 @@
         <v>1.25962447656355</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -16383,7 +22610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -16406,7 +22633,7 @@
         <v>14.442761900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -16429,7 +22656,7 @@
         <v>9606625.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -16452,7 +22679,7 @@
         <v>56.3517624999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -16475,7 +22702,7 @@
         <v>2192.4892999999902</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -16498,7 +22725,7 @@
         <v>1.23514115898959</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -16521,7 +22748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -16544,7 +22771,7 @@
         <v>11.2015174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -16567,7 +22794,7 @@
         <v>8311325.6500000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -16590,7 +22817,7 @@
         <v>46.591819999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -16613,7 +22840,7 @@
         <v>1709.25755</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -16636,7 +22863,7 @@
         <v>1.22416587869782</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -16659,7 +22886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -16682,7 +22909,7 @@
         <v>0.71796760000000803</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -16705,7 +22932,7 @@
         <v>9745886.8499999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -16728,7 +22955,7 @@
         <v>42.524014999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -16751,7 +22978,7 @@
         <v>1915.87105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -16774,7 +23001,7 @@
         <v>1.2258543833580899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
@@ -16815,16 +23042,16 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -16847,7 +23074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -16870,7 +23097,7 @@
         <v>37.641777299999802</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -16893,7 +23120,7 @@
         <v>19157603.800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16916,7 +23143,7 @@
         <v>119.7596925</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -16939,7 +23166,7 @@
         <v>3036.1089499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16962,7 +23189,7 @@
         <v>1.2147242183410201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -16985,7 +23212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -17008,7 +23235,7 @@
         <v>22.510033400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -17031,7 +23258,7 @@
         <v>14041770.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -17054,7 +23281,7 @@
         <v>82.242114999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -17077,7 +23304,7 @@
         <v>2563.8451500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -17100,7 +23327,7 @@
         <v>1.17189358968257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -17123,7 +23350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -17146,7 +23373,7 @@
         <v>14.9222784</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -17169,7 +23396,7 @@
         <v>11685839.15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -17192,7 +23419,7 @@
         <v>63.610635000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -17215,7 +23442,7 @@
         <v>2057.5586499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -17238,7 +23465,7 @@
         <v>1.1617808023604399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -17261,7 +23488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -17284,7 +23511,7 @@
         <v>7.2142171999999603</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -17307,7 +23534,7 @@
         <v>14490510.699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -17330,7 +23557,7 @@
         <v>68.323759999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -17353,7 +23580,7 @@
         <v>2352.1450499999901</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -17376,7 +23603,7 @@
         <v>1.1671346309427399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
@@ -17411,38 +23638,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
@@ -17460,8 +23688,14 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -17472,13 +23706,13 @@
         <v>26.789736353999899</v>
       </c>
       <c r="D2">
-        <v>22.7128471139998</v>
+        <v>23.822091607999798</v>
       </c>
       <c r="E2">
-        <v>19.499071767999801</v>
+        <v>20.609071105999799</v>
       </c>
       <c r="F2">
-        <v>43.871369943999802</v>
+        <v>45.006469479999801</v>
       </c>
       <c r="G2">
         <v>30.6171889579999</v>
@@ -17490,10 +23724,16 @@
         <v>4.01654212199991</v>
       </c>
       <c r="J2">
+        <v>49.079521519999801</v>
+      </c>
+      <c r="K2">
         <v>49.130266033999803</v>
       </c>
+      <c r="L2">
+        <v>45.127986257999801</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -17504,13 +23744,13 @@
         <v>18977666.9489999</v>
       </c>
       <c r="D3">
-        <v>28292592.634</v>
+        <v>28419447.347999901</v>
       </c>
       <c r="E3">
-        <v>29100241.982999999</v>
+        <v>29227814.485999901</v>
       </c>
       <c r="F3">
-        <v>22491894.989</v>
+        <v>22587369.030000001</v>
       </c>
       <c r="G3">
         <v>17855505.048</v>
@@ -17522,10 +23762,16 @@
         <v>27777837.306999899</v>
       </c>
       <c r="J3">
+        <v>20477611.120000001</v>
+      </c>
+      <c r="K3">
         <v>20529321.429000001</v>
       </c>
+      <c r="L3">
+        <v>21326380.222999901</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17536,13 +23782,13 @@
         <v>107.16285415</v>
       </c>
       <c r="D4">
-        <v>135.92721764999999</v>
+        <v>137.49988099999999</v>
       </c>
       <c r="E4">
-        <v>135.94403969999999</v>
+        <v>137.52032904999999</v>
       </c>
       <c r="F4">
-        <v>139.31934989999999</v>
+        <v>140.95589559999999</v>
       </c>
       <c r="G4">
         <v>108.25515915</v>
@@ -17554,10 +23800,16 @@
         <v>119.08759135</v>
       </c>
       <c r="J4">
+        <v>136.189966</v>
+      </c>
+      <c r="K4">
         <v>136.46390174999999</v>
       </c>
+      <c r="L4">
+        <v>135.99200714999901</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -17568,13 +23820,13 @@
         <v>4288.7718590000004</v>
       </c>
       <c r="D5">
-        <v>10374.999572000001</v>
+        <v>10398.499846999999</v>
       </c>
       <c r="E5">
-        <v>11179.8140109999</v>
+        <v>11204.3372389999</v>
       </c>
       <c r="F5">
-        <v>4294.0716060000004</v>
+        <v>4255.4862089999997</v>
       </c>
       <c r="G5">
         <v>3269.9377039999999</v>
@@ -17586,10 +23838,16 @@
         <v>12186.940406</v>
       </c>
       <c r="J5">
+        <v>2977.9900479999901</v>
+      </c>
+      <c r="K5">
         <v>2978.9633490000001</v>
       </c>
+      <c r="L5">
+        <v>3983.7205019999901</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -17600,13 +23858,13 @@
         <v>1.3717298131634601</v>
       </c>
       <c r="D6">
-        <v>1.5912065688569701</v>
+        <v>1.59174579693887</v>
       </c>
       <c r="E6">
-        <v>1.6212241708348301</v>
+        <v>1.62171582599213</v>
       </c>
       <c r="F6">
-        <v>1.28026747703888</v>
+        <v>1.2794572116413501</v>
       </c>
       <c r="G6">
         <v>1.3412999970677999</v>
@@ -17618,10 +23876,16 @@
         <v>1.74814986684213</v>
       </c>
       <c r="J6">
+        <v>1.2142247388742</v>
+      </c>
+      <c r="K6">
         <v>1.21294057916065</v>
       </c>
+      <c r="L6">
+        <v>1.27504564180865</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -17652,8 +23916,14 @@
       <c r="J8" t="s">
         <v>29</v>
       </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -17664,13 +23934,13 @@
         <v>8.2414489359999994</v>
       </c>
       <c r="D9">
-        <v>-16.781696925999999</v>
+        <v>-16.098914579999999</v>
       </c>
       <c r="E9">
-        <v>-16.781696925999999</v>
+        <v>-16.098914579999999</v>
       </c>
       <c r="F9">
-        <v>-17.351849600000001</v>
+        <v>-16.651639326000002</v>
       </c>
       <c r="G9">
         <v>15.5316397799999</v>
@@ -17682,10 +23952,13 @@
         <v>12.8801552899999</v>
       </c>
       <c r="J9">
-        <v>14.209912095999901</v>
+        <v>16.5340577559999</v>
+      </c>
+      <c r="K9">
+        <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -17696,13 +23969,13 @@
         <v>13029720.691</v>
       </c>
       <c r="D10">
-        <v>21125110.894000001</v>
+        <v>21237273.8699999</v>
       </c>
       <c r="E10">
-        <v>21125110.894000001</v>
+        <v>21237273.8699999</v>
       </c>
       <c r="F10">
-        <v>20964052.499999899</v>
+        <v>21077434.394000001</v>
       </c>
       <c r="G10">
         <v>12827764.93</v>
@@ -17714,10 +23987,13 @@
         <v>14206173.640000001</v>
       </c>
       <c r="J10">
-        <v>14891811.075999999</v>
+        <v>14462880.710999999</v>
+      </c>
+      <c r="K10">
+        <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -17728,13 +24004,13 @@
         <v>65.037681699999993</v>
       </c>
       <c r="D11">
-        <v>67.762746649999997</v>
+        <v>68.850180899999998</v>
       </c>
       <c r="E11">
-        <v>67.762746649999997</v>
+        <v>68.850180899999998</v>
       </c>
       <c r="F11">
-        <v>69.130960400000006</v>
+        <v>70.205548250000007</v>
       </c>
       <c r="G11">
         <v>71.217999500000005</v>
@@ -17746,10 +24022,13 @@
         <v>72.059849849999907</v>
       </c>
       <c r="J11">
-        <v>77.643006400000004</v>
+        <v>78.416080600000001</v>
+      </c>
+      <c r="K11">
+        <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -17760,13 +24039,13 @@
         <v>2626.4527079999998</v>
       </c>
       <c r="D12">
-        <v>3278.4124409999999</v>
+        <v>3282.2179839999999</v>
       </c>
       <c r="E12">
-        <v>3278.4124409999999</v>
+        <v>3282.2179839999999</v>
       </c>
       <c r="F12">
-        <v>3062.7875490000001</v>
+        <v>3066.4288449999999</v>
       </c>
       <c r="G12">
         <v>2581.6783300000002</v>
@@ -17778,10 +24057,13 @@
         <v>3329.9534229999999</v>
       </c>
       <c r="J12">
-        <v>2346.6260309999998</v>
+        <v>2296.7297130000002</v>
+      </c>
+      <c r="K12">
+        <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -17792,13 +24074,13 @@
         <v>1.2788217689328401</v>
       </c>
       <c r="D13">
-        <v>1.1902888913540699</v>
+        <v>1.1906122780792401</v>
       </c>
       <c r="E13">
-        <v>1.1902888913540699</v>
+        <v>1.1906122780792401</v>
       </c>
       <c r="F13">
-        <v>1.17958025760927</v>
+        <v>1.17993579546954</v>
       </c>
       <c r="G13">
         <v>1.2825072931927299</v>
@@ -17810,10 +24092,13 @@
         <v>1.3147230141155299</v>
       </c>
       <c r="J13">
-        <v>1.1943664143302799</v>
+        <v>1.2036082010706799</v>
+      </c>
+      <c r="K13">
+        <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -17844,8 +24129,14 @@
       <c r="J15" t="s">
         <v>29</v>
       </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -17856,13 +24147,13 @@
         <v>3.12527921</v>
       </c>
       <c r="D16">
-        <v>-74.247874159999895</v>
+        <v>-74.006715277999902</v>
       </c>
       <c r="E16">
-        <v>-74.247874159999895</v>
+        <v>-74.006715277999902</v>
       </c>
       <c r="F16">
-        <v>-74.794724861999995</v>
+        <v>-74.552627091999895</v>
       </c>
       <c r="G16">
         <v>11.273646321999999</v>
@@ -17874,10 +24165,16 @@
         <v>6.8372700479999997</v>
       </c>
       <c r="J16">
-        <v>4.8138827240000097</v>
+        <v>7.6779566020000098</v>
+      </c>
+      <c r="K16">
+        <v>6.0464890200000099</v>
+      </c>
+      <c r="L16">
+        <v>6.9798076820000103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -17888,13 +24185,13 @@
         <v>10759852.0849999</v>
       </c>
       <c r="D17">
-        <v>20722077.989999998</v>
+        <v>20840047.831999999</v>
       </c>
       <c r="E17">
-        <v>20722077.989999998</v>
+        <v>20840047.831999999</v>
       </c>
       <c r="F17">
-        <v>20655132.953000002</v>
+        <v>20771566.598000001</v>
       </c>
       <c r="G17">
         <v>10638648.657</v>
@@ -17906,10 +24203,16 @@
         <v>11235619.088</v>
       </c>
       <c r="J17">
-        <v>11636647.119000001</v>
+        <v>11314415.987</v>
+      </c>
+      <c r="K17">
+        <v>11515727.394999901</v>
+      </c>
+      <c r="L17">
+        <v>11385288.092</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -17920,13 +24223,13 @@
         <v>50.273487549999999</v>
       </c>
       <c r="D18">
-        <v>8.6844377999989995</v>
+        <v>9.3534760499999905</v>
       </c>
       <c r="E18">
-        <v>8.6844377999989995</v>
+        <v>9.3534760499999905</v>
       </c>
       <c r="F18">
-        <v>9.5533069499999996</v>
+        <v>10.2208392999999</v>
       </c>
       <c r="G18">
         <v>56.73894095</v>
@@ -17938,10 +24241,16 @@
         <v>53.036196400000001</v>
       </c>
       <c r="J18">
-        <v>54.592971200000001</v>
+        <v>56.050970549999903</v>
+      </c>
+      <c r="K18">
+        <v>55.396315950000002</v>
+      </c>
+      <c r="L18">
+        <v>56.531310050000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -17952,13 +24261,13 @@
         <v>2042.210724</v>
       </c>
       <c r="D19">
-        <v>2828.8010489999901</v>
+        <v>2844.9444619999999</v>
       </c>
       <c r="E19">
-        <v>2828.8010489999901</v>
+        <v>2844.9444619999999</v>
       </c>
       <c r="F19">
-        <v>2736.644558</v>
+        <v>2748.3808759999902</v>
       </c>
       <c r="G19">
         <v>2071.0399779999998</v>
@@ -17970,10 +24279,16 @@
         <v>2311.425729</v>
       </c>
       <c r="J19">
-        <v>1857.09827</v>
+        <v>1816.5412080000001</v>
+      </c>
+      <c r="K19">
+        <v>1851.99972399999</v>
+      </c>
+      <c r="L19">
+        <v>1853.558955</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -17984,13 +24299,13 @@
         <v>1.25104130325142</v>
       </c>
       <c r="D20">
-        <v>1.1665546465441201</v>
+        <v>1.16677458966456</v>
       </c>
       <c r="E20">
-        <v>1.1665546465441201</v>
+        <v>1.16677458966456</v>
       </c>
       <c r="F20">
-        <v>1.1608543105340501</v>
+        <v>1.16113454993895</v>
       </c>
       <c r="G20">
         <v>1.25779937936546</v>
@@ -18002,10 +24317,16 @@
         <v>1.26626836578888</v>
       </c>
       <c r="J20">
-        <v>1.19225077715909</v>
+        <v>1.2025769768341701</v>
+      </c>
+      <c r="K20">
+        <v>1.1972270936256699</v>
+      </c>
+      <c r="L20">
+        <v>1.2029751413584</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -18036,8 +24357,14 @@
       <c r="J22" t="s">
         <v>29</v>
       </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -18048,13 +24375,13 @@
         <v>-1.9232142760000099</v>
       </c>
       <c r="D23">
-        <v>-67.553105974000005</v>
+        <v>-67.009977296000002</v>
       </c>
       <c r="E23">
-        <v>-67.909875577999998</v>
+        <v>-67.365790930000003</v>
       </c>
       <c r="F23">
-        <v>-64.649326681999995</v>
+        <v>-64.348991905999995</v>
       </c>
       <c r="G23">
         <v>3.1487729659999699</v>
@@ -18066,10 +24393,13 @@
         <v>-2.19752247000002</v>
       </c>
       <c r="J23">
-        <v>9.5154508279999295</v>
+        <v>10.3133583639999</v>
+      </c>
+      <c r="K23">
+        <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -18080,13 +24410,13 @@
         <v>13630695.893999999</v>
       </c>
       <c r="D24">
-        <v>22439873.930999901</v>
+        <v>22548351.923999902</v>
       </c>
       <c r="E24">
-        <v>22534001.206999999</v>
+        <v>22642079.719999999</v>
       </c>
       <c r="F24">
-        <v>21424690.857999999</v>
+        <v>21541821.739</v>
       </c>
       <c r="G24">
         <v>13372338.995999999</v>
@@ -18098,10 +24428,13 @@
         <v>16271324.355</v>
       </c>
       <c r="J24">
-        <v>15415977.267999999</v>
+        <v>15121478.1839999</v>
+      </c>
+      <c r="K24">
+        <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -18112,13 +24445,13 @@
         <v>56.687869300000003</v>
       </c>
       <c r="D25">
-        <v>22.25038975</v>
+        <v>23.183430399999899</v>
       </c>
       <c r="E25">
-        <v>22.270129245</v>
+        <v>23.202527949999901</v>
       </c>
       <c r="F25">
-        <v>24.17738675</v>
+        <v>25.0021450499999</v>
       </c>
       <c r="G25">
         <v>61.372028950000001</v>
@@ -18130,10 +24463,13 @@
         <v>65.801424949999998</v>
       </c>
       <c r="J25">
-        <v>75.424909900000003</v>
+        <v>75.227871099999902</v>
+      </c>
+      <c r="K25">
+        <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -18144,13 +24480,13 @@
         <v>2780.2042669999901</v>
       </c>
       <c r="D26">
-        <v>4572.5788140000004</v>
+        <v>4570.0132309999899</v>
       </c>
       <c r="E26">
-        <v>4667.9839240000001</v>
+        <v>4664.7995349999901</v>
       </c>
       <c r="F26">
-        <v>3441.8010410000002</v>
+        <v>3450.3690120000001</v>
       </c>
       <c r="G26">
         <v>2511.1707609999999</v>
@@ -18162,10 +24498,13 @@
         <v>4699.6553979999999</v>
       </c>
       <c r="J26">
-        <v>2356.46449599999</v>
+        <v>2313.0259460000002</v>
+      </c>
+      <c r="K26">
+        <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -18176,13 +24515,13 @@
         <v>1.27913262342328</v>
       </c>
       <c r="D27">
-        <v>1.2639653640027999</v>
+        <v>1.26323016914034</v>
       </c>
       <c r="E27">
-        <v>1.26730370845698</v>
+        <v>1.26658644657563</v>
       </c>
       <c r="F27">
-        <v>1.20820317378068</v>
+        <v>1.2075661745427599</v>
       </c>
       <c r="G27">
         <v>1.2750114365837799</v>
@@ -18194,10 +24533,13 @@
         <v>1.36902469297624</v>
       </c>
       <c r="J27">
-        <v>1.1950394550005401</v>
+        <v>1.19888444702577</v>
+      </c>
+      <c r="K27">
+        <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -18211,15 +24553,15 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>58.656197962499746</v>
+        <v>59.721742087499969</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>58.665338348749742</v>
+        <v>59.731628487499968</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>60.545251000000007</v>
+        <v>61.596107049999958</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -18232,6 +24574,14 @@
       <c r="I29">
         <f t="shared" si="0"/>
         <v>77.496265637499974</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(J4,J11,J18,J25)</f>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K4,K11,K18,K25)</f>
+        <v>86.294978487499975</v>
       </c>
     </row>
   </sheetData>
@@ -18242,26 +24592,977 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EEC7F2-869C-473B-B0F7-6532F6E08320}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(A4,A11,A18)</f>
+        <v>90.196984199999676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>49.071759293999797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20479364.138999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>136.18921584999899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2980.2287389999901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.21424283541786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16.4692933359999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14466594.3909999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>78.351020899999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2302.8329140000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.2039926156343801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7.6745097420000103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11314939.027000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>56.050715850000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1816.8016419999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.2026310542730601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4E1405-9404-4955-96CF-9958097825BE}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>47.626003435999799</v>
+      </c>
+      <c r="C2">
+        <v>26.789736353999899</v>
+      </c>
+      <c r="D2">
+        <v>23.822091607999798</v>
+      </c>
+      <c r="E2">
+        <v>20.609071105999799</v>
+      </c>
+      <c r="F2">
+        <v>45.006469479999801</v>
+      </c>
+      <c r="G2">
+        <v>30.6171889579999</v>
+      </c>
+      <c r="H2">
+        <v>17.881305673999901</v>
+      </c>
+      <c r="I2">
+        <v>4.01654212199991</v>
+      </c>
+      <c r="J2">
+        <v>49.130266033999803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>21676498.890999898</v>
+      </c>
+      <c r="C3">
+        <v>18977666.9489999</v>
+      </c>
+      <c r="D3">
+        <v>28419447.347999901</v>
+      </c>
+      <c r="E3">
+        <v>29227814.485999901</v>
+      </c>
+      <c r="F3">
+        <v>22587369.030000001</v>
+      </c>
+      <c r="G3">
+        <v>17855505.048</v>
+      </c>
+      <c r="H3">
+        <v>23248049.044</v>
+      </c>
+      <c r="I3">
+        <v>27777837.306999899</v>
+      </c>
+      <c r="J3">
+        <v>20529321.429000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>138.379549</v>
+      </c>
+      <c r="C4">
+        <v>107.16285415</v>
+      </c>
+      <c r="D4">
+        <v>137.49988099999999</v>
+      </c>
+      <c r="E4">
+        <v>137.52032904999999</v>
+      </c>
+      <c r="F4">
+        <v>140.95589559999999</v>
+      </c>
+      <c r="G4">
+        <v>108.25515915</v>
+      </c>
+      <c r="H4">
+        <v>115.70660185</v>
+      </c>
+      <c r="I4">
+        <v>119.08759135</v>
+      </c>
+      <c r="J4">
+        <v>136.46390174999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>3411.424477</v>
+      </c>
+      <c r="C5">
+        <v>4288.7718590000004</v>
+      </c>
+      <c r="D5">
+        <v>10398.499846999999</v>
+      </c>
+      <c r="E5">
+        <v>11204.3372389999</v>
+      </c>
+      <c r="F5">
+        <v>4255.4862089999997</v>
+      </c>
+      <c r="G5">
+        <v>3269.9377039999999</v>
+      </c>
+      <c r="H5">
+        <v>7403.1791479999902</v>
+      </c>
+      <c r="I5">
+        <v>12186.940406</v>
+      </c>
+      <c r="J5">
+        <v>2978.9633490000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1.2350466627275101</v>
+      </c>
+      <c r="C6">
+        <v>1.3717298131634601</v>
+      </c>
+      <c r="D6">
+        <v>1.59174579693887</v>
+      </c>
+      <c r="E6">
+        <v>1.62171582599213</v>
+      </c>
+      <c r="F6">
+        <v>1.2794572116413501</v>
+      </c>
+      <c r="G6">
+        <v>1.3412999970677999</v>
+      </c>
+      <c r="H6">
+        <v>1.4730012996810899</v>
+      </c>
+      <c r="I6">
+        <v>1.74814986684213</v>
+      </c>
+      <c r="J6">
+        <v>1.21294057916065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>11.120784489999901</v>
+      </c>
+      <c r="C9">
+        <v>8.2414489359999994</v>
+      </c>
+      <c r="D9">
+        <v>-16.098914579999999</v>
+      </c>
+      <c r="E9">
+        <v>-16.098914579999999</v>
+      </c>
+      <c r="F9">
+        <v>-16.651639326000002</v>
+      </c>
+      <c r="G9">
+        <v>15.5316397799999</v>
+      </c>
+      <c r="H9">
+        <v>-1.0554253180000099</v>
+      </c>
+      <c r="I9">
+        <v>12.8801552899999</v>
+      </c>
+      <c r="J9">
+        <v>15.063474357999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>13656150.140000001</v>
+      </c>
+      <c r="C10">
+        <v>13029720.691</v>
+      </c>
+      <c r="D10">
+        <v>21237273.8699999</v>
+      </c>
+      <c r="E10">
+        <v>21237273.8699999</v>
+      </c>
+      <c r="F10">
+        <v>21077434.394000001</v>
+      </c>
+      <c r="G10">
+        <v>12827764.93</v>
+      </c>
+      <c r="H10">
+        <v>15109874.9669999</v>
+      </c>
+      <c r="I10">
+        <v>14206173.640000001</v>
+      </c>
+      <c r="J10">
+        <v>14721491.472999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>70.091735049999897</v>
+      </c>
+      <c r="C11">
+        <v>65.037681699999993</v>
+      </c>
+      <c r="D11">
+        <v>68.850180899999998</v>
+      </c>
+      <c r="E11">
+        <v>68.850180899999998</v>
+      </c>
+      <c r="F11">
+        <v>70.205548250000007</v>
+      </c>
+      <c r="G11">
+        <v>71.217999500000005</v>
+      </c>
+      <c r="H11">
+        <v>62.088824549999998</v>
+      </c>
+      <c r="I11">
+        <v>72.059849849999907</v>
+      </c>
+      <c r="J11">
+        <v>77.911990250000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2087.10855299999</v>
+      </c>
+      <c r="C12">
+        <v>2626.4527079999998</v>
+      </c>
+      <c r="D12">
+        <v>3282.2179839999999</v>
+      </c>
+      <c r="E12">
+        <v>3282.2179839999999</v>
+      </c>
+      <c r="F12">
+        <v>3066.4288449999999</v>
+      </c>
+      <c r="G12">
+        <v>2581.6783300000002</v>
+      </c>
+      <c r="H12">
+        <v>3143.3183600000002</v>
+      </c>
+      <c r="I12">
+        <v>3329.9534229999999</v>
+      </c>
+      <c r="J12">
+        <v>2345.3693010000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1.20497150666523</v>
+      </c>
+      <c r="C13">
+        <v>1.2788217689328401</v>
+      </c>
+      <c r="D13">
+        <v>1.1906122780792401</v>
+      </c>
+      <c r="E13">
+        <v>1.1906122780792401</v>
+      </c>
+      <c r="F13">
+        <v>1.17993579546954</v>
+      </c>
+      <c r="G13">
+        <v>1.2825072931927299</v>
+      </c>
+      <c r="H13">
+        <v>1.23591375816989</v>
+      </c>
+      <c r="I13">
+        <v>1.3147230141155299</v>
+      </c>
+      <c r="J13">
+        <v>1.19990217124946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8.4614960799999892</v>
+      </c>
+      <c r="C16">
+        <v>3.12527921</v>
+      </c>
+      <c r="D16">
+        <v>-74.006715277999902</v>
+      </c>
+      <c r="E16">
+        <v>-74.006715277999902</v>
+      </c>
+      <c r="F16">
+        <v>-74.552627091999895</v>
+      </c>
+      <c r="G16">
+        <v>11.273646321999999</v>
+      </c>
+      <c r="H16">
+        <v>-15.209341125999901</v>
+      </c>
+      <c r="I16">
+        <v>6.8372700479999997</v>
+      </c>
+      <c r="J16">
+        <v>6.0464890200000099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>9923233.8550000004</v>
+      </c>
+      <c r="C17">
+        <v>10759852.0849999</v>
+      </c>
+      <c r="D17">
+        <v>20840047.831999999</v>
+      </c>
+      <c r="E17">
+        <v>20840047.831999999</v>
+      </c>
+      <c r="F17">
+        <v>20771566.598000001</v>
+      </c>
+      <c r="G17">
+        <v>10638648.657</v>
+      </c>
+      <c r="H17">
+        <v>12481486.893999999</v>
+      </c>
+      <c r="I17">
+        <v>11235619.088</v>
+      </c>
+      <c r="J17">
+        <v>11515727.394999901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>51.840931499999897</v>
+      </c>
+      <c r="C18">
+        <v>50.273487549999999</v>
+      </c>
+      <c r="D18">
+        <v>9.3534760499999905</v>
+      </c>
+      <c r="E18">
+        <v>9.3534760499999905</v>
+      </c>
+      <c r="F18">
+        <v>10.2208392999999</v>
+      </c>
+      <c r="G18">
+        <v>56.73894095</v>
+      </c>
+      <c r="H18">
+        <v>36.397806449999997</v>
+      </c>
+      <c r="I18">
+        <v>53.036196400000001</v>
+      </c>
+      <c r="J18">
+        <v>55.396315950000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1487.2717829999899</v>
+      </c>
+      <c r="C19">
+        <v>2042.210724</v>
+      </c>
+      <c r="D19">
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="E19">
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="F19">
+        <v>2748.3808759999902</v>
+      </c>
+      <c r="G19">
+        <v>2071.0399779999998</v>
+      </c>
+      <c r="H19">
+        <v>2315.199807</v>
+      </c>
+      <c r="I19">
+        <v>2311.425729</v>
+      </c>
+      <c r="J19">
+        <v>1851.99972399999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.20882052038777</v>
+      </c>
+      <c r="C20">
+        <v>1.25104130325142</v>
+      </c>
+      <c r="D20">
+        <v>1.16677458966456</v>
+      </c>
+      <c r="E20">
+        <v>1.16677458966456</v>
+      </c>
+      <c r="F20">
+        <v>1.16113454993895</v>
+      </c>
+      <c r="G20">
+        <v>1.25779937936546</v>
+      </c>
+      <c r="H20">
+        <v>1.19779922730968</v>
+      </c>
+      <c r="I20">
+        <v>1.26626836578888</v>
+      </c>
+      <c r="J20">
+        <v>1.1972270936256699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>5.2833863919999402</v>
+      </c>
+      <c r="C23">
+        <v>-1.9232142760000099</v>
+      </c>
+      <c r="D23">
+        <v>-67.009977296000002</v>
+      </c>
+      <c r="E23">
+        <v>-67.365790930000003</v>
+      </c>
+      <c r="F23">
+        <v>-64.348991905999995</v>
+      </c>
+      <c r="G23">
+        <v>3.1487729659999699</v>
+      </c>
+      <c r="H23">
+        <v>-10.133793069999999</v>
+      </c>
+      <c r="I23">
+        <v>-2.19752247000002</v>
+      </c>
+      <c r="J23">
+        <v>9.8665112439999394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>15387965.8769999</v>
+      </c>
+      <c r="C24">
+        <v>13630695.893999999</v>
+      </c>
+      <c r="D24">
+        <v>22548351.923999902</v>
+      </c>
+      <c r="E24">
+        <v>22642079.719999999</v>
+      </c>
+      <c r="F24">
+        <v>21541821.739</v>
+      </c>
+      <c r="G24">
+        <v>13372338.995999999</v>
+      </c>
+      <c r="H24">
+        <v>16095069.105</v>
+      </c>
+      <c r="I24">
+        <v>16271324.355</v>
+      </c>
+      <c r="J24">
+        <v>15286636.188999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>70.940349900000001</v>
+      </c>
+      <c r="C25">
+        <v>56.687869300000003</v>
+      </c>
+      <c r="D25">
+        <v>23.183430399999899</v>
+      </c>
+      <c r="E25">
+        <v>23.202527949999901</v>
+      </c>
+      <c r="F25">
+        <v>25.0021450499999</v>
+      </c>
+      <c r="G25">
+        <v>61.372028950000001</v>
+      </c>
+      <c r="H25">
+        <v>57.352883349999999</v>
+      </c>
+      <c r="I25">
+        <v>65.801424949999998</v>
+      </c>
+      <c r="J25">
+        <v>75.407705999999905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2311.2760539999999</v>
+      </c>
+      <c r="C26">
+        <v>2780.2042669999901</v>
+      </c>
+      <c r="D26">
+        <v>4570.0132309999899</v>
+      </c>
+      <c r="E26">
+        <v>4664.7995349999901</v>
+      </c>
+      <c r="F26">
+        <v>3450.3690120000001</v>
+      </c>
+      <c r="G26">
+        <v>2511.1707609999999</v>
+      </c>
+      <c r="H26">
+        <v>3731.8837600000002</v>
+      </c>
+      <c r="I26">
+        <v>4699.6553979999999</v>
+      </c>
+      <c r="J26">
+        <v>2340.3117309999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1.20068084223903</v>
+      </c>
+      <c r="C27">
+        <v>1.27913262342328</v>
+      </c>
+      <c r="D27">
+        <v>1.26323016914034</v>
+      </c>
+      <c r="E27">
+        <v>1.26658644657563</v>
+      </c>
+      <c r="F27">
+        <v>1.2075661745427599</v>
+      </c>
+      <c r="G27">
+        <v>1.2750114365837799</v>
+      </c>
+      <c r="H27">
+        <v>1.27016437513809</v>
+      </c>
+      <c r="I27">
+        <v>1.36902469297624</v>
+      </c>
+      <c r="J27">
+        <v>1.196845063087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:J29" si="0">AVERAGE(B4,B11,B18,B25)</f>
+        <v>82.813141362499948</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>69.790473175000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>59.721742087499969</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>59.731628487499968</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>61.596107049999958</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>74.396032137500001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>67.886529049999993</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>77.496265637499974</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>86.294978487499975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0FE4AB-FA8B-4062-91F3-33A87312A0B6}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -18281,7 +25582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -18301,7 +25602,7 @@
         <v>44.801890627999803</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18321,7 +25622,7 @@
         <v>21302918.568</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18341,7 +25642,7 @@
         <v>134.32521489999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18361,7 +25662,7 @@
         <v>3375.6604629999902</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -18381,7 +25682,7 @@
         <v>1.2354346141475401</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -18401,7 +25702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -18421,7 +25722,7 @@
         <v>7.5329767179999898</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -18441,7 +25742,7 @@
         <v>13907966.107999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -18461,7 +25762,7 @@
         <v>67.562141150000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -18481,7 +25782,7 @@
         <v>2110.3595730000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -18501,7 +25802,7 @@
         <v>1.2025930770666</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -18521,7 +25822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -18541,7 +25842,7 @@
         <v>4.1631884239999897</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -18561,7 +25862,7 @@
         <v>10278743.719000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -18581,7 +25882,7 @@
         <v>49.139313299999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -18601,7 +25902,7 @@
         <v>1550.948312</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -18621,7 +25922,7 @@
         <v>1.20631348635199</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -18641,7 +25942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -18661,7 +25962,7 @@
         <v>3.0106230859999501</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -18681,7 +25982,7 @@
         <v>14924022.190999901</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -18701,7 +26002,7 @@
         <v>66.935611850000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -18721,7 +26022,7 @@
         <v>2310.32883699999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -18741,7 +26042,7 @@
         <v>1.2002094398535399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>

--- a/short video_NewQoE.xlsx
+++ b/short video_NewQoE.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augus\Downloads\Lab\Short-Video-Streaming-Challenge-Duc\Short-Video-Streaming-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB7321-F8DE-4139-952F-3EFA96247004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA78C3AA-116C-4AD0-A5D9-A4C288FC1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D7097C12-A0E5-438F-B20B-27C59CB6F792}"/>
   </bookViews>
   <sheets>
     <sheet name="42" sheetId="6" r:id="rId1"/>
     <sheet name="30" sheetId="11" r:id="rId2"/>
     <sheet name="20" sheetId="12" r:id="rId3"/>
     <sheet name="50 user traces" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId5"/>
-    <sheet name="100 user traces" sheetId="17" r:id="rId6"/>
-    <sheet name="M" sheetId="15" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId6"/>
+    <sheet name="100 user traces" sheetId="17" r:id="rId7"/>
+    <sheet name="M" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="38">
   <si>
     <t>Fix B</t>
   </si>
@@ -150,6 +151,12 @@
   </si>
   <si>
     <t>[73.37254999999999, 67.4955, 69.88179999999998, 54.62650000000001, 75.14784999999999, 66.3109, 56.38069999999999, 65.64325000000001, 72.86015, 76.1241, 76.26004999999999, 66.2154, 63.97789999999999, 73.35235, 83.15105, 63.674499999999995, 64.99465000000001, 75.0668, 55.45664999999998, 54.56205, 57.85725, 52.155150000000006, 51.17335, 45.412600000000005, 56.6754, 52.88969999999999, 52.45395, 55.270649999999996, 60.635250000000006, 57.57594999999999, 56.0583, 48.49535, 52.0525, 56.967200000000005, 61.472100000000005, 44.29955, 50.477149999999995, 57.69855, 41.79815, 49.21679999999999, 101.56105, 91.5058, 88.9666, 81.50455, 102.50415, 80.6553, 87.02899999999998, 90.9053, 96.1224, 92.58395, 105.87259999999999, 93.75305, 85.1456, 103.03574999999998, 108.42424999999997, 84.26119999999999, 89.18925000000002, 88.10415, 86.21619999999999, 74.08085, 84.9099, 74.82265, 75.9471, 72.12984999999999, 86.3896, 73.03350000000002, 72.27875, 82.91155, 86.22045000000001, 80.22420000000001, 87.03679999999999, 81.66435, 73.96170000000001, 88.91810000000001, 88.22075, 72.34615, 76.7147, 79.28575, 69.17285000000001, 63.804300000000005, 70.2472, 56.03189999999999, 54.47335, 49.47295, 64.44154999999999, 55.37435, 54.00774999999999, 58.68909999999999, 65.994, 68.83305, 66.35294999999999, 58.371199999999995, 60.92739999999999, 70.18764999999999, 76.46365, 55.45455, 62.49905, 65.6915, 44.456849999999996, 43.72054999999999, 52.34904999999999, 40.415450000000014, 45.260850000000005, 37.45974999999999, 54.08425, 41.702600000000004, 40.1229, 51.2863, 48.70419999999999, 46.81764999999999, 45.734300000000005, 43.901149999999994, 42.86175, 57.0661, 55.82525, 45.7658, 43.5377, 48.09025, 34.118849999999995, 33.4161, 111.28815, 91.49659999999999, 81.1832, 82.86095, 102.02749999999999, 83.0189, 88.24699999999999, 97.36515, 94.2073, 92.6233, 95.083, 103.2654, 96.8967, 108.43515, 107.78469999999999, 88.10205, 94.5903, 88.621, 89.15665000000001, 81.54355, 8.172449999999998, 4.6007500000000014, 4.635249999999999, 3.2791999999999977, 9.1201, 12.745899999999997, 8.868, 12.919699999999995, -3.1429000000000014, 9.218099999999998, 6.455349999999999, 9.551499999999999, 2.1729000000000003, 8.836749999999999, 10.089449999999996, 4.116199999999999, 5.486199999999996, -0.7134500000000012, -5.537000000000002, -0.44374999999999987, 56.9975, 47.97455000000001, 56.08465, 44.86595, 54.300399999999996, 52.901849999999996, 44.1583, 58.41649999999999, 61.73994999999999, 60.69845, 61.374300000000005, 49.89495, 51.6105, 58.313599999999994, 67.26655000000001, 52.365950000000005, 51.4821, 57.86295000000001, 44.9155, 44.987750000000005, 129.9507, 112.0885, 103.21255000000001, 104.98070000000001, 125.04175000000001, 105.7483, 107.71619999999999, 114.06224999999999, 115.00155000000001, 113.56495, 122.93534999999999, 117.48089999999999, 119.3709, 128.13165, 127.6238, 115.39514999999999, 126.56040000000002, 113.05954999999999, 113.30374999999998, 106.86585, 13.320399999999996, 13.413099999999998, 18.29085, 10.611700000000003, 18.06165, 21.7348, 17.61995, 19.7352, 12.528299999999998, 22.203649999999996, 13.387599999999999, 21.189899999999998, 12.264949999999995, 13.846099999999995, 22.142650000000003, 12.701799999999999, 15.284050000000004, 13.128549999999999, 2.1072499999999996, 16.607099999999996, 102.11649999999999, 86.1979, 79.96374999999999, 71.8186, 96.25319999999999, 80.515, 84.39375, 93.0406, 96.30715, 88.51585, 96.54854999999999, 95.43190000000001, 82.48880000000001, 91.88125000000001, 100.97715000000001, 87.96244999999999, 89.43690000000001, 85.91645, 88.01149999999998, 71.03075, 83.1179, 77.7544, 64.85725, 62.9662, 81.4492, 68.66040000000001, 67.37475, 74.6334, 78.07610000000001, 71.6707, 79.969, 73.49645000000001, 68.97899999999998, 79.78735, 89.68099999999998, 68.13210000000001, 71.59020000000001, 74.27255, 57.04259999999999, 62.8762, 142.25905, 107.26395000000001, 115.0993, 108.4083, 129.34720000000002, 113.10019999999999, 119.05005, 114.86005000000002, 120.57235000000001, 118.15654999999998, 132.56189999999998, 118.35675, 118.06400000000001, 138.35424999999998, 140.4846, 122.32674999999999, 128.62875, 123.385, 110.36639999999998, 109.87575, 24.184199999999997, 22.679900000000004, 26.016149999999996, 19.111500000000003, 24.65854999999999, 27.103399999999997, 25.127, 28.54385, 17.217449999999996, 33.701899999999995, 25.8617, 25.25725, 18.937499999999996, 28.901799999999998, 31.6101, 21.66539999999999, 21.01495, 20.290599999999998, 11.939149999999998, 18.7431, 9.564799999999996, 4.364499999999997, 6.743599999999999, 5.704349999999998, 11.216399999999997, 9.685050000000002, 13.162149999999999, 12.937549999999998, -4.671800000000005, 13.870249999999999, 6.8162, 9.629949999999997, 2.5439500000000006, 9.09925, 16.811149999999998, 6.37505, 7.970149999999998, 3.1148499999999997, -3.3386000000000013, 1.0139999999999987, 58.226749999999996, 43.80009999999999, 57.314750000000004, 44.11999999999999, 59.97609999999999, 51.782999999999994, 47.7552, 55.33004999999999, 56.52395, 57.450799999999994, 56.46885000000001, 49.04199999999999, 48.319, 65.41815, 60.911449999999995, 53.10945, 45.695249999999994, 50.076899999999995, 40.52719999999999, 39.8215, 17.333, 11.5016, 15.14595, 8.730149999999998, 20.81105, 17.466099999999997, 10.775749999999999, 17.592099999999995, 8.255349999999996, 18.917999999999996, 14.075249999999999, 14.15935, 8.448450000000001, 14.512149999999998, 21.851149999999997, 9.86985, 12.551499999999999, 5.760499999999995, 0.5905999999999976, 8.690999999999999, 84.21505000000002, 66.2272, 66.62409999999998, 65.11449999999999, 77.6082, 65.44905, 68.45685, 73.92595, 85.6691, 76.36315, 79.4259, 75.2356, 68.0094, 80.10364999999999, 89.36605000000002, 70.18275, 75.53785, 76.38674999999999, 61.3288, 55.03255, 203.48340000000002, 171.19670000000002, 196.34994999999998, 193.18099999999998, 211.21625000000003, 190.54404999999997, 195.04964999999999, 176.2024, 213.3357, 196.18290000000002, 206.9326, 203.39189999999996, 192.21285, 197.8616, 205.83145000000002, 221.96979999999996, 191.77910000000003, 198.12825, 178.527, 183.3689, 19.907500000000002, 21.500599999999995, 23.319699999999997, 21.592699999999997, 25.7206, 30.57655, 26.72785, 27.79605, 17.104599999999998, 34.53935, 24.2468, 31.6029, 17.66545, 30.344950000000004, 34.6547, 24.64095, 23.177249999999994, 19.786900000000003, 8.836399999999998, 16.823449999999998, 81.31985, 70.14759999999998, 74.29570000000001, 67.89499999999998, 81.03524999999999, 73.47095, 69.93329999999999, 82.08245, 87.0899, 83.5581, 83.8039, 78.04655, 72.20634999999999, 84.71085000000001, 89.94014999999999, 69.5078, 76.51644999999999, 82.51854999999999, 66.5183, 60.9712, 60.523700000000005, 45.926050000000004, 48.48835, 43.90705, 62.9927, 49.20405, 44.823699999999995, 57.14485, 55.15725, 60.654399999999995, 56.0246, 53.4106, 50.67549999999999, 62.8949, 57.419900000000005, 45.86765, 47.84125, 56.2059, 42.0334, 40.7628, 128.77815, 97.52145, 101.05125000000001, 94.69404999999999, 115.49305, 102.9668, 104.05999999999999, 107.95675, 109.26260000000002, 106.39855, 117.78589999999997, 109.47480000000002, 106.76165, 121.38869999999999, 129.9934, 106.6142, 112.42325000000001, 114.12075000000002, 98.33295, 92.9826, 30.8581, 24.689449999999994, 31.76005, 28.048450000000003, 40.3536, 32.4256, 24.92635, 37.88275, 23.818049999999996, 37.78555, 27.821550000000002, 32.958, 20.412, 37.68195, 39.60225, 23.4379, 27.173799999999996, 27.986549999999994, 17.10465, 19.053749999999994, 27.205899999999993, 22.836, 24.883349999999997, 19.887900000000002, 26.429249999999996, 24.930999999999997, 23.77895, 28.380199999999995, 21.406150000000004, 31.067449999999997, 25.672349999999998, 24.22965, 19.007249999999996, 27.558999999999997, 36.684799999999996, 25.94915, 20.0564, 20.103149999999996, 11.95515, 13.599, 100.47800000000001, 85.97155000000001, 85.58675, 73.17184999999999, 93.0547, 84.20044999999999, 83.19965, 87.55969999999999, 95.41645, 92.68820000000001, 102.25025000000001, 92.1358, 85.73215, 99.3706, 102.32649999999998, 83.51374999999999, 89.52329999999999, 100.79825000000001, 75.7046, 69.98415, 53.7443, 41.88560000000002, 47.03675, 40.12585, 55.80219999999999, 49.134550000000004, 46.40705, 48.40425, 48.7884, 55.84479999999999, 49.83944999999999, 41.83115, 38.1344, 58.6032, 62.87254999999999, 43.44765, 42.15445000000001, 48.551950000000005, 30.311349999999997, 35.12715, 64.78030000000001, 52.95445000000001, 49.401900000000005, 42.73224999999999, 67.0051, 52.60135, 50.785250000000005, 59.0698, 58.0177, 62.93575, 57.962500000000006, 50.029999999999994, 52.29315, 61.905899999999995, 67.48030000000001, 50.5437, 50.4487, 62.0713, 43.5392, 43.598150000000004, 56.492149999999995, 48.3734, 50.61385, 42.293350000000004, 64.22290000000001, 49.4425, 49.2546, 60.096650000000004, 59.429649999999995, 60.31885, 55.2236, 50.61595, 49.572649999999996, 63.516149999999996, 63.811550000000004, 49.17755, 46.0379, 51.3777, 37.82515, 38.863249999999994, 89.25765, 70.42985000000002, 76.41195, 69.32770000000001, 86.95660000000001, 72.2855, 71.87365, 77.62475, 83.87235, 82.64070000000001, 88.0003, 75.51075, 80.3815, 85.8527, 90.79825, 67.50280000000001, 80.1285, 75.44195, 63.439099999999996, 64.554, 14.321199999999997, 10.902849999999999, 10.53365, 10.6939, 18.464349999999996, 15.796950000000002, 18.724000000000004, 17.127049999999997, 5.511150000000002, 17.49995, 13.609749999999998, 13.325649999999996, 12.75245, 18.01835, 18.22215, 8.777649999999998, 16.115899999999996, 8.949049999999998, 3.002999999999998, 9.744099999999998, 60.7319, 48.53730000000001, 52.25405, 43.616, 61.88929999999999, 51.04819999999999, 48.744499999999995, 55.28040000000001, 62.06875000000001, 57.73004999999999, 58.50585, 46.3785, 55.6053, 67.1674, 63.5224, 54.96554999999999, 49.42595, 55.89069999999999, 43.9633, 46.3502, 64.1037, 53.57430000000001, 55.8819, 43.056999999999995, 62.81044999999999, 54.431400000000004, 57.819300000000005, 65.42089999999999, 64.7846, 61.648849999999996, 62.494800000000005, 52.97545, 55.560900000000004, 69.53085, 67.43034999999999, 50.54344999999999, 56.03955, 57.517399999999995, 40.809200000000004, 43.77185, 50.35885000000001, 42.83045, 49.9538, 43.498000000000005, 56.71469999999999, 39.9571, 41.23429999999999, 51.147349999999996, 50.2499, 55.77310000000001, 47.902049999999996, 46.828900000000004, 43.294, 60.124950000000005, 50.07775, 42.014700000000005, 42.1239, 48.32155, 31.627000000000002, 36.6024, 34.791, 26.313100000000002, 26.0148, 24.3567, 35.27255, 28.991549999999993, 24.7319, 31.04765, 27.8702, 34.271899999999995, 33.84715, 32.45735, 24.1083, 40.436749999999996, 38.957, 28.40135, 26.0041, 27.415099999999995, 18.83775, 22.3509, 45.161350000000006, 36.91640000000001, 38.04215, 31.524250000000002, 49.2408, 39.547900000000006, 35.24345000000001, 46.13100000000001, 39.8307, 51.567, 40.613150000000005, 39.79489999999999, 32.891400000000004, 46.3638, 52.33965000000001, 37.94614999999999, 35.840300000000006, 44.22385, 28.22845, 25.994799999999998, 67.72439999999999, 60.255700000000004, 65.41900000000001, 54.27735, 68.32325, 61.795849999999994, 53.70935000000001, 64.62299999999999, 65.3709, 67.46035, 68.6828, 57.87115000000001, 63.504400000000004, 77.4119, 77.36930000000001, 64.8614, 58.73145000000001, 69.27655000000001, 51.396100000000004, 54.342150000000004, 32.1954, 26.86955, 28.708499999999997, 24.3242, 30.464650000000002, 32.652550000000005, 30.427149999999997, 32.2739, 24.991200000000003, 33.97385, 26.469999999999995, 31.20135, 23.001099999999997, 32.23995000000001, 40.16465, 26.401349999999994, 27.134399999999996, 27.08335, 11.4801, 19.413949999999993, 100.6179, 90.43169999999999, 83.9631, 83.2614, 94.20975000000001, 86.29350000000001, 86.35644999999998, 91.07230000000001, 94.90325000000001, 97.23155, 95.20235, 95.506, 88.51695, 101.19255, 115.6136, 85.6763, 94.02000000000001, 93.14175, 81.79740000000001, 69.69465, 4.7768999999999995, 6.318299999999999, 3.951799999999999, 3.567899999999999, 8.05645, 13.4127, 7.3309999999999995, 10.205199999999998, 1.4439499999999996, 5.681050000000001, 4.723999999999999, 7.278449999999999, 1.8084000000000002, 9.61095, 6.9857499999999995, 7.497449999999998, 11.6579, 2.0832999999999986, 0.96245, 5.3352999999999975, 7.442350000000001, 8.924999999999999, 13.09895, 2.425199999999999, 5.20825, 11.21655, 7.7783, 11.076500000000001, 0.9696999999999993, 9.405399999999998, 4.537450000000001, 12.2326, 2.597249999999998, 9.03155, 13.078099999999997, 15.7148, 6.61035, 9.468149999999998, -0.8134000000000006, 5.8692499999999965, 58.89470000000001, 47.72234999999999, 57.845949999999995, 50.06005, 58.7262, 49.98024999999999, 50.4127, 65.11605000000002, 53.626900000000006, 58.5937, 65.753, 53.11155000000001, 51.348400000000005, 61.276650000000004, 65.52355, 47.780499999999996, 49.8163, 63.34084999999999, 41.05944999999999, 46.664750000000005, 56.69285, 46.2956, 51.38759999999999, 47.71605000000001, 53.91595, 50.10764999999999, 53.19605000000001, 55.85565, 51.35634999999999, 60.40695, 55.723949999999995, 52.09895, 46.439699999999995, 59.92629999999998, 62.25544999999999, 46.73685, 47.1705, 57.514649999999996, 37.4111, 36.58325000000001, 30.900899999999996, 27.92405, 26.054849999999995, 20.366999999999997, 28.30425, 32.09325, 24.469949999999997, 27.345699999999994, 23.8703, 35.9507, 28.96125, 31.435699999999997, 22.6907, 34.17195, 32.60305, 21.760499999999997, 25.525549999999996, 22.9079, 11.619399999999999, 28.492949999999997, 82.88940000000001, 67.26415, 64.763, 62.221000000000004, 79.01645, 66.29355, 65.49375, 74.2159, 78.18485, 76.02964999999998, 84.0573, 69.56915, 67.35515000000001, 83.27104999999999, 85.3564, 67.24515, 73.45595, 85.7425, 56.04990000000001, 61.8137, 125.7477, 96.34885000000001, 97.30605, 99.01365, 108.00734999999999, 98.53235000000001, 104.87310000000001, 108.6713, 103.78945, 105.12595, 112.8894, 100.27994999999999, 105.16595, 122.24659999999999, 122.0018, 106.26685000000002, 112.1298, 111.45935000000001, 97.60545, 93.34245, 79.74174999999998, 64.6208, 62.615700000000004, 57.495500000000014, 71.5706, 62.57959999999999, 61.516549999999995, 69.6434, 74.01265, 73.78095, 70.37129999999999, 64.567, 62.73675, 68.5868, 82.23099999999997, 59.68160000000001, 68.56145, 75.38669999999999, 51.9072, 52.76735, 13.6086, 10.7039, 12.465399999999997, 12.854349999999997, 15.60605, 19.440999999999995, 18.0498, 20.87885, 5.097549999999999, 20.4949, 16.7518, 15.11835, 11.3781, 14.113449999999998, 22.1582, 12.987499999999999, 10.564300000000001, 9.6009, 1.5402499999999986, 9.51295, 9.634299999999996, 5.272049999999998, 7.524399999999997, 2.7356999999999982, 10.067250000000001, 10.222549999999998, 12.396799999999999, 11.75995, 1.1303499999999997, 10.066749999999997, 7.876349999999997, 9.366700000000002, 6.642899999999998, 8.43375, 15.672400000000001, 7.761999999999999, 6.83855, 5.806999999999999, 1.462899999999999, 7.671049999999998]</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Norm</t>
   </si>
 </sst>
 </file>
@@ -21766,16 +21773,16 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -21801,7 +21808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -21827,7 +21834,7 @@
         <v>12.400029399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -21853,7 +21860,7 @@
         <v>13457863.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -21879,7 +21886,7 @@
         <v>72.553984999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -21905,7 +21912,7 @@
         <v>3696.1902500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -21931,7 +21938,7 @@
         <v>1.31345402910898</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -21957,7 +21964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -21983,7 +21990,7 @@
         <v>-5.9809045999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -22009,7 +22016,7 @@
         <v>8958526.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -22035,7 +22042,7 @@
         <v>32.373199999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -22061,7 +22068,7 @@
         <v>2909.2682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -22087,7 +22094,7 @@
         <v>1.2637557685481</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -22113,7 +22120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -22139,7 +22146,7 @@
         <v>-11.717597899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -22165,7 +22172,7 @@
         <v>7007740.0999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -22191,7 +22198,7 @@
         <v>18.6258625</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -22217,7 +22224,7 @@
         <v>2475.1986000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -22243,7 +22250,7 @@
         <v>1.27203881197491</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -22269,7 +22276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -22295,7 +22302,7 @@
         <v>-12.5949740999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -22321,7 +22328,7 @@
         <v>9616830.4000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -22347,7 +22354,7 @@
         <v>30.322347499999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -22373,7 +22380,7 @@
         <v>2806.8782500000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -22399,7 +22406,7 @@
         <v>1.27795527156549</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29">
         <f>AVERAGE(B4,B11,B18,B25)</f>
         <v>42.00813124999997</v>
@@ -22440,16 +22447,16 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -22472,7 +22479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -22495,7 +22502,7 @@
         <v>19.326067099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -22518,7 +22525,7 @@
         <v>12226531.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -22541,7 +22548,7 @@
         <v>72.254692500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -22564,7 +22571,7 @@
         <v>2459.7737499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -22587,7 +22594,7 @@
         <v>1.25962447656355</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -22610,7 +22617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -22633,7 +22640,7 @@
         <v>14.442761900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -22656,7 +22663,7 @@
         <v>9606625.1500000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -22679,7 +22686,7 @@
         <v>56.3517624999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -22702,7 +22709,7 @@
         <v>2192.4892999999902</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -22725,7 +22732,7 @@
         <v>1.23514115898959</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -22748,7 +22755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -22771,7 +22778,7 @@
         <v>11.2015174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -22794,7 +22801,7 @@
         <v>8311325.6500000004</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -22817,7 +22824,7 @@
         <v>46.591819999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -22840,7 +22847,7 @@
         <v>1709.25755</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -22863,7 +22870,7 @@
         <v>1.22416587869782</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -22886,7 +22893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -22909,7 +22916,7 @@
         <v>0.71796760000000803</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -22932,7 +22939,7 @@
         <v>9745886.8499999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -22955,7 +22962,7 @@
         <v>42.524014999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -22978,7 +22985,7 @@
         <v>1915.87105</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -23001,7 +23008,7 @@
         <v>1.2258543833580899</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>61.762774374999701</v>
@@ -23042,16 +23049,16 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -23074,7 +23081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -23097,7 +23104,7 @@
         <v>37.641777299999802</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -23120,7 +23127,7 @@
         <v>19157603.800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -23143,7 +23150,7 @@
         <v>119.7596925</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -23166,7 +23173,7 @@
         <v>3036.1089499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -23189,7 +23196,7 @@
         <v>1.2147242183410201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -23212,7 +23219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -23235,7 +23242,7 @@
         <v>22.510033400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -23258,7 +23265,7 @@
         <v>14041770.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -23281,7 +23288,7 @@
         <v>82.242114999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -23304,7 +23311,7 @@
         <v>2563.8451500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -23327,7 +23334,7 @@
         <v>1.17189358968257</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -23350,7 +23357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -23373,7 +23380,7 @@
         <v>14.9222784</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -23396,7 +23403,7 @@
         <v>11685839.15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -23419,7 +23426,7 @@
         <v>63.610635000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -23442,7 +23449,7 @@
         <v>2057.5586499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -23465,7 +23472,7 @@
         <v>1.1617808023604399</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -23488,7 +23495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -23511,7 +23518,7 @@
         <v>7.2142171999999603</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -23534,7 +23541,7 @@
         <v>14490510.699999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -23557,7 +23564,7 @@
         <v>68.323759999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -23580,7 +23587,7 @@
         <v>2352.1450499999901</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -23603,7 +23610,7 @@
         <v>1.1671346309427399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" ref="B29:G29" si="0">AVERAGE(B4,B11,B18,B25)</f>
         <v>88.240854999999996</v>
@@ -23640,24 +23647,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA8C31-FBD1-48A7-BAB2-E03F8B1EA857}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="11" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -23695,7 +23702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -23733,7 +23740,7 @@
         <v>45.127986257999801</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -23771,7 +23778,7 @@
         <v>21326380.222999901</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -23809,7 +23816,7 @@
         <v>135.99200714999901</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -23847,7 +23854,7 @@
         <v>3983.7205019999901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -23885,7 +23892,7 @@
         <v>1.27504564180865</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -23923,7 +23930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -23958,7 +23965,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -23993,7 +24000,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -24028,7 +24035,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -24063,7 +24070,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -24098,7 +24105,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -24136,7 +24143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -24174,7 +24181,7 @@
         <v>6.9798076820000103</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -24212,7 +24219,7 @@
         <v>11385288.092</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -24250,7 +24257,7 @@
         <v>56.531310050000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -24288,7 +24295,7 @@
         <v>1853.558955</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -24326,7 +24333,7 @@
         <v>1.2029751413584</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -24364,7 +24371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -24399,7 +24406,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -24434,7 +24441,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -24469,7 +24476,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -24504,7 +24511,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -24539,7 +24546,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -24572,7 +24579,7 @@
         <v>67.886529049999993</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4,I11,I18,I25)</f>
         <v>77.496265637499974</v>
       </c>
       <c r="J29">
@@ -24592,112 +24599,409 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EEC7F2-869C-473B-B0F7-6532F6E08320}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70852476-7B20-4BC1-9A2C-7B57BF2DFF2D}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1">
-        <f>AVERAGE(A4,A11,A18)</f>
-        <v>90.196984199999676</v>
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>49.071759293999797</v>
+        <v>10398.499846999999</v>
+      </c>
+      <c r="B2">
+        <v>4255.4862089999997</v>
+      </c>
+      <c r="C2">
+        <v>3269.9377039999999</v>
+      </c>
+      <c r="D2">
+        <v>7403.1791479999902</v>
+      </c>
+      <c r="E2">
+        <v>12186.940406</v>
+      </c>
+      <c r="F2">
+        <v>2977.9900479999901</v>
+      </c>
+      <c r="H2">
+        <f>MAX(A2:F2)</f>
+        <v>12186.940406</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>A2/H2</f>
+        <v>0.85324942114925773</v>
+      </c>
+      <c r="L2">
+        <f>B2/H2</f>
+        <v>0.34918413213089111</v>
+      </c>
+      <c r="M2">
+        <f>C2/H2</f>
+        <v>0.26831490062838992</v>
+      </c>
+      <c r="N2">
+        <f>D2/H2</f>
+        <v>0.60746823249871484</v>
+      </c>
+      <c r="O2">
+        <f>E2/H2</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>F2/H2</f>
+        <v>0.24435912122240586</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20479364.138999999</v>
+        <v>3282.2179839999999</v>
+      </c>
+      <c r="B3">
+        <v>3066.4288449999999</v>
+      </c>
+      <c r="C3">
+        <v>2581.6783300000002</v>
+      </c>
+      <c r="D3">
+        <v>3143.3183600000002</v>
+      </c>
+      <c r="E3">
+        <v>3329.9534229999999</v>
+      </c>
+      <c r="F3">
+        <v>2296.7297130000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">MAX(A3:F3)</f>
+        <v>3329.9534229999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="1">A3/H3</f>
+        <v>0.98566483282610162</v>
+      </c>
+      <c r="L3">
+        <f>B3/H3</f>
+        <v>0.92086238318535185</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="2">C3/H3</f>
+        <v>0.77528962182123595</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" si="3">D3/H3</f>
+        <v>0.94395265059537747</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O5" si="4">E3/H3</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>F3/H3</f>
+        <v>0.6897182696720261</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>136.18921584999899</v>
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="B4">
+        <v>2748.3808759999902</v>
+      </c>
+      <c r="C4">
+        <v>2071.0399779999998</v>
+      </c>
+      <c r="D4">
+        <v>2315.199807</v>
+      </c>
+      <c r="E4">
+        <v>2311.425729</v>
+      </c>
+      <c r="F4">
+        <v>1816.5412080000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2844.9444619999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>B4/H4</f>
+        <v>0.96605783090326991</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0.72797202394033933</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.81379437733290982</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>0.81246778623406402</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P3:P5" si="5">F4/H4</f>
+        <v>0.63851552543945589</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2980.2287389999901</v>
+        <v>4570.0132309999899</v>
+      </c>
+      <c r="B5">
+        <v>3450.3690120000001</v>
+      </c>
+      <c r="C5">
+        <v>2511.1707609999999</v>
+      </c>
+      <c r="D5">
+        <v>3731.8837600000002</v>
+      </c>
+      <c r="E5">
+        <v>4699.6553979999999</v>
+      </c>
+      <c r="F5">
+        <v>2313.0259460000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4699.6553979999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.97241453765840347</v>
+      </c>
+      <c r="L5">
+        <f>B5/H5</f>
+        <v>0.73417489577392203</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.53433082818554345</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>0.79407604259413411</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.49216926564112312</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.21424283541786</v>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>59.721742087499969</v>
+      </c>
+      <c r="B10">
+        <v>61.596107049999958</v>
+      </c>
+      <c r="C10">
+        <v>74.396032137500001</v>
+      </c>
+      <c r="D10">
+        <v>67.886529049999993</v>
+      </c>
+      <c r="E10">
+        <v>77.496265637499974</v>
+      </c>
+      <c r="F10">
+        <v>86.471222062499947</v>
+      </c>
+      <c r="H10">
+        <f>MAX(A10:F10)</f>
+        <v>86.471222062499947</v>
+      </c>
+      <c r="K10">
+        <f>A10/H10</f>
+        <v>0.69065453989229042</v>
+      </c>
+      <c r="L10">
+        <f>B10/H10</f>
+        <v>0.71233071050481189</v>
+      </c>
+      <c r="M10">
+        <f>C10/H10</f>
+        <v>0.8603559700327561</v>
+      </c>
+      <c r="N10">
+        <f>D10/H10</f>
+        <v>0.78507655415038258</v>
+      </c>
+      <c r="O10">
+        <f>E10/H10</f>
+        <v>0.8962087477090005</v>
+      </c>
+      <c r="P10">
+        <f>F10/H10</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>16.4692933359999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14466594.3909999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>78.351020899999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2302.8329140000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.2039926156343801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7.6745097420000103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11314939.027000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>56.050715850000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1816.8016419999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.2026310542730601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
+        <v>71.901179319999997</v>
+      </c>
+      <c r="B11">
+        <v>59.731628489999999</v>
+      </c>
+      <c r="C11">
+        <v>73.794094380000004</v>
+      </c>
+      <c r="D11">
+        <v>78.737366530000003</v>
+      </c>
+      <c r="E11">
+        <v>71.397744279999998</v>
+      </c>
+      <c r="F11">
+        <v>81.394545870000002</v>
+      </c>
+      <c r="H11">
+        <f>MAX(A11:F11)</f>
+        <v>81.394545870000002</v>
+      </c>
+      <c r="K11">
+        <f>A11/H11</f>
+        <v>0.88336606036032905</v>
+      </c>
+      <c r="L11">
+        <f>B11/H11</f>
+        <v>0.73385296092690144</v>
+      </c>
+      <c r="M11">
+        <f>C11/H11</f>
+        <v>0.90662210337607729</v>
+      </c>
+      <c r="N11">
+        <f>D11/H11</f>
+        <v>0.96735433177250063</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11" si="6">E11/H11</f>
+        <v>0.87718094028110338</v>
+      </c>
+      <c r="P11">
+        <f>F11/H11</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24706,6 +25010,120 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EEC7F2-869C-473B-B0F7-6532F6E08320}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1">
+        <f>AVERAGE(A4,A11,A18)</f>
+        <v>90.196984199999676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>49.071759293999797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20479364.138999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>136.18921584999899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2980.2287389999901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.21424283541786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16.4692933359999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14466594.3909999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>78.351020899999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2302.8329140000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.2039926156343801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7.6745097420000103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11314939.027000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>56.050715850000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1816.8016419999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.2026310542730601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4E1405-9404-4955-96CF-9958097825BE}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -24713,20 +25131,20 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -24758,7 +25176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -24790,7 +25208,7 @@
         <v>49.130266033999803</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -24822,7 +25240,7 @@
         <v>20529321.429000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -24854,7 +25272,7 @@
         <v>136.46390174999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -24886,7 +25304,7 @@
         <v>2978.9633490000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -24918,7 +25336,7 @@
         <v>1.21294057916065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -24950,7 +25368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -24982,7 +25400,7 @@
         <v>15.063474357999899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -25014,7 +25432,7 @@
         <v>14721491.472999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -25046,7 +25464,7 @@
         <v>77.911990250000002</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -25078,7 +25496,7 @@
         <v>2345.3693010000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -25110,7 +25528,7 @@
         <v>1.19990217124946</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -25142,7 +25560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -25174,7 +25592,7 @@
         <v>6.0464890200000099</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -25206,7 +25624,7 @@
         <v>11515727.394999901</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -25238,7 +25656,7 @@
         <v>55.396315950000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -25270,7 +25688,7 @@
         <v>1851.99972399999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -25302,7 +25720,7 @@
         <v>1.1972270936256699</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -25334,7 +25752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -25366,7 +25784,7 @@
         <v>9.8665112439999394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -25398,7 +25816,7 @@
         <v>15286636.188999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -25430,7 +25848,7 @@
         <v>75.407705999999905</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -25462,7 +25880,7 @@
         <v>2340.3117309999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -25494,7 +25912,7 @@
         <v>1.196845063087</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -25542,7 +25960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0FE4AB-FA8B-4062-91F3-33A87312A0B6}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -25550,19 +25968,19 @@
       <selection activeCell="B23" sqref="B23:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -25582,7 +26000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -25602,7 +26020,7 @@
         <v>44.801890627999803</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -25622,7 +26040,7 @@
         <v>21302918.568</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -25642,7 +26060,7 @@
         <v>134.32521489999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -25662,7 +26080,7 @@
         <v>3375.6604629999902</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -25682,7 +26100,7 @@
         <v>1.2354346141475401</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -25702,7 +26120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -25722,7 +26140,7 @@
         <v>7.5329767179999898</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -25742,7 +26160,7 @@
         <v>13907966.107999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -25762,7 +26180,7 @@
         <v>67.562141150000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -25782,7 +26200,7 @@
         <v>2110.3595730000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -25802,7 +26220,7 @@
         <v>1.2025930770666</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -25822,7 +26240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -25842,7 +26260,7 @@
         <v>4.1631884239999897</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -25862,7 +26280,7 @@
         <v>10278743.719000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -25882,7 +26300,7 @@
         <v>49.139313299999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -25902,7 +26320,7 @@
         <v>1550.948312</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -25922,7 +26340,7 @@
         <v>1.20631348635199</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -25942,7 +26360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -25962,7 +26380,7 @@
         <v>3.0106230859999501</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -25982,7 +26400,7 @@
         <v>14924022.190999901</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -26002,7 +26420,7 @@
         <v>66.935611850000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -26022,7 +26440,7 @@
         <v>2310.32883699999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -26042,7 +26460,7 @@
         <v>1.2002094398535399</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
